--- a/xlsx/model.xlsx
+++ b/xlsx/model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\TA_model\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239F2AB8-4BF1-493B-88F8-08261FE0B96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074D0ABD-74E6-4E57-93EF-B7C99812B9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21540" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
+    <workbookView xWindow="-21540" yWindow="-21720" windowWidth="38640" windowHeight="21120" firstSheet="2" activeTab="14" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
   </bookViews>
   <sheets>
     <sheet name="シナリオ" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="79">
   <si>
     <t>シナリオ1</t>
     <phoneticPr fontId="1"/>
@@ -405,6 +405,24 @@
     <t>Consumption</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>セメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>廃棄物</t>
+    <rPh sb="0" eb="3">
+      <t>ハイキブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土地利用</t>
+    <rPh sb="0" eb="4">
+      <t>トチリヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -640,7 +658,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,7 +823,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1125,7 +1142,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9448,8 +9465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EF27D6-DA54-419B-AE6D-2F27562AFF91}">
   <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -16702,10 +16719,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A352688-02A1-495B-81D2-06D9AFFE8253}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -16713,7 +16730,7 @@
     <col min="1" max="16384" width="10" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="45" t="s">
         <v>72</v>
       </c>
@@ -16722,12 +16739,8 @@
         <v>73</v>
       </c>
       <c r="E1" s="45"/>
-      <c r="G1" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="45"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="28" t="s">
         <v>32</v>
       </c>
@@ -16746,14 +16759,8 @@
       <c r="F2" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28">
         <v>2010</v>
       </c>
@@ -16776,16 +16783,8 @@
       <c r="F3" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G3" s="28">
-        <f>SUM(B3,D3,$F3)</f>
-        <v>3.9387437050364014</v>
-      </c>
-      <c r="H3" s="28">
-        <f>SUM(C3,E3,$F3)</f>
-        <v>3.9387437050364014</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28">
         <v>2011</v>
       </c>
@@ -16808,16 +16807,8 @@
       <c r="F4" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G4" s="28">
-        <f t="shared" ref="G4:G43" si="0">SUM(B4,D4,$F4)</f>
-        <v>3.0861394856439404</v>
-      </c>
-      <c r="H4" s="28">
-        <f t="shared" ref="H4:H43" si="1">SUM(C4,E4,$F4)</f>
-        <v>3.0861394856439404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28">
         <v>2012</v>
       </c>
@@ -16840,16 +16831,8 @@
       <c r="F5" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G5" s="28">
-        <f t="shared" si="0"/>
-        <v>5.0439238294872695</v>
-      </c>
-      <c r="H5" s="28">
-        <f t="shared" si="1"/>
-        <v>5.0439238294872695</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28">
         <v>2013</v>
       </c>
@@ -16872,16 +16855,8 @@
       <c r="F6" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G6" s="28">
-        <f t="shared" si="0"/>
-        <v>5.4684264890930123</v>
-      </c>
-      <c r="H6" s="28">
-        <f t="shared" si="1"/>
-        <v>5.4684264890930123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28">
         <v>2014</v>
       </c>
@@ -16904,16 +16879,8 @@
       <c r="F7" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G7" s="28">
-        <f t="shared" si="0"/>
-        <v>3.9228809462142351</v>
-      </c>
-      <c r="H7" s="28">
-        <f t="shared" si="1"/>
-        <v>3.9228809462142351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28">
         <v>2015</v>
       </c>
@@ -16936,16 +16903,8 @@
       <c r="F8" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G8" s="28">
-        <f t="shared" si="0"/>
-        <v>3.4279874276505069</v>
-      </c>
-      <c r="H8" s="28">
-        <f t="shared" si="1"/>
-        <v>3.4279874276505069</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="28">
         <v>2016</v>
       </c>
@@ -16968,16 +16927,8 @@
       <c r="F9" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G9" s="28">
-        <f t="shared" si="0"/>
-        <v>2.6798902962099334</v>
-      </c>
-      <c r="H9" s="28">
-        <f t="shared" si="1"/>
-        <v>2.6798902962099334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="28">
         <v>2017</v>
       </c>
@@ -17000,16 +16951,8 @@
       <c r="F10" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G10" s="28">
-        <f t="shared" si="0"/>
-        <v>2.7712020705819072</v>
-      </c>
-      <c r="H10" s="28">
-        <f t="shared" si="1"/>
-        <v>2.7712020705819072</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="28">
         <v>2018</v>
       </c>
@@ -17032,16 +16975,8 @@
       <c r="F11" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G11" s="28">
-        <f t="shared" si="0"/>
-        <v>3.6227752546199454</v>
-      </c>
-      <c r="H11" s="28">
-        <f t="shared" si="1"/>
-        <v>3.6227752546199454</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="28">
         <v>2019</v>
       </c>
@@ -17064,16 +16999,8 @@
       <c r="F12" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G12" s="28">
-        <f t="shared" si="0"/>
-        <v>3.0631109681940956</v>
-      </c>
-      <c r="H12" s="28">
-        <f t="shared" si="1"/>
-        <v>3.0631109681940956</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="28">
         <v>2020</v>
       </c>
@@ -17096,16 +17023,8 @@
       <c r="F13" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G13" s="28">
-        <f t="shared" si="0"/>
-        <v>2.77777700793078</v>
-      </c>
-      <c r="H13" s="28">
-        <f t="shared" si="1"/>
-        <v>2.77777700793078</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="28">
         <v>2021</v>
       </c>
@@ -17128,16 +17047,8 @@
       <c r="F14" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G14" s="28">
-        <f t="shared" si="0"/>
-        <v>0.8751844410001155</v>
-      </c>
-      <c r="H14" s="28">
-        <f t="shared" si="1"/>
-        <v>0.8751844410001155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="28">
         <v>2022</v>
       </c>
@@ -17160,16 +17071,8 @@
       <c r="F15" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G15" s="28">
-        <f t="shared" si="0"/>
-        <v>-1.0274081259313874</v>
-      </c>
-      <c r="H15" s="28">
-        <f t="shared" si="1"/>
-        <v>-1.0274081259313874</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="28">
         <v>2023</v>
       </c>
@@ -17192,16 +17095,8 @@
       <c r="F16" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G16" s="28">
-        <f t="shared" si="0"/>
-        <v>-2.9300006928620448</v>
-      </c>
-      <c r="H16" s="28">
-        <f t="shared" si="1"/>
-        <v>-2.9300006928620448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="28">
         <v>2024</v>
       </c>
@@ -17224,16 +17119,8 @@
       <c r="F17" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G17" s="28">
-        <f t="shared" si="0"/>
-        <v>-4.8325932597935477</v>
-      </c>
-      <c r="H17" s="28">
-        <f t="shared" si="1"/>
-        <v>-4.8325932597935477</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="28">
         <v>2025</v>
       </c>
@@ -17256,16 +17143,8 @@
       <c r="F18" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G18" s="28">
-        <f t="shared" si="0"/>
-        <v>-6.7351858267242051</v>
-      </c>
-      <c r="H18" s="28">
-        <f t="shared" si="1"/>
-        <v>-6.7351858267242051</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="28">
         <v>2026</v>
       </c>
@@ -17288,16 +17167,8 @@
       <c r="F19" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G19" s="28">
-        <f t="shared" si="0"/>
-        <v>-8.6377783936548695</v>
-      </c>
-      <c r="H19" s="28">
-        <f t="shared" si="1"/>
-        <v>-8.6377783936548695</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="28">
         <v>2027</v>
       </c>
@@ -17320,16 +17191,8 @@
       <c r="F20" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G20" s="28">
-        <f t="shared" si="0"/>
-        <v>-10.540370960586372</v>
-      </c>
-      <c r="H20" s="28">
-        <f t="shared" si="1"/>
-        <v>-10.540370960586372</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="28">
         <v>2028</v>
       </c>
@@ -17352,16 +17215,8 @@
       <c r="F21" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G21" s="28">
-        <f t="shared" si="0"/>
-        <v>-12.442963527517037</v>
-      </c>
-      <c r="H21" s="28">
-        <f t="shared" si="1"/>
-        <v>-12.442963527517037</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="28">
         <v>2029</v>
       </c>
@@ -17384,16 +17239,8 @@
       <c r="F22" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G22" s="28">
-        <f t="shared" si="0"/>
-        <v>-14.34555609444854</v>
-      </c>
-      <c r="H22" s="28">
-        <f t="shared" si="1"/>
-        <v>-14.34555609444854</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="28">
         <v>2030</v>
       </c>
@@ -17416,16 +17263,8 @@
       <c r="F23" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G23" s="28">
-        <f t="shared" si="0"/>
-        <v>-16.248148661379204</v>
-      </c>
-      <c r="H23" s="28">
-        <f t="shared" si="1"/>
-        <v>-16.248148661379204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="28">
         <v>2031</v>
       </c>
@@ -17448,16 +17287,8 @@
       <c r="F24" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G24" s="28">
-        <f t="shared" si="0"/>
-        <v>-18.150741228310707</v>
-      </c>
-      <c r="H24" s="28">
-        <f t="shared" si="1"/>
-        <v>-18.150741228310707</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="28">
         <v>2032</v>
       </c>
@@ -17480,16 +17311,8 @@
       <c r="F25" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G25" s="28">
-        <f t="shared" si="0"/>
-        <v>-20.053333795241365</v>
-      </c>
-      <c r="H25" s="28">
-        <f t="shared" si="1"/>
-        <v>-20.053333795241365</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="28">
         <v>2033</v>
       </c>
@@ -17512,16 +17335,8 @@
       <c r="F26" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G26" s="28">
-        <f t="shared" si="0"/>
-        <v>-21.955926362172022</v>
-      </c>
-      <c r="H26" s="28">
-        <f t="shared" si="1"/>
-        <v>-21.955926362172022</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="28">
         <v>2034</v>
       </c>
@@ -17544,16 +17359,8 @@
       <c r="F27" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G27" s="28">
-        <f t="shared" si="0"/>
-        <v>-23.858518929103525</v>
-      </c>
-      <c r="H27" s="28">
-        <f t="shared" si="1"/>
-        <v>-23.858518929103525</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="28">
         <v>2035</v>
       </c>
@@ -17576,16 +17383,8 @@
       <c r="F28" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G28" s="28">
-        <f t="shared" si="0"/>
-        <v>-25.761111496034189</v>
-      </c>
-      <c r="H28" s="28">
-        <f t="shared" si="1"/>
-        <v>-25.761111496034189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="28">
         <v>2036</v>
       </c>
@@ -17608,16 +17407,8 @@
       <c r="F29" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G29" s="28">
-        <f t="shared" si="0"/>
-        <v>-27.663704062965692</v>
-      </c>
-      <c r="H29" s="28">
-        <f t="shared" si="1"/>
-        <v>-27.663704062965692</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="28">
         <v>2037</v>
       </c>
@@ -17640,16 +17431,8 @@
       <c r="F30" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G30" s="28">
-        <f t="shared" si="0"/>
-        <v>-29.56629662989635</v>
-      </c>
-      <c r="H30" s="28">
-        <f t="shared" si="1"/>
-        <v>-29.56629662989635</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="28">
         <v>2038</v>
       </c>
@@ -17672,16 +17455,8 @@
       <c r="F31" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G31" s="28">
-        <f t="shared" si="0"/>
-        <v>-31.468889196827856</v>
-      </c>
-      <c r="H31" s="28">
-        <f t="shared" si="1"/>
-        <v>-31.468889196827856</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="28">
         <v>2039</v>
       </c>
@@ -17704,16 +17479,8 @@
       <c r="F32" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G32" s="28">
-        <f t="shared" si="0"/>
-        <v>-33.371481763758517</v>
-      </c>
-      <c r="H32" s="28">
-        <f t="shared" si="1"/>
-        <v>-33.371481763758517</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="28">
         <v>2040</v>
       </c>
@@ -17736,16 +17503,8 @@
       <c r="F33" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G33" s="28">
-        <f t="shared" si="0"/>
-        <v>-35.27407433069002</v>
-      </c>
-      <c r="H33" s="28">
-        <f t="shared" si="1"/>
-        <v>-35.27407433069002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="28">
         <v>2041</v>
       </c>
@@ -17768,16 +17527,8 @@
       <c r="F34" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G34" s="28">
-        <f t="shared" si="0"/>
-        <v>-37.176666897620677</v>
-      </c>
-      <c r="H34" s="28">
-        <f t="shared" si="1"/>
-        <v>-37.176666897620677</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="28">
         <v>2042</v>
       </c>
@@ -17800,16 +17551,8 @@
       <c r="F35" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G35" s="28">
-        <f t="shared" si="0"/>
-        <v>-39.079259464551342</v>
-      </c>
-      <c r="H35" s="28">
-        <f t="shared" si="1"/>
-        <v>-39.079259464551342</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="28">
         <v>2043</v>
       </c>
@@ -17832,16 +17575,8 @@
       <c r="F36" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G36" s="28">
-        <f t="shared" si="0"/>
-        <v>-40.981852031482845</v>
-      </c>
-      <c r="H36" s="28">
-        <f t="shared" si="1"/>
-        <v>-40.981852031482845</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="28">
         <v>2044</v>
       </c>
@@ -17864,16 +17599,8 @@
       <c r="F37" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G37" s="28">
-        <f t="shared" si="0"/>
-        <v>-42.884444598413509</v>
-      </c>
-      <c r="H37" s="28">
-        <f t="shared" si="1"/>
-        <v>-42.884444598413509</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="28">
         <v>2045</v>
       </c>
@@ -17896,16 +17623,8 @@
       <c r="F38" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G38" s="28">
-        <f t="shared" si="0"/>
-        <v>-44.787037165345012</v>
-      </c>
-      <c r="H38" s="28">
-        <f t="shared" si="1"/>
-        <v>-44.787037165345012</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="28">
         <v>2046</v>
       </c>
@@ -17928,16 +17647,8 @@
       <c r="F39" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G39" s="28">
-        <f t="shared" si="0"/>
-        <v>-46.689629732275669</v>
-      </c>
-      <c r="H39" s="28">
-        <f t="shared" si="1"/>
-        <v>-46.689629732275669</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="28">
         <v>2047</v>
       </c>
@@ -17960,16 +17671,8 @@
       <c r="F40" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G40" s="28">
-        <f t="shared" si="0"/>
-        <v>-48.592222299207172</v>
-      </c>
-      <c r="H40" s="28">
-        <f t="shared" si="1"/>
-        <v>-48.592222299207172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="28">
         <v>2048</v>
       </c>
@@ -17992,16 +17695,8 @@
       <c r="F41" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G41" s="28">
-        <f t="shared" si="0"/>
-        <v>-50.49481486613783</v>
-      </c>
-      <c r="H41" s="28">
-        <f t="shared" si="1"/>
-        <v>-50.49481486613783</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="28">
         <v>2049</v>
       </c>
@@ -18024,16 +17719,8 @@
       <c r="F42" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G42" s="28">
-        <f t="shared" si="0"/>
-        <v>-52.397407433068494</v>
-      </c>
-      <c r="H42" s="28">
-        <f t="shared" si="1"/>
-        <v>-52.397407433068494</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="28">
         <v>2050</v>
       </c>
@@ -18056,20 +17743,11 @@
       <c r="F43" s="28">
         <v>-54.3</v>
       </c>
-      <c r="G43" s="28">
-        <f t="shared" si="0"/>
-        <v>-54.3</v>
-      </c>
-      <c r="H43" s="28">
-        <f t="shared" si="1"/>
-        <v>-54.3</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18082,7 +17760,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -18094,50 +17772,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="C2" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -18148,14 +17830,54 @@
       <c r="B3">
         <v>2010</v>
       </c>
+      <c r="C3">
+        <f>'Consumption(EJyr)'!$B$2*sIND!B3+IND_BF!D3</f>
+        <v>1.6840738242011102</v>
+      </c>
+      <c r="D3">
+        <f>'Consumption(EJyr)'!$B$2*sIND!C3</f>
+        <v>0.97419637188492003</v>
+      </c>
+      <c r="E3">
+        <f>'Consumption(EJyr)'!$B$2*sIND!D3</f>
+        <v>0.45301842805600184</v>
+      </c>
+      <c r="F3">
+        <f>'Consumption(EJyr)'!$B$2*sIND!E3</f>
+        <v>0.13971205722135449</v>
+      </c>
+      <c r="G3">
+        <f>'Consumption(EJyr)'!$B$2*sIND!F3</f>
+        <v>1.3636103186366102</v>
+      </c>
+      <c r="H3">
+        <f>'Consumption(EJyr)'!$C$2*sIND!G3+IND_BF!E3</f>
+        <v>1.6840738242011102</v>
+      </c>
+      <c r="I3">
+        <f>'Consumption(EJyr)'!$C$2*sIND!H3</f>
+        <v>0.97419637188492003</v>
+      </c>
+      <c r="J3">
+        <f>'Consumption(EJyr)'!$C$2*sIND!I3</f>
+        <v>0.45301842805600184</v>
+      </c>
+      <c r="K3">
+        <f>'Consumption(EJyr)'!$C$2*sIND!J3</f>
+        <v>0.13971205722135449</v>
+      </c>
+      <c r="L3">
+        <f>'Consumption(EJyr)'!$C$2*sIND!K3</f>
+        <v>1.3636103186366102</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B4">
         <v>2020</v>
       </c>
       <c r="C4">
-        <f>'Consumption(EJyr)'!$B$12*sIND!B13</f>
-        <v>0.74833742162714201</v>
+        <f>'Consumption(EJyr)'!$B$12*sIND!B13+IND_BF!D13</f>
+        <v>1.3188674216271417</v>
       </c>
       <c r="D4">
         <f>'Consumption(EJyr)'!$B$12*sIND!C13</f>
@@ -18174,8 +17896,8 @@
         <v>1.1454168290418023</v>
       </c>
       <c r="H4">
-        <f>'Consumption(EJyr)'!$C$12*sIND!G13</f>
-        <v>0.74833742162714201</v>
+        <f>'Consumption(EJyr)'!$C$12*sIND!G13+IND_BF!E13</f>
+        <v>1.3188674216271417</v>
       </c>
       <c r="I4">
         <f>'Consumption(EJyr)'!$C$12*sIND!H13</f>
@@ -18199,8 +17921,8 @@
         <v>2030</v>
       </c>
       <c r="C5">
-        <f>'Consumption(EJyr)'!$B$22*sIND!B23</f>
-        <v>0.23281608672844656</v>
+        <f>'Consumption(EJyr)'!$B$22*sIND!B23+IND_BF!D23</f>
+        <v>0.61316942006178143</v>
       </c>
       <c r="D5">
         <f>'Consumption(EJyr)'!$B$22*sIND!C23</f>
@@ -18219,8 +17941,8 @@
         <v>0.35635190236856251</v>
       </c>
       <c r="H5">
-        <f>'Consumption(EJyr)'!$C$22*sIND!G23</f>
-        <v>0.24390256704885055</v>
+        <f>'Consumption(EJyr)'!$C$22*sIND!G23+IND_BF!E23</f>
+        <v>0.62425590038218537</v>
       </c>
       <c r="I5">
         <f>'Consumption(EJyr)'!$C$22*sIND!H23</f>
@@ -18244,8 +17966,8 @@
         <v>2040</v>
       </c>
       <c r="C6">
-        <f>'Consumption(EJyr)'!$B$32*sIND!B33</f>
-        <v>3.3259440961205991E-2</v>
+        <f>'Consumption(EJyr)'!$B$32*sIND!B33+IND_BF!D33</f>
+        <v>0.22343610762787341</v>
       </c>
       <c r="D6">
         <f>'Consumption(EJyr)'!$B$32*sIND!C33</f>
@@ -18264,8 +17986,8 @@
         <v>5.0907414624079737E-2</v>
       </c>
       <c r="H6">
-        <f>'Consumption(EJyr)'!$C$32*sIND!G33</f>
-        <v>3.8802681121407286E-2</v>
+        <f>'Consumption(EJyr)'!$C$32*sIND!G33+IND_BF!E33</f>
+        <v>0.22897934778807469</v>
       </c>
       <c r="I6">
         <f>'Consumption(EJyr)'!$C$32*sIND!H33</f>
@@ -18289,8 +18011,8 @@
         <v>2050</v>
       </c>
       <c r="C7">
-        <f>'Consumption(EJyr)'!$B$42*sIND!B43</f>
-        <v>0</v>
+        <f>'Consumption(EJyr)'!$B$42*sIND!B43+IND_BF!D43</f>
+        <v>5.3737301757094382E-15</v>
       </c>
       <c r="D7">
         <f>'Consumption(EJyr)'!$B$42*sIND!C43</f>
@@ -18309,8 +18031,8 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f>'Consumption(EJyr)'!$C$42*sIND!G43</f>
-        <v>0</v>
+        <f>'Consumption(EJyr)'!$C$42*sIND!G43+IND_BF!E43</f>
+        <v>5.3737301757094382E-15</v>
       </c>
       <c r="I7">
         <f>'Consumption(EJyr)'!$C$42*sIND!H43</f>
@@ -18336,6 +18058,46 @@
       <c r="B8">
         <v>2010</v>
       </c>
+      <c r="C8">
+        <f>'Consumption(EJyr)'!$D$2*sTRA!B3</f>
+        <v>4.1999987243639068E-5</v>
+      </c>
+      <c r="D8">
+        <f>'Consumption(EJyr)'!$D$2*sTRA!C3</f>
+        <v>3.2142520237578216</v>
+      </c>
+      <c r="E8">
+        <f>'Consumption(EJyr)'!$D$2*sTRA!D3</f>
+        <v>4.2009987240601791E-3</v>
+      </c>
+      <c r="F8">
+        <f>'Consumption(EJyr)'!$D$2*sTRA!E3</f>
+        <v>8.299997479100079E-3</v>
+      </c>
+      <c r="G8">
+        <f>'Consumption(EJyr)'!$D$2*sTRA!F3</f>
+        <v>6.5678980051785088E-2</v>
+      </c>
+      <c r="H8">
+        <f>'Consumption(EJyr)'!$E$2*sTRA!G3</f>
+        <v>4.1999987243639068E-5</v>
+      </c>
+      <c r="I8">
+        <f>'Consumption(EJyr)'!$E$2*sTRA!H3</f>
+        <v>3.2142520237578216</v>
+      </c>
+      <c r="J8">
+        <f>'Consumption(EJyr)'!$E$2*sTRA!I3</f>
+        <v>4.2009987240601791E-3</v>
+      </c>
+      <c r="K8">
+        <f>'Consumption(EJyr)'!$E$2*sTRA!J3</f>
+        <v>8.299997479100079E-3</v>
+      </c>
+      <c r="L8">
+        <f>'Consumption(EJyr)'!$E$2*sTRA!K3</f>
+        <v>6.5678980051785088E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B9">
@@ -18524,6 +18286,46 @@
       <c r="B13">
         <v>2010</v>
       </c>
+      <c r="C13">
+        <f>'Consumption(EJyr)'!$F$2*sCOM!B3</f>
+        <v>1.0243179797963074E-2</v>
+      </c>
+      <c r="D13">
+        <f>'Consumption(EJyr)'!$F$2*sCOM!C3</f>
+        <v>0.54780723886409621</v>
+      </c>
+      <c r="E13">
+        <f>'Consumption(EJyr)'!$F$2*sCOM!D3</f>
+        <v>0.36094585685184333</v>
+      </c>
+      <c r="F13">
+        <f>'Consumption(EJyr)'!$F$2*sCOM!E3</f>
+        <v>5.5761227810565077E-2</v>
+      </c>
+      <c r="G13">
+        <f>'Consumption(EJyr)'!$F$2*sCOM!F3</f>
+        <v>1.2272144966755287</v>
+      </c>
+      <c r="H13">
+        <f>'Consumption(EJyr)'!$G$2*sCOM!G3</f>
+        <v>1.0243179797963074E-2</v>
+      </c>
+      <c r="I13">
+        <f>'Consumption(EJyr)'!$G$2*sCOM!H3</f>
+        <v>0.54780723886409621</v>
+      </c>
+      <c r="J13">
+        <f>'Consumption(EJyr)'!$G$2*sCOM!I3</f>
+        <v>0.36094585685184333</v>
+      </c>
+      <c r="K13">
+        <f>'Consumption(EJyr)'!$G$2*sCOM!J3</f>
+        <v>5.5761227810565077E-2</v>
+      </c>
+      <c r="L13">
+        <f>'Consumption(EJyr)'!$G$2*sCOM!K3</f>
+        <v>1.2272144966755287</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B14">
@@ -18712,6 +18514,46 @@
       <c r="B18">
         <v>2010</v>
       </c>
+      <c r="C18">
+        <f>'Consumption(EJyr)'!$H$2*sRES!B3</f>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f>'Consumption(EJyr)'!$H$2*sRES!C3</f>
+        <v>0.61781349273283348</v>
+      </c>
+      <c r="E18">
+        <f>'Consumption(EJyr)'!$H$2*sRES!D3</f>
+        <v>0.38804351328087799</v>
+      </c>
+      <c r="F18">
+        <f>'Consumption(EJyr)'!$H$2*sRES!E3</f>
+        <v>4.0687802846971861E-4</v>
+      </c>
+      <c r="G18">
+        <f>'Consumption(EJyr)'!$H$2*sRES!F3</f>
+        <v>1.0839281159578253</v>
+      </c>
+      <c r="H18">
+        <f>'Consumption(EJyr)'!$I$2*sRES!G3</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>'Consumption(EJyr)'!$I$2*sRES!H3</f>
+        <v>0.61781349273283348</v>
+      </c>
+      <c r="J18">
+        <f>'Consumption(EJyr)'!$I$2*sRES!I3</f>
+        <v>0.38804351328087799</v>
+      </c>
+      <c r="K18">
+        <f>'Consumption(EJyr)'!$I$2*sRES!J3</f>
+        <v>4.0687802846971861E-4</v>
+      </c>
+      <c r="L18">
+        <f>'Consumption(EJyr)'!$I$2*sRES!K3</f>
+        <v>1.0839281159578253</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B19">
@@ -18894,55 +18736,96 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
+      <c r="A23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="9">
         <v>2010</v>
       </c>
+      <c r="C23" s="9">
+        <f>SUM(C3,C8,C13,C18)</f>
+        <v>1.6943590039863168</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" ref="D23:L23" si="0">SUM(D3,D8,D13,D18)</f>
+        <v>5.3540691272396712</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2062087969127833</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="0"/>
+        <v>0.20418016053948937</v>
+      </c>
+      <c r="G23" s="9">
+        <f t="shared" si="0"/>
+        <v>3.7404319113217492</v>
+      </c>
+      <c r="H23" s="9">
+        <f t="shared" si="0"/>
+        <v>1.6943590039863168</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="0"/>
+        <v>5.3540691272396712</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2062087969127833</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="0"/>
+        <v>0.20418016053948937</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="0"/>
+        <v>3.7404319113217492</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35">
         <v>2020</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="35">
         <f>SUM(C4,C9,C14,C19)</f>
-        <v>0.75362524442168821</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ref="D24:G24" si="0">SUM(D4,D9,D14,D19)</f>
+        <v>1.324155244421688</v>
+      </c>
+      <c r="D24" s="35">
+        <f t="shared" ref="D24:G24" si="1">SUM(D4,D9,D14,D19)</f>
         <v>4.1740209458227868</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
+      <c r="E24" s="35">
+        <f t="shared" si="1"/>
         <v>1.1189233858212027</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
+      <c r="F24" s="35">
+        <f t="shared" si="1"/>
         <v>0.2320119889698635</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
+      <c r="G24" s="35">
+        <f t="shared" si="1"/>
         <v>3.2738004349644645</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="35">
         <f>SUM(H4,H9,H14,H19)</f>
-        <v>0.75362524442168821</v>
-      </c>
-      <c r="I24">
-        <f t="shared" ref="I24:L24" si="1">SUM(I4,I9,I14,I19)</f>
+        <v>1.324155244421688</v>
+      </c>
+      <c r="I24" s="35">
+        <f t="shared" ref="I24:L24" si="2">SUM(I4,I9,I14,I19)</f>
         <v>4.1740209458227868</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="1"/>
+      <c r="J24" s="35">
+        <f t="shared" si="2"/>
         <v>1.1189233858212027</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="1"/>
+      <c r="K24" s="35">
+        <f t="shared" si="2"/>
         <v>0.2320119889698635</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="1"/>
+      <c r="L24" s="35">
+        <f t="shared" si="2"/>
         <v>3.2738004349644645</v>
       </c>
     </row>
@@ -18952,42 +18835,42 @@
       </c>
       <c r="C25">
         <f>SUM(C5,C10,C15,C20)</f>
-        <v>0.23466121967870932</v>
+        <v>0.61501455301204422</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:G25" si="2">SUM(D5,D10,D15,D20)</f>
+        <f t="shared" ref="D25:G25" si="3">SUM(D5,D10,D15,D20)</f>
         <v>1.3754542891299877</v>
       </c>
       <c r="E25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.37703086531767294</v>
       </c>
       <c r="F25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.5247617900892669E-2</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1041060751662508</v>
       </c>
       <c r="H25">
         <f>SUM(H5,H10,H15,H20)</f>
-        <v>0.24582794635927852</v>
+        <v>0.62618127969261328</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25:L25" si="3">SUM(I5,I10,I15,I20)</f>
+        <f t="shared" ref="I25:L25" si="4">SUM(I5,I10,I15,I20)</f>
         <v>1.4374579536516285</v>
       </c>
       <c r="J25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.39371734363240263</v>
       </c>
       <c r="K25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.8711415512078248E-2</v>
       </c>
       <c r="L25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1530096080610344</v>
       </c>
     </row>
@@ -18997,42 +18880,42 @@
       </c>
       <c r="C26">
         <f>SUM(C6,C11,C16,C21)</f>
-        <v>3.3573894538108308E-2</v>
+        <v>0.22375056120477574</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:H26" si="4">SUM(D6,D11,D16,D21)</f>
+        <f t="shared" ref="D26:H26" si="5">SUM(D6,D11,D16,D21)</f>
         <v>0.22215360391456182</v>
       </c>
       <c r="E26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.30062304177052E-2</v>
       </c>
       <c r="F26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1558049024032064E-2</v>
       </c>
       <c r="G26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.18395410469242038</v>
       </c>
       <c r="H26">
-        <f t="shared" si="4"/>
-        <v>3.9156474728768473E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.22933314139543587</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26:L26" si="5">SUM(I6,I11,I16,I21)</f>
+        <f t="shared" ref="I26:L26" si="6">SUM(I6,I11,I16,I21)</f>
         <v>0.25308717908311756</v>
       </c>
       <c r="J26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.1304392714987619E-2</v>
       </c>
       <c r="K26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3279038099308919E-2</v>
       </c>
       <c r="L26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.20824056661733192</v>
       </c>
     </row>
@@ -19042,42 +18925,42 @@
       </c>
       <c r="C27">
         <f>SUM(C7,C12,C17,C22)</f>
-        <v>0</v>
+        <v>5.3737301757094382E-15</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:H27" si="6">SUM(D7,D12,D17,D22)</f>
+        <f t="shared" ref="D27:H27" si="7">SUM(D7,D12,D17,D22)</f>
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>5.3737301757094382E-15</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="I27:L27" si="7">SUM(I7,I12,I17,I22)</f>
+        <f t="shared" ref="I27:L27" si="8">SUM(I7,I12,I17,I22)</f>
         <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -19093,19 +18976,26 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F232DE2-A209-4371-A5A3-29AEA220A30D}">
-  <dimension ref="A2:E43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E36" sqref="E35:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="3" width="10" style="28"/>
     <col min="4" max="4" width="14" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="10" style="28"/>
+    <col min="5" max="5" width="12.83203125" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="10" style="28"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="45"/>
+    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="28" t="s">
         <v>35</v>
@@ -19117,10 +19007,10 @@
         <v>36</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -19133,6 +19023,14 @@
       <c r="C3" s="1">
         <v>0.13697676530060701</v>
       </c>
+      <c r="D3" s="28">
+        <f>$C3*GDP・POP!C2/10^6</f>
+        <v>0.78225400000000012</v>
+      </c>
+      <c r="E3" s="28">
+        <f>$C3*GDP・POP!D2/10^6</f>
+        <v>0.78225400000000012</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
@@ -19144,6 +19042,14 @@
       <c r="C4" s="1">
         <v>0.128498162479982</v>
       </c>
+      <c r="D4" s="28">
+        <f>$C4*GDP・POP!C3/10^6</f>
+        <v>0.74206199999999811</v>
+      </c>
+      <c r="E4" s="28">
+        <f>$C4*GDP・POP!D3/10^6</f>
+        <v>0.74206199999999811</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
@@ -19155,6 +19061,14 @@
       <c r="C5" s="1">
         <v>0.131182868197745</v>
       </c>
+      <c r="D5" s="28">
+        <f>$C5*GDP・POP!C4/10^6</f>
+        <v>0.76605999999999963</v>
+      </c>
+      <c r="E5" s="28">
+        <f>$C5*GDP・POP!D4/10^6</f>
+        <v>0.76605999999999963</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
@@ -19166,6 +19080,14 @@
       <c r="C6" s="1">
         <v>0.135989996396184</v>
       </c>
+      <c r="D6" s="28">
+        <f>$C6*GDP・POP!C5/10^6</f>
+        <v>0.8030360000000023</v>
+      </c>
+      <c r="E6" s="28">
+        <f>$C6*GDP・POP!D5/10^6</f>
+        <v>0.8030360000000023</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28" t="s">
@@ -19177,6 +19099,14 @@
       <c r="C7" s="1">
         <v>0.133695870123065</v>
       </c>
+      <c r="D7" s="28">
+        <f>$C7*GDP・POP!C6/10^6</f>
+        <v>0.79834099999999819</v>
+      </c>
+      <c r="E7" s="28">
+        <f>$C7*GDP・POP!D6/10^6</f>
+        <v>0.79834099999999819</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28" t="s">
@@ -19188,6 +19118,14 @@
       <c r="C8" s="1">
         <v>0.12586377748522401</v>
       </c>
+      <c r="D8" s="28">
+        <f>$C8*GDP・POP!C7/10^6</f>
+        <v>0.75999999999999956</v>
+      </c>
+      <c r="E8" s="28">
+        <f>$C8*GDP・POP!D7/10^6</f>
+        <v>0.75999999999999956</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="28" t="s">
@@ -19199,6 +19137,14 @@
       <c r="C9" s="1">
         <v>0.12434702815670901</v>
       </c>
+      <c r="D9" s="28">
+        <f>$C9*GDP・POP!C8/10^6</f>
+        <v>0.75791800000000331</v>
+      </c>
+      <c r="E9" s="28">
+        <f>$C9*GDP・POP!D8/10^6</f>
+        <v>0.75791800000000331</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="28" t="s">
@@ -19210,6 +19156,14 @@
       <c r="C10" s="1">
         <v>0.11992660242132799</v>
       </c>
+      <c r="D10" s="28">
+        <f>$C10*GDP・POP!C9/10^6</f>
+        <v>0.73786400000000263</v>
+      </c>
+      <c r="E10" s="28">
+        <f>$C10*GDP・POP!D9/10^6</f>
+        <v>0.73786400000000263</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="28" t="s">
@@ -19221,6 +19175,14 @@
       <c r="C11" s="1">
         <v>0.11689176110565801</v>
       </c>
+      <c r="D11" s="28">
+        <f>$C11*GDP・POP!C10/10^6</f>
+        <v>0.72597000000000178</v>
+      </c>
+      <c r="E11" s="28">
+        <f>$C11*GDP・POP!D10/10^6</f>
+        <v>0.72597000000000178</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="28" t="s">
@@ -19232,6 +19194,14 @@
       <c r="C12" s="1">
         <v>0.112810484717389</v>
       </c>
+      <c r="D12" s="28">
+        <f>$C12*GDP・POP!C11/10^6</f>
+        <v>0.70722599999999947</v>
+      </c>
+      <c r="E12" s="28">
+        <f>$C12*GDP・POP!D11/10^6</f>
+        <v>0.70722599999999947</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="28" t="s">
@@ -19243,6 +19213,14 @@
       <c r="C13" s="1">
         <v>9.01562318835952E-2</v>
       </c>
+      <c r="D13" s="28">
+        <f>$C13*GDP・POP!C12/10^6</f>
+        <v>0.57052999999999976</v>
+      </c>
+      <c r="E13" s="28">
+        <f>$C13*GDP・POP!D12/10^6</f>
+        <v>0.57052999999999976</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="28">
@@ -19251,6 +19229,14 @@
       <c r="C14" s="1">
         <v>9.01562318835952E-2</v>
       </c>
+      <c r="D14" s="28">
+        <f>$C14*GDP・POP!C13/10^6</f>
+        <v>0.55151233333333649</v>
+      </c>
+      <c r="E14" s="28">
+        <f>$C14*GDP・POP!D13/10^6</f>
+        <v>0.55151233333333649</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="28">
@@ -19259,6 +19245,14 @@
       <c r="C15" s="1">
         <v>9.01562318835952E-2</v>
       </c>
+      <c r="D15" s="28">
+        <f>$C15*GDP・POP!C14/10^6</f>
+        <v>0.53249466666667089</v>
+      </c>
+      <c r="E15" s="28">
+        <f>$C15*GDP・POP!D14/10^6</f>
+        <v>0.53249466666667089</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="28">
@@ -19267,224 +19261,451 @@
       <c r="C16" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" s="28">
+        <f>$C16*GDP・POP!C15/10^6</f>
+        <v>0.51347700000000529</v>
+      </c>
+      <c r="E16" s="28">
+        <f>$C16*GDP・POP!D15/10^6</f>
+        <v>0.51347700000000529</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="28">
         <v>2024</v>
       </c>
       <c r="C17" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" s="28">
+        <f>$C17*GDP・POP!C16/10^6</f>
+        <v>0.49445933333333419</v>
+      </c>
+      <c r="E17" s="28">
+        <f>$C17*GDP・POP!D16/10^6</f>
+        <v>0.49445933333333419</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="28">
         <v>2025</v>
       </c>
       <c r="C18" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" s="28">
+        <f>$C18*GDP・POP!C17/10^6</f>
+        <v>0.47544166666666854</v>
+      </c>
+      <c r="E18" s="28">
+        <f>$C18*GDP・POP!D17/10^6</f>
+        <v>0.47544166666666854</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="28">
         <v>2026</v>
       </c>
       <c r="C19" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="28">
+        <f>$C19*GDP・POP!C18/10^6</f>
+        <v>0.45642400000000283</v>
+      </c>
+      <c r="E19" s="28">
+        <f>$C19*GDP・POP!D18/10^6</f>
+        <v>0.45642400000000283</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="28">
         <v>2027</v>
       </c>
       <c r="C20" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" s="28">
+        <f>$C20*GDP・POP!C19/10^6</f>
+        <v>0.43740633333333723</v>
+      </c>
+      <c r="E20" s="28">
+        <f>$C20*GDP・POP!D19/10^6</f>
+        <v>0.43740633333333723</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="28">
         <v>2028</v>
       </c>
       <c r="C21" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21" s="28">
+        <f>$C21*GDP・POP!C20/10^6</f>
+        <v>0.41838866666667152</v>
+      </c>
+      <c r="E21" s="28">
+        <f>$C21*GDP・POP!D20/10^6</f>
+        <v>0.41838866666667152</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="28">
         <v>2029</v>
       </c>
       <c r="C22" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" s="28">
+        <f>$C22*GDP・POP!C21/10^6</f>
+        <v>0.39937100000000586</v>
+      </c>
+      <c r="E22" s="28">
+        <f>$C22*GDP・POP!D21/10^6</f>
+        <v>0.39937100000000586</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="28">
         <v>2030</v>
       </c>
       <c r="C23" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" s="28">
+        <f>$C23*GDP・POP!C22/10^6</f>
+        <v>0.38035333333333482</v>
+      </c>
+      <c r="E23" s="28">
+        <f>$C23*GDP・POP!D22/10^6</f>
+        <v>0.38035333333333482</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="28">
         <v>2031</v>
       </c>
       <c r="C24" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" s="28">
+        <f>$C24*GDP・POP!C23/10^6</f>
+        <v>0.36133566666666911</v>
+      </c>
+      <c r="E24" s="28">
+        <f>$C24*GDP・POP!D23/10^6</f>
+        <v>0.36133566666666911</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="28">
         <v>2032</v>
       </c>
       <c r="C25" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" s="28">
+        <f>$C25*GDP・POP!C24/10^6</f>
+        <v>0.34231800000000351</v>
+      </c>
+      <c r="E25" s="28">
+        <f>$C25*GDP・POP!D24/10^6</f>
+        <v>0.34231800000000351</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="28">
         <v>2033</v>
       </c>
       <c r="C26" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" s="28">
+        <f>$C26*GDP・POP!C25/10^6</f>
+        <v>0.32330033333333785</v>
+      </c>
+      <c r="E26" s="28">
+        <f>$C26*GDP・POP!D25/10^6</f>
+        <v>0.32330033333333785</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="28">
         <v>2034</v>
       </c>
       <c r="C27" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" s="28">
+        <f>$C27*GDP・POP!C26/10^6</f>
+        <v>0.30428266666667214</v>
+      </c>
+      <c r="E27" s="28">
+        <f>$C27*GDP・POP!D26/10^6</f>
+        <v>0.30428266666667214</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="28">
         <v>2035</v>
       </c>
       <c r="C28" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" s="28">
+        <f>$C28*GDP・POP!C27/10^6</f>
+        <v>0.2852650000000011</v>
+      </c>
+      <c r="E28" s="28">
+        <f>$C28*GDP・POP!D27/10^6</f>
+        <v>0.2852650000000011</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="28">
         <v>2036</v>
       </c>
       <c r="C29" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="28">
+        <f>$C29*GDP・POP!C28/10^6</f>
+        <v>0.26624733333333545</v>
+      </c>
+      <c r="E29" s="28">
+        <f>$C29*GDP・POP!D28/10^6</f>
+        <v>0.26624733333333545</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="28">
         <v>2037</v>
       </c>
       <c r="C30" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" s="28">
+        <f>$C30*GDP・POP!C29/10^6</f>
+        <v>0.24722966666666979</v>
+      </c>
+      <c r="E30" s="28">
+        <f>$C30*GDP・POP!D29/10^6</f>
+        <v>0.24722966666666979</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="28">
         <v>2038</v>
       </c>
       <c r="C31" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" s="28">
+        <f>$C31*GDP・POP!C30/10^6</f>
+        <v>0.22821200000000413</v>
+      </c>
+      <c r="E31" s="28">
+        <f>$C31*GDP・POP!D30/10^6</f>
+        <v>0.22821200000000413</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="28">
         <v>2039</v>
       </c>
       <c r="C32" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32" s="28">
+        <f>$C32*GDP・POP!C31/10^6</f>
+        <v>0.20919433333333848</v>
+      </c>
+      <c r="E32" s="28">
+        <f>$C32*GDP・POP!D31/10^6</f>
+        <v>0.20919433333333848</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="28">
         <v>2040</v>
       </c>
       <c r="C33" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" s="28">
+        <f>$C33*GDP・POP!C32/10^6</f>
+        <v>0.19017666666666741</v>
+      </c>
+      <c r="E33" s="28">
+        <f>$C33*GDP・POP!D32/10^6</f>
+        <v>0.19017666666666741</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="28">
         <v>2041</v>
       </c>
       <c r="C34" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" s="28">
+        <f>$C34*GDP・POP!C33/10^6</f>
+        <v>0.17115900000000175</v>
+      </c>
+      <c r="E34" s="28">
+        <f>$C34*GDP・POP!D33/10^6</f>
+        <v>0.17115900000000175</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="28">
         <v>2042</v>
       </c>
       <c r="C35" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D35" s="28">
+        <f>$C35*GDP・POP!C34/10^6</f>
+        <v>0.15214133333333607</v>
+      </c>
+      <c r="E35" s="28">
+        <f>$C35*GDP・POP!D34/10^6</f>
+        <v>0.15214133333333607</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="28">
         <v>2043</v>
       </c>
       <c r="C36" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D36" s="28">
+        <f>$C36*GDP・POP!C35/10^6</f>
+        <v>0.13312366666667041</v>
+      </c>
+      <c r="E36" s="28">
+        <f>$C36*GDP・POP!D35/10^6</f>
+        <v>0.13312366666667041</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="28">
         <v>2044</v>
       </c>
       <c r="C37" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D37" s="28">
+        <f>$C37*GDP・POP!C36/10^6</f>
+        <v>0.11410600000000475</v>
+      </c>
+      <c r="E37" s="28">
+        <f>$C37*GDP・POP!D36/10^6</f>
+        <v>0.11410600000000475</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="28">
         <v>2045</v>
       </c>
       <c r="C38" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D38" s="28">
+        <f>$C38*GDP・POP!C37/10^6</f>
+        <v>9.5088333333339076E-2</v>
+      </c>
+      <c r="E38" s="28">
+        <f>$C38*GDP・POP!D37/10^6</f>
+        <v>9.5088333333339076E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="28">
         <v>2046</v>
       </c>
       <c r="C39" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D39" s="28">
+        <f>$C39*GDP・POP!C38/10^6</f>
+        <v>7.6070666666668035E-2</v>
+      </c>
+      <c r="E39" s="28">
+        <f>$C39*GDP・POP!D38/10^6</f>
+        <v>7.6070666666668035E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="28">
         <v>2047</v>
       </c>
       <c r="C40" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D40" s="28">
+        <f>$C40*GDP・POP!C39/10^6</f>
+        <v>5.7053000000002373E-2</v>
+      </c>
+      <c r="E40" s="28">
+        <f>$C40*GDP・POP!D39/10^6</f>
+        <v>5.7053000000002373E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="28">
         <v>2048</v>
       </c>
       <c r="C41" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D41" s="28">
+        <f>$C41*GDP・POP!C40/10^6</f>
+        <v>3.8035333333336703E-2</v>
+      </c>
+      <c r="E41" s="28">
+        <f>$C41*GDP・POP!D40/10^6</f>
+        <v>3.8035333333336703E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="28">
         <v>2049</v>
       </c>
       <c r="C42" s="1">
         <v>9.01562318835952E-2</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D42" s="28">
+        <f>$C42*GDP・POP!C41/10^6</f>
+        <v>1.901766666667104E-2</v>
+      </c>
+      <c r="E42" s="28">
+        <f>$C42*GDP・POP!D41/10^6</f>
+        <v>1.901766666667104E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="28">
         <v>2050</v>
       </c>
       <c r="C43" s="1">
         <v>9.01562318835952E-2</v>
       </c>
+      <c r="D43" s="28">
+        <f>$C43*GDP・POP!C42/10^6</f>
+        <v>5.3737301757094382E-15</v>
+      </c>
+      <c r="E43" s="28">
+        <f>$C43*GDP・POP!D42/10^6</f>
+        <v>5.3737301757094382E-15</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -19496,7 +19717,7 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -19620,32 +19841,110 @@
       <c r="A3">
         <v>2010</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
+      <c r="B3" s="35">
+        <f>sELE!B3*最終エネルギー消費!$G23/LOSS!$B$12</f>
+        <v>1.1594328282856896</v>
+      </c>
+      <c r="C3" s="35">
+        <f>sELE!C3*最終エネルギー消費!$G23/LOSS!$B$12</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="35">
+        <f>sELE!D3*最終エネルギー消費!$G23/LOSS!$B$12</f>
+        <v>0.33189357696572164</v>
+      </c>
+      <c r="E3" s="35">
+        <f>sELE!E3*最終エネルギー消費!$G23/LOSS!$B$12</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="35">
+        <f>sELE!F3*最終エネルギー消費!$G23/LOSS!$B$12</f>
+        <v>1.2144225405344946</v>
+      </c>
+      <c r="G3" s="35">
+        <f>sELE!G3*最終エネルギー消費!$G23/LOSS!$B$12</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="35">
+        <f>sELE!H3*最終エネルギー消費!$G23/LOSS!$B$12</f>
+        <v>1.0534151775537079</v>
+      </c>
+      <c r="I3" s="35">
+        <f>sELE!I3*最終エネルギー消費!$G23/LOSS!$B$12</f>
+        <v>7.5321213594020039E-2</v>
+      </c>
+      <c r="J3" s="35">
+        <f>sELE!J3*最終エネルギー消費!$G23/LOSS!$B$12</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="35">
+        <f>sELE!K3*最終エネルギー消費!$G23/LOSS!$B$12</f>
+        <v>0.30626996453873956</v>
+      </c>
+      <c r="L3" s="35">
+        <f>sELE!L3*最終エネルギー消費!$G23/LOSS!$B$12</f>
+        <v>9.6193621320520527E-3</v>
+      </c>
+      <c r="M3" s="35">
+        <f>sELE!M3*最終エネルギー消費!$G23/LOSS!$B$12</f>
+        <v>1.4677567751641748E-2</v>
+      </c>
+      <c r="N3" s="5">
+        <f>sELE!N3*最終エネルギー消費!$G23/LOSS!$B$12</f>
+        <v>1.2948860195235742E-2</v>
+      </c>
+      <c r="O3">
+        <f>sELE!O3*最終エネルギー消費!$L23/LOSS!$B$12</f>
+        <v>1.1594328282856896</v>
+      </c>
+      <c r="P3">
+        <f>sELE!P3*最終エネルギー消費!$L23/LOSS!$B$12</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>sELE!Q3*最終エネルギー消費!$L23/LOSS!$B$12</f>
+        <v>0.33189357696572164</v>
+      </c>
+      <c r="R3">
+        <f>sELE!R3*最終エネルギー消費!$L23/LOSS!$B$12</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>sELE!S3*最終エネルギー消費!$L23/LOSS!$B$12</f>
+        <v>1.2144225405344946</v>
+      </c>
+      <c r="T3">
+        <f>sELE!T3*最終エネルギー消費!$L23/LOSS!$B$12</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>sELE!U3*最終エネルギー消費!$L23/LOSS!$B$12</f>
+        <v>1.0534151775537079</v>
+      </c>
+      <c r="V3">
+        <f>sELE!V3*最終エネルギー消費!$L23/LOSS!$B$12</f>
+        <v>7.5321213594020039E-2</v>
+      </c>
+      <c r="W3">
+        <f>sELE!W3*最終エネルギー消費!$L23/LOSS!$B$12</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>sELE!X3*最終エネルギー消費!$L23/LOSS!$B$12</f>
+        <v>0.30626996453873956</v>
+      </c>
+      <c r="Y3">
+        <f>sELE!Y3*最終エネルギー消費!$L23/LOSS!$B$12</f>
+        <v>9.6193621320520527E-3</v>
+      </c>
+      <c r="Z3">
+        <f>sELE!Z3*最終エネルギー消費!$L23/LOSS!$B$12</f>
+        <v>1.4677567751641748E-2</v>
+      </c>
+      <c r="AA3">
+        <f>sELE!AA3*最終エネルギー消費!$L23/LOSS!$B$12</f>
+        <v>1.2948860195235742E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
@@ -20098,28 +20397,28 @@
   <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView zoomScale="114" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
+      <c r="B1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="65"/>
       <c r="P1" s="61" t="s">
         <v>9</v>
       </c>
@@ -20141,46 +20440,46 @@
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -20230,98 +20529,182 @@
       <c r="A3" s="1">
         <v>2010</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
+      <c r="B3" s="35">
+        <f>発電電力量!B3/eELE!B$12+最終エネルギー消費!C23</f>
+        <v>4.522243951024584</v>
+      </c>
+      <c r="C3" s="35">
+        <f>発電電力量!C3/eELE!C$12</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="35">
+        <f>発電電力量!D3/eELE!D$12+最終エネルギー消費!D23</f>
+        <v>6.3598072392570097</v>
+      </c>
+      <c r="E3" s="35">
+        <f>発電電力量!E3/eELE!E$12</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="35">
+        <f>発電電力量!F3/eELE!F$12+最終エネルギー消費!E23</f>
+        <v>3.5416367594791192</v>
+      </c>
+      <c r="G3" s="35">
+        <f>発電電力量!G3/eELE!G$12</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="35">
+        <f>発電電力量!H3/eELE!H$12</f>
+        <v>3.1921672047082059</v>
+      </c>
+      <c r="I3" s="35">
+        <f>発電電力量!I3/eELE!I$12+最終エネルギー消費!F23</f>
+        <v>0.37536473688953492</v>
+      </c>
+      <c r="J3" s="35">
+        <f>発電電力量!J3/eELE!J$12</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="35">
+        <f>発電電力量!K3/eELE!K$12</f>
+        <v>0.30626996453873956</v>
+      </c>
+      <c r="L3" s="35">
+        <f>発電電力量!L3/eELE!L$12</f>
+        <v>9.619362132052052E-2</v>
+      </c>
+      <c r="M3" s="35">
+        <f>発電電力量!M3/eELE!M$12</f>
+        <v>1.4677567751641748E-2</v>
+      </c>
+      <c r="N3" s="35">
+        <f>発電電力量!N3/eELE!N$12</f>
+        <v>1.2948860195235742E-2</v>
+      </c>
+      <c r="O3" s="5">
+        <f>SUM(B3:N3)</f>
+        <v>18.421309905164588</v>
+      </c>
+      <c r="P3">
+        <f>発電電力量!O3/eELE!B$12+最終エネルギー消費!H23</f>
+        <v>4.522243951024584</v>
+      </c>
+      <c r="Q3">
+        <f>発電電力量!P3/eELE!C$12</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>発電電力量!Q3/eELE!D$12+最終エネルギー消費!I23</f>
+        <v>6.3598072392570097</v>
+      </c>
+      <c r="S3">
+        <f>発電電力量!R3/eELE!E$12</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>発電電力量!S3/eELE!F$12+最終エネルギー消費!J23</f>
+        <v>3.5416367594791192</v>
+      </c>
+      <c r="U3">
+        <f>発電電力量!T3/eELE!G$12</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>発電電力量!U3/eELE!H$12</f>
+        <v>3.1921672047082059</v>
+      </c>
+      <c r="W3">
+        <f>発電電力量!V3/eELE!I$12+最終エネルギー消費!K23</f>
+        <v>0.37536473688953492</v>
+      </c>
+      <c r="X3">
+        <f>発電電力量!W3/eELE!J$12</f>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f>発電電力量!X3/eELE!K$12</f>
+        <v>0.30626996453873956</v>
+      </c>
+      <c r="Z3">
+        <f>発電電力量!Y3/eELE!L$12</f>
+        <v>9.619362132052052E-2</v>
+      </c>
+      <c r="AA3">
+        <f>発電電力量!Z3/eELE!M$12</f>
+        <v>1.4677567751641748E-2</v>
+      </c>
+      <c r="AB3">
+        <f>発電電力量!AA3/eELE!N$12</f>
+        <v>1.2948860195235742E-2</v>
+      </c>
+      <c r="AC3">
+        <f>SUM(P3:AB3)</f>
+        <v>18.421309905164588</v>
+      </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2020</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="35">
         <f>発電電力量!B4/eELE!B$12+最終エネルギー消費!C24</f>
-        <v>3.5490739281993244</v>
-      </c>
-      <c r="C4">
+        <v>4.1196039281993242</v>
+      </c>
+      <c r="C4" s="35">
         <f>発電電力量!C4/eELE!C$12</f>
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="35">
         <f>発電電力量!D4/eELE!D$12+最終エネルギー消費!D24</f>
         <v>4.5301466613559409</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="35">
         <f>発電電力量!E4/eELE!E$12</f>
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="35">
         <f>発電電力量!F4/eELE!F$12+最終エネルギー消費!E24</f>
         <v>3.9173540691601554</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="35">
         <f>発電電力量!G4/eELE!G$12</f>
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="35">
         <f>発電電力量!H4/eELE!H$12</f>
         <v>0.43282370168859208</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="35">
         <f>発電電力量!I4/eELE!I$12+最終エネルギー消費!F24</f>
         <v>0.61623070139794456</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="35">
         <f>発電電力量!J4/eELE!J$12</f>
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="35">
         <f>発電電力量!K4/eELE!K$12</f>
         <v>0.29046623042581166</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="35">
         <f>発電電力量!L4/eELE!L$12</f>
         <v>0.11027890434022726</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="35">
         <f>発電電力量!M4/eELE!M$12</f>
         <v>3.3061556548524024E-2</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="35">
         <f>発電電力量!N4/eELE!N$12</f>
         <v>0.29149825225787274</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="5">
         <f>SUM(B4:N4)</f>
-        <v>13.770934005374393</v>
+        <v>14.341464005374391</v>
       </c>
       <c r="P4">
         <f>発電電力量!O4/eELE!B$12+最終エネルギー消費!H24</f>
-        <v>3.5490739281993244</v>
+        <v>4.1196039281993242</v>
       </c>
       <c r="Q4">
         <f>発電電力量!P4/eELE!C$12</f>
@@ -20373,72 +20756,72 @@
       </c>
       <c r="AC4">
         <f>SUM(P4:AB4)</f>
-        <v>13.770934005374393</v>
+        <v>14.341464005374391</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>2030</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="35">
         <f>発電電力量!B5/eELE!B$12+最終エネルギー消費!C25</f>
-        <v>0.86318087359746332</v>
-      </c>
-      <c r="C5">
+        <v>1.2435342069307982</v>
+      </c>
+      <c r="C5" s="35">
         <f>発電電力量!C5/eELE!C$12</f>
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="35">
         <f>発電電力量!D5/eELE!D$12+最終エネルギー消費!D25</f>
         <v>1.4555244448718532</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="35">
         <f>発電電力量!E5/eELE!E$12</f>
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="35">
         <f>発電電力量!F5/eELE!F$12+最終エネルギー消費!E25</f>
         <v>1.0062209823871702</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="35">
         <f>発電電力量!G5/eELE!G$12</f>
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="35">
         <f>発電電力量!H5/eELE!H$12</f>
         <v>9.7314683246314981E-2</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="35">
         <f>発電電力量!I5/eELE!I$12+最終エネルギー消費!F25</f>
         <v>0.16163411233586439</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="35">
         <f>発電電力量!J5/eELE!J$12</f>
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="35">
         <f>発電電力量!K5/eELE!K$12</f>
         <v>6.5307489163281676E-2</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="35">
         <f>発電電力量!L5/eELE!L$12</f>
         <v>2.4794752696656028E-2</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="35">
         <f>発電電力量!M5/eELE!M$12</f>
         <v>7.4334535992313334E-3</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="35">
         <f>発電電力量!N5/eELE!N$12</f>
         <v>6.5539525618997466E-2</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="5">
         <f t="shared" ref="O5:O7" si="0">SUM(B5:N5)</f>
-        <v>3.7469503175168324</v>
+        <v>4.1273036508501679</v>
       </c>
       <c r="P5">
         <f>発電電力量!O5/eELE!B$12+最終エネルギー消費!H25</f>
-        <v>0.902186258412221</v>
+        <v>1.2825395917455558</v>
       </c>
       <c r="Q5">
         <f>発電電力量!P5/eELE!C$12</f>
@@ -20490,72 +20873,72 @@
       </c>
       <c r="AC5">
         <f t="shared" ref="AC5:AC7" si="1">SUM(P5:AB5)</f>
-        <v>3.9148840653349546</v>
+        <v>4.2952373986682897</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>2040</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="35">
         <f>発電電力量!B6/eELE!B$12+最終エネルギー消費!C26</f>
-        <v>8.59324372627297E-2</v>
-      </c>
-      <c r="C6">
+        <v>0.27610910392939714</v>
+      </c>
+      <c r="C6" s="35">
         <f>発電電力量!C6/eELE!C$12</f>
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="35">
         <f>発電電力量!D6/eELE!D$12+最終エネルギー消費!D26</f>
         <v>0.22882381167057808</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="35">
         <f>発電電力量!E6/eELE!E$12</f>
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="35">
         <f>発電電力量!F6/eELE!F$12+最終エネルギー消費!E26</f>
         <v>0.11542062576889876</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="35">
         <f>発電電力量!G6/eELE!G$12</f>
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="35">
         <f>発電電力量!H6/eELE!H$12</f>
         <v>8.1067552441946491E-3</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="35">
         <f>発電電力量!I6/eELE!I$12+最終エネルギー消費!F26</f>
         <v>1.8754436490204161E-2</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="35">
         <f>発電電力量!J6/eELE!J$12</f>
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="35">
         <f>発電電力量!K6/eELE!K$12</f>
         <v>5.4404105588010112E-3</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="35">
         <f>発電電力量!L6/eELE!L$12</f>
         <v>2.0655155496252862E-3</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="35">
         <f>発電電力量!M6/eELE!M$12</f>
         <v>6.1924045722389098E-4</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="35">
         <f>発電電力量!N6/eELE!N$12</f>
         <v>5.459740249773218E-3</v>
       </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>0.47062297325202873</v>
+      <c r="O6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.66079963991869628</v>
       </c>
       <c r="P6">
         <f>発電電力量!O6/eELE!B$12+最終エネルギー消費!H26</f>
-        <v>9.8427631642953886E-2</v>
+        <v>0.28860429830962131</v>
       </c>
       <c r="Q6">
         <f>発電電力量!P6/eELE!C$12</f>
@@ -20607,72 +20990,72 @@
       </c>
       <c r="AC6">
         <f t="shared" si="1"/>
-        <v>0.53568544597789136</v>
+        <v>0.7258621126445588</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>2050</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="35">
         <f>発電電力量!B7/eELE!B$12+最終エネルギー消費!C27</f>
-        <v>0</v>
-      </c>
-      <c r="C7">
+        <v>5.3737301757094382E-15</v>
+      </c>
+      <c r="C7" s="35">
         <f>発電電力量!C7/eELE!C$12</f>
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="35">
         <f>発電電力量!D7/eELE!D$12+最終エネルギー消費!D27</f>
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="35">
         <f>発電電力量!E7/eELE!E$12</f>
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="35">
         <f>発電電力量!F7/eELE!F$12+最終エネルギー消費!E27</f>
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="35">
         <f>発電電力量!G7/eELE!G$12</f>
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="35">
         <f>発電電力量!H7/eELE!H$12</f>
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="35">
         <f>発電電力量!I7/eELE!I$12+最終エネルギー消費!F27</f>
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="35">
         <f>発電電力量!J7/eELE!J$12</f>
         <v>0</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="35">
         <f>発電電力量!K7/eELE!K$12</f>
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="35">
         <f>発電電力量!L7/eELE!L$12</f>
         <v>0</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="35">
         <f>発電電力量!M7/eELE!M$12</f>
         <v>0</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="35">
         <f>発電電力量!N7/eELE!N$12</f>
         <v>0</v>
       </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="O7" s="5">
+        <f t="shared" si="0"/>
+        <v>5.3737301757094382E-15</v>
       </c>
       <c r="P7">
         <f>発電電力量!O7/eELE!B$12+最終エネルギー消費!H27</f>
-        <v>0</v>
+        <v>5.3737301757094382E-15</v>
       </c>
       <c r="Q7">
         <f>発電電力量!P7/eELE!C$12</f>
@@ -20724,7 +21107,7 @@
       </c>
       <c r="AC7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.3737301757094382E-15</v>
       </c>
     </row>
   </sheetData>
@@ -20739,10 +21122,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACBDC0A-B774-4127-9811-6E05EDCA9F07}">
-  <dimension ref="A1:AD43"/>
+  <dimension ref="A1:AD47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="AD44" sqref="AD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -20786,7 +21169,7 @@
     <row r="2" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="18"/>
       <c r="B2" s="12"/>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="68" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="27" t="s">
@@ -20828,7 +21211,7 @@
       <c r="P2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="69" t="s">
+      <c r="Q2" s="68" t="s">
         <v>15</v>
       </c>
       <c r="R2" s="27" t="s">
@@ -20872,47 +21255,73 @@
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="20"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="6"/>
+      <c r="A3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="35">
+        <v>2010</v>
+      </c>
+      <c r="C3" s="20">
+        <f>最終エネルギー消費!C3*EMF!$A$2</f>
+        <v>159.313383769425</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35">
+        <f>最終エネルギー消費!D3*EMF!$C$2</f>
+        <v>75.40279918389281</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35">
+        <f>最終エネルギー消費!E3*EMF!$E$2</f>
+        <v>25.414333813941703</v>
+      </c>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="5">
+        <f t="shared" ref="P3" si="0">SUM(C3:O3)</f>
+        <v>260.13051676725951</v>
+      </c>
+      <c r="Q3" s="20">
+        <f>最終エネルギー消費!H3*EMF!$A$2</f>
+        <v>159.313383769425</v>
+      </c>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35">
+        <f>最終エネルギー消費!I3*EMF!$C$2</f>
+        <v>75.40279918389281</v>
+      </c>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35">
+        <f>最終エネルギー消費!J3*EMF!$E$2</f>
+        <v>25.414333813941703</v>
+      </c>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="5">
+        <f t="shared" ref="AD3" si="1">SUM(Q3:AC3)</f>
+        <v>260.13051676725951</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="13">
+      <c r="A4" s="20"/>
+      <c r="B4" s="5">
         <v>2020</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="35">
         <f>最終エネルギー消費!C4*EMF!$A$2</f>
-        <v>70.792720085927627</v>
+        <v>124.7648580859276</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35">
@@ -20933,12 +21342,12 @@
       <c r="N4" s="35"/>
       <c r="O4" s="35"/>
       <c r="P4" s="5">
-        <f t="shared" ref="P4:P43" si="0">SUM(C4:O4)</f>
-        <v>147.87816737095594</v>
+        <f t="shared" ref="P4:P47" si="2">SUM(C4:O4)</f>
+        <v>201.85030537095591</v>
       </c>
       <c r="Q4" s="20">
         <f>最終エネルギー消費!H4*EMF!$A$2</f>
-        <v>70.792720085927627</v>
+        <v>124.7648580859276</v>
       </c>
       <c r="R4" s="35"/>
       <c r="S4" s="35">
@@ -20959,8 +21368,8 @@
       <c r="AB4" s="35"/>
       <c r="AC4" s="35"/>
       <c r="AD4" s="5">
-        <f t="shared" ref="AD4:AD43" si="1">SUM(Q4:AC4)</f>
-        <v>147.87816737095594</v>
+        <f t="shared" ref="AD4:AD47" si="3">SUM(Q4:AC4)</f>
+        <v>201.85030537095591</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -20970,7 +21379,7 @@
       </c>
       <c r="C5" s="20">
         <f>最終エネルギー消費!C5*EMF!$A$2</f>
-        <v>22.024401804511044</v>
+        <v>58.00582713784452</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="35">
@@ -20991,12 +21400,12 @@
       <c r="N5" s="35"/>
       <c r="O5" s="35"/>
       <c r="P5" s="5">
-        <f t="shared" si="0"/>
-        <v>46.006540959853034</v>
+        <f t="shared" si="2"/>
+        <v>81.987966293186503</v>
       </c>
       <c r="Q5" s="20">
         <f>最終エネルギー消費!H5*EMF!$A$2</f>
-        <v>23.073182842821261</v>
+        <v>59.05460817615473</v>
       </c>
       <c r="R5" s="35"/>
       <c r="S5" s="35">
@@ -21017,8 +21426,8 @@
       <c r="AB5" s="35"/>
       <c r="AC5" s="35"/>
       <c r="AD5" s="5">
-        <f t="shared" si="1"/>
-        <v>48.197328624608296</v>
+        <f t="shared" si="3"/>
+        <v>84.178753957941751</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -21028,7 +21437,7 @@
       </c>
       <c r="C6" s="20">
         <f>最終エネルギー消費!C6*EMF!$A$2</f>
-        <v>3.1463431149300867</v>
+        <v>21.137055781596825</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="35">
@@ -21049,12 +21458,12 @@
       <c r="N6" s="35"/>
       <c r="O6" s="35"/>
       <c r="P6" s="5">
-        <f t="shared" si="0"/>
-        <v>6.5723629942646662</v>
+        <f t="shared" si="2"/>
+        <v>24.563075660931403</v>
       </c>
       <c r="Q6" s="20">
         <f>最終エネルギー消費!H6*EMF!$A$2</f>
-        <v>3.6707336340851291</v>
+        <v>21.661446300751866</v>
       </c>
       <c r="R6" s="35"/>
       <c r="S6" s="35">
@@ -21075,8 +21484,8 @@
       <c r="AB6" s="35"/>
       <c r="AC6" s="35"/>
       <c r="AD6" s="5">
-        <f t="shared" si="1"/>
-        <v>7.6677568266421678</v>
+        <f t="shared" si="3"/>
+        <v>25.658469493308907</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -21086,7 +21495,7 @@
       </c>
       <c r="C7" s="20">
         <f>最終エネルギー消費!C7*EMF!$A$2</f>
-        <v>0</v>
+        <v>5.0835487462211279E-13</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="35">
@@ -21107,12 +21516,12 @@
       <c r="N7" s="35"/>
       <c r="O7" s="35"/>
       <c r="P7" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.0835487462211279E-13</v>
       </c>
       <c r="Q7" s="20">
         <f>最終エネルギー消費!H7*EMF!$A$2</f>
-        <v>0</v>
+        <v>5.0835487462211279E-13</v>
       </c>
       <c r="R7" s="35"/>
       <c r="S7" s="35">
@@ -21133,18 +21542,31 @@
       <c r="AB7" s="35"/>
       <c r="AC7" s="35"/>
       <c r="AD7" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5.0835487462211279E-13</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="20"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="35">
+        <v>2010</v>
+      </c>
+      <c r="C8" s="20">
+        <f>最終エネルギー消費!C8*EMF!$A$2</f>
+        <v>3.973198793248256E-3</v>
+      </c>
       <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+      <c r="E8" s="35">
+        <f>最終エネルギー消費!D8*EMF!$C$2</f>
+        <v>248.7831066388554</v>
+      </c>
       <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="G8" s="35">
+        <f>最終エネルギー消費!E8*EMF!$E$2</f>
+        <v>0.23567602841977606</v>
+      </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
@@ -21153,12 +21575,24 @@
       <c r="M8" s="35"/>
       <c r="N8" s="35"/>
       <c r="O8" s="35"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="20"/>
+      <c r="P8" s="5">
+        <f t="shared" ref="P8" si="4">SUM(C8:O8)</f>
+        <v>249.02275586606845</v>
+      </c>
+      <c r="Q8" s="20">
+        <f>最終エネルギー消費!H8*EMF!$A$2</f>
+        <v>3.973198793248256E-3</v>
+      </c>
       <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
+      <c r="S8" s="35">
+        <f>最終エネルギー消費!I8*EMF!$C$2</f>
+        <v>248.7831066388554</v>
+      </c>
       <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
+      <c r="U8" s="35">
+        <f>最終エネルギー消費!J8*EMF!$E$2</f>
+        <v>0.23567602841977606</v>
+      </c>
       <c r="V8" s="35"/>
       <c r="W8" s="35"/>
       <c r="X8" s="35"/>
@@ -21167,12 +21601,13 @@
       <c r="AA8" s="35"/>
       <c r="AB8" s="35"/>
       <c r="AC8" s="35"/>
-      <c r="AD8" s="5"/>
+      <c r="AD8" s="5">
+        <f t="shared" ref="AD8" si="5">SUM(Q8:AC8)</f>
+        <v>249.02275586606845</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="20" t="s">
-        <v>6</v>
-      </c>
+      <c r="A9" s="20"/>
       <c r="B9" s="5">
         <v>2020</v>
       </c>
@@ -21199,7 +21634,7 @@
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
       <c r="P9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>196.15609230500672</v>
       </c>
       <c r="Q9" s="20">
@@ -21225,7 +21660,7 @@
       <c r="AB9" s="35"/>
       <c r="AC9" s="35"/>
       <c r="AD9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>196.15609230500672</v>
       </c>
     </row>
@@ -21257,7 +21692,7 @@
       <c r="N10" s="35"/>
       <c r="O10" s="35"/>
       <c r="P10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>63.932356010521261</v>
       </c>
       <c r="Q10" s="20">
@@ -21283,7 +21718,7 @@
       <c r="AB10" s="35"/>
       <c r="AC10" s="35"/>
       <c r="AD10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>66.838372192817531</v>
       </c>
     </row>
@@ -21315,7 +21750,7 @@
       <c r="N11" s="35"/>
       <c r="O11" s="35"/>
       <c r="P11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10.171056638037276</v>
       </c>
       <c r="Q11" s="20">
@@ -21341,7 +21776,7 @@
       <c r="AB11" s="35"/>
       <c r="AC11" s="35"/>
       <c r="AD11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.624064729185372</v>
       </c>
     </row>
@@ -21373,7 +21808,7 @@
       <c r="N12" s="35"/>
       <c r="O12" s="35"/>
       <c r="P12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q12" s="20">
@@ -21399,18 +21834,31 @@
       <c r="AB12" s="35"/>
       <c r="AC12" s="35"/>
       <c r="AD12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="20"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="20"/>
+      <c r="A13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="35">
+        <v>2010</v>
+      </c>
+      <c r="C13" s="20">
+        <f>最終エネルギー消費!C13*EMF!$A$2</f>
+        <v>0.96900480888730678</v>
+      </c>
       <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
+      <c r="E13" s="35">
+        <f>最終エネルギー消費!D13*EMF!$C$2</f>
+        <v>42.400280288081049</v>
+      </c>
       <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="G13" s="35">
+        <f>最終エネルギー消費!E13*EMF!$E$2</f>
+        <v>20.249062569388411</v>
+      </c>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
       <c r="J13" s="35"/>
@@ -21419,12 +21867,24 @@
       <c r="M13" s="35"/>
       <c r="N13" s="35"/>
       <c r="O13" s="35"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="20"/>
+      <c r="P13" s="5">
+        <f t="shared" ref="P13" si="6">SUM(C13:O13)</f>
+        <v>63.618347666356769</v>
+      </c>
+      <c r="Q13" s="20">
+        <f>最終エネルギー消費!H13*EMF!$A$2</f>
+        <v>0.96900480888730678</v>
+      </c>
       <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
+      <c r="S13" s="35">
+        <f>最終エネルギー消費!I13*EMF!$C$2</f>
+        <v>42.400280288081049</v>
+      </c>
       <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
+      <c r="U13" s="35">
+        <f>最終エネルギー消費!J13*EMF!$E$2</f>
+        <v>20.249062569388411</v>
+      </c>
       <c r="V13" s="35"/>
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
@@ -21433,12 +21893,13 @@
       <c r="AA13" s="35"/>
       <c r="AB13" s="35"/>
       <c r="AC13" s="35"/>
-      <c r="AD13" s="5"/>
+      <c r="AD13" s="5">
+        <f t="shared" ref="AD13" si="7">SUM(Q13:AC13)</f>
+        <v>63.618347666356769</v>
+      </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="20" t="s">
-        <v>7</v>
-      </c>
+      <c r="A14" s="20"/>
       <c r="B14" s="5">
         <v>2020</v>
       </c>
@@ -21465,7 +21926,7 @@
       <c r="N14" s="35"/>
       <c r="O14" s="35"/>
       <c r="P14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>52.883709709806709</v>
       </c>
       <c r="Q14" s="20">
@@ -21491,7 +21952,7 @@
       <c r="AB14" s="35"/>
       <c r="AC14" s="35"/>
       <c r="AD14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52.883709709806709</v>
       </c>
     </row>
@@ -21523,7 +21984,7 @@
       <c r="N15" s="35"/>
       <c r="O15" s="35"/>
       <c r="P15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18.461585040782602</v>
       </c>
       <c r="Q15" s="20">
@@ -21549,7 +22010,7 @@
       <c r="AB15" s="35"/>
       <c r="AC15" s="35"/>
       <c r="AD15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19.264262651251538</v>
       </c>
     </row>
@@ -21581,7 +22042,7 @@
       <c r="N16" s="35"/>
       <c r="O16" s="35"/>
       <c r="P16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.147622467905113</v>
       </c>
       <c r="Q16" s="20">
@@ -21607,7 +22068,7 @@
       <c r="AB16" s="35"/>
       <c r="AC16" s="35"/>
       <c r="AD16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.5410752763932729</v>
       </c>
     </row>
@@ -21639,7 +22100,7 @@
       <c r="N17" s="35"/>
       <c r="O17" s="35"/>
       <c r="P17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q17" s="20">
@@ -21665,13 +22126,17 @@
       <c r="AB17" s="35"/>
       <c r="AC17" s="35"/>
       <c r="AD17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="20"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="35">
+        <v>2010</v>
+      </c>
       <c r="C18" s="20"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
@@ -21702,9 +22167,7 @@
       <c r="AD18" s="5"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="20" t="s">
-        <v>8</v>
-      </c>
+      <c r="A19" s="20"/>
       <c r="B19" s="5">
         <v>2020</v>
       </c>
@@ -21731,7 +22194,7 @@
       <c r="N19" s="35"/>
       <c r="O19" s="35"/>
       <c r="P19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>60.215801887775498</v>
       </c>
       <c r="Q19" s="20">
@@ -21757,7 +22220,7 @@
       <c r="AB19" s="35"/>
       <c r="AC19" s="35"/>
       <c r="AD19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60.215801887775498</v>
       </c>
     </row>
@@ -21789,7 +22252,7 @@
       <c r="N20" s="35"/>
       <c r="O20" s="35"/>
       <c r="P20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21.410062893431501</v>
       </c>
       <c r="Q20" s="20">
@@ -21815,7 +22278,7 @@
       <c r="AB20" s="35"/>
       <c r="AC20" s="35"/>
       <c r="AD20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22.302148847324236</v>
       </c>
     </row>
@@ -21847,7 +22310,7 @@
       <c r="N21" s="35"/>
       <c r="O21" s="35"/>
       <c r="P21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0143867925183372</v>
       </c>
       <c r="Q21" s="20">
@@ -21873,7 +22336,7 @@
       <c r="AB21" s="35"/>
       <c r="AC21" s="35"/>
       <c r="AD21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.4604297694647936</v>
       </c>
     </row>
@@ -21905,7 +22368,7 @@
       <c r="N22" s="35"/>
       <c r="O22" s="35"/>
       <c r="P22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q22" s="20">
@@ -21931,46 +22394,132 @@
       <c r="AB22" s="35"/>
       <c r="AC22" s="35"/>
       <c r="AD22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="20"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="5"/>
+      <c r="A23" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="35">
+        <v>2010</v>
+      </c>
+      <c r="C23" s="20">
+        <f>発電電力量!B3/eELE!B$12*EMF!A$2</f>
+        <v>267.5179159898201</v>
+      </c>
+      <c r="D23" s="35">
+        <f>発電電力量!C3/eELE!C$12*EMF!B$2</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="35">
+        <f>発電電力量!D3/eELE!D$12*EMF!C$2</f>
+        <v>77.844129870141998</v>
+      </c>
+      <c r="F23" s="35">
+        <f>発電電力量!E3/eELE!E$12*EMF!D$2</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="35">
+        <f>発電電力量!F3/eELE!F$12*EMF!E$2</f>
+        <v>131.01750869997144</v>
+      </c>
+      <c r="H23" s="35">
+        <f>発電電力量!G3/eELE!G$12*EMF!F$2</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="35">
+        <f>発電電力量!H3/eELE!H$12*EMF!G$2</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="35">
+        <f>発電電力量!I3/eELE!I$12*EMF!H$2</f>
+        <v>-16.262534753254329</v>
+      </c>
+      <c r="K23" s="35">
+        <f>発電電力量!J3/eELE!J$12*EMF!I$2</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="35">
+        <f>発電電力量!K3/eELE!K$12*EMF!J$2</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="35">
+        <f>発電電力量!L3/eELE!L$12*EMF!K$2</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="35">
+        <f>発電電力量!M3/eELE!M$12*EMF!L$2</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="35">
+        <f>発電電力量!N3/eELE!N$12*EMF!M$2</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="5">
+        <f t="shared" ref="P23" si="8">SUM(C23:O23)</f>
+        <v>460.11701980667925</v>
+      </c>
+      <c r="Q23" s="20">
+        <f>発電電力量!O3/eELE!B$12*EMF!A$2</f>
+        <v>267.5179159898201</v>
+      </c>
+      <c r="R23" s="35">
+        <f>発電電力量!P3/eELE!C$12*EMF!B$2</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="35">
+        <f>発電電力量!Q3/eELE!D$12*EMF!C$2</f>
+        <v>77.844129870141998</v>
+      </c>
+      <c r="T23" s="35">
+        <f>発電電力量!R3/eELE!E$12*EMF!D$2</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="35">
+        <f>発電電力量!S3/eELE!F$12*EMF!E$2</f>
+        <v>131.01750869997144</v>
+      </c>
+      <c r="V23" s="35">
+        <f>発電電力量!T3/eELE!G$12*EMF!F$2</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="35">
+        <f>発電電力量!U3/eELE!H$12*EMF!G$2</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="35">
+        <f>発電電力量!V3/eELE!I$12*EMF!H$2</f>
+        <v>-16.262534753254329</v>
+      </c>
+      <c r="Y23" s="35">
+        <f>発電電力量!W3/eELE!J$12*EMF!I$2</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="35">
+        <f>発電電力量!X3/eELE!K$12*EMF!J$2</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="35">
+        <f>発電電力量!Y3/eELE!L$12*EMF!K$2</f>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="35">
+        <f>発電電力量!Z3/eELE!M$12*EMF!L$2</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="35">
+        <f>発電電力量!AA3/eELE!N$12*EMF!M$2</f>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="5">
+        <f t="shared" ref="AD23" si="9">SUM(Q23:AC23)</f>
+        <v>460.11701980667925</v>
+      </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="20" t="s">
-        <v>33</v>
-      </c>
+      <c r="A24" s="20"/>
       <c r="B24" s="5">
         <v>2020</v>
       </c>
@@ -22027,7 +22576,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>412.50475952227805</v>
       </c>
       <c r="Q24" s="20">
@@ -22083,7 +22632,7 @@
         <v>0</v>
       </c>
       <c r="AD24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>412.50475952227805</v>
       </c>
     </row>
@@ -22145,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>92.746237911410986</v>
       </c>
       <c r="Q25" s="20">
@@ -22201,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="AD25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>96.854193477079974</v>
       </c>
     </row>
@@ -22263,7 +22812,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.726182991980453</v>
       </c>
       <c r="Q26" s="20">
@@ -22319,7 +22868,7 @@
         <v>0</v>
       </c>
       <c r="AD26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.7462289940709077</v>
       </c>
     </row>
@@ -22381,7 +22930,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q27" s="20">
@@ -22437,13 +22986,17 @@
         <v>0</v>
       </c>
       <c r="AD27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="20"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="35">
+        <v>2010</v>
+      </c>
       <c r="C28" s="20"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
@@ -22457,7 +23010,10 @@
       <c r="M28" s="35"/>
       <c r="N28" s="35"/>
       <c r="O28" s="35"/>
-      <c r="P28" s="5"/>
+      <c r="P28" s="5">
+        <f>Emissions!B3</f>
+        <v>28.775119328906975</v>
+      </c>
       <c r="Q28" s="20"/>
       <c r="R28" s="35"/>
       <c r="S28" s="35"/>
@@ -22471,11 +23027,16 @@
       <c r="AA28" s="35"/>
       <c r="AB28" s="35"/>
       <c r="AC28" s="35"/>
-      <c r="AD28" s="5"/>
+      <c r="AD28" s="5">
+        <f>Emissions!C3</f>
+        <v>28.775119328906975</v>
+      </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="20"/>
-      <c r="B29" s="5"/>
+      <c r="B29" s="5">
+        <v>2020</v>
+      </c>
       <c r="C29" s="20"/>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
@@ -22489,7 +23050,10 @@
       <c r="M29" s="35"/>
       <c r="N29" s="35"/>
       <c r="O29" s="35"/>
-      <c r="P29" s="5"/>
+      <c r="P29" s="5">
+        <f>Emissions!B13</f>
+        <v>25.99212785621209</v>
+      </c>
       <c r="Q29" s="20"/>
       <c r="R29" s="35"/>
       <c r="S29" s="35"/>
@@ -22503,11 +23067,16 @@
       <c r="AA29" s="35"/>
       <c r="AB29" s="35"/>
       <c r="AC29" s="35"/>
-      <c r="AD29" s="5"/>
+      <c r="AD29" s="5">
+        <f>Emissions!C13</f>
+        <v>25.99212785621209</v>
+      </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="20"/>
-      <c r="B30" s="5"/>
+      <c r="B30" s="5">
+        <v>2030</v>
+      </c>
       <c r="C30" s="20"/>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
@@ -22521,7 +23090,10 @@
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
       <c r="O30" s="35"/>
-      <c r="P30" s="5"/>
+      <c r="P30" s="5">
+        <f>Emissions!B23</f>
+        <v>17.328085237474852</v>
+      </c>
       <c r="Q30" s="20"/>
       <c r="R30" s="35"/>
       <c r="S30" s="35"/>
@@ -22535,11 +23107,16 @@
       <c r="AA30" s="35"/>
       <c r="AB30" s="35"/>
       <c r="AC30" s="35"/>
-      <c r="AD30" s="5"/>
+      <c r="AD30" s="5">
+        <f>Emissions!C23</f>
+        <v>17.328085237474852</v>
+      </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="20"/>
-      <c r="B31" s="5"/>
+      <c r="B31" s="5">
+        <v>2040</v>
+      </c>
       <c r="C31" s="20"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -22553,7 +23130,10 @@
       <c r="M31" s="35"/>
       <c r="N31" s="35"/>
       <c r="O31" s="35"/>
-      <c r="P31" s="5"/>
+      <c r="P31" s="5">
+        <f>Emissions!B33</f>
+        <v>8.6640426187372341</v>
+      </c>
       <c r="Q31" s="20"/>
       <c r="R31" s="35"/>
       <c r="S31" s="35"/>
@@ -22567,11 +23147,16 @@
       <c r="AA31" s="35"/>
       <c r="AB31" s="35"/>
       <c r="AC31" s="35"/>
-      <c r="AD31" s="5"/>
+      <c r="AD31" s="5">
+        <f>Emissions!C33</f>
+        <v>8.6640426187372341</v>
+      </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="20"/>
-      <c r="B32" s="5"/>
+      <c r="B32" s="5">
+        <v>2050</v>
+      </c>
       <c r="C32" s="20"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
@@ -22585,7 +23170,10 @@
       <c r="M32" s="35"/>
       <c r="N32" s="35"/>
       <c r="O32" s="35"/>
-      <c r="P32" s="5"/>
+      <c r="P32" s="5">
+        <f>Emissions!B43</f>
+        <v>0</v>
+      </c>
       <c r="Q32" s="20"/>
       <c r="R32" s="35"/>
       <c r="S32" s="35"/>
@@ -22599,11 +23187,18 @@
       <c r="AA32" s="35"/>
       <c r="AB32" s="35"/>
       <c r="AC32" s="35"/>
-      <c r="AD32" s="5"/>
+      <c r="AD32" s="5">
+        <f>Emissions!C43</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="20"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="35">
+        <v>2010</v>
+      </c>
       <c r="C33" s="20"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
@@ -22617,7 +23212,10 @@
       <c r="M33" s="35"/>
       <c r="N33" s="35"/>
       <c r="O33" s="35"/>
-      <c r="P33" s="5"/>
+      <c r="P33" s="5">
+        <f>Emissions!D3</f>
+        <v>29.46362437612942</v>
+      </c>
       <c r="Q33" s="20"/>
       <c r="R33" s="35"/>
       <c r="S33" s="35"/>
@@ -22631,11 +23229,16 @@
       <c r="AA33" s="35"/>
       <c r="AB33" s="35"/>
       <c r="AC33" s="35"/>
-      <c r="AD33" s="5"/>
+      <c r="AD33" s="5">
+        <f>Emissions!E3</f>
+        <v>29.46362437612942</v>
+      </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="20"/>
-      <c r="B34" s="5"/>
+      <c r="B34" s="5">
+        <v>2020</v>
+      </c>
       <c r="C34" s="20"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
@@ -22649,7 +23252,10 @@
       <c r="M34" s="35"/>
       <c r="N34" s="35"/>
       <c r="O34" s="35"/>
-      <c r="P34" s="5"/>
+      <c r="P34" s="5">
+        <f>Emissions!D13</f>
+        <v>31.085649151718691</v>
+      </c>
       <c r="Q34" s="20"/>
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
@@ -22663,11 +23269,16 @@
       <c r="AA34" s="35"/>
       <c r="AB34" s="35"/>
       <c r="AC34" s="35"/>
-      <c r="AD34" s="5"/>
+      <c r="AD34" s="5">
+        <f>Emissions!E13</f>
+        <v>31.085649151718691</v>
+      </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="20"/>
-      <c r="B35" s="5"/>
+      <c r="B35" s="5">
+        <v>2030</v>
+      </c>
       <c r="C35" s="20"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
@@ -22681,7 +23292,10 @@
       <c r="M35" s="35"/>
       <c r="N35" s="35"/>
       <c r="O35" s="35"/>
-      <c r="P35" s="5"/>
+      <c r="P35" s="5">
+        <f>Emissions!D23</f>
+        <v>20.723766101145944</v>
+      </c>
       <c r="Q35" s="20"/>
       <c r="R35" s="35"/>
       <c r="S35" s="35"/>
@@ -22695,11 +23309,16 @@
       <c r="AA35" s="35"/>
       <c r="AB35" s="35"/>
       <c r="AC35" s="35"/>
-      <c r="AD35" s="5"/>
+      <c r="AD35" s="5">
+        <f>Emissions!E23</f>
+        <v>20.723766101145944</v>
+      </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="20"/>
-      <c r="B36" s="5"/>
+      <c r="B36" s="5">
+        <v>2040</v>
+      </c>
       <c r="C36" s="20"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -22713,7 +23332,10 @@
       <c r="M36" s="35"/>
       <c r="N36" s="35"/>
       <c r="O36" s="35"/>
-      <c r="P36" s="5"/>
+      <c r="P36" s="5">
+        <f>Emissions!D33</f>
+        <v>10.361883050572743</v>
+      </c>
       <c r="Q36" s="20"/>
       <c r="R36" s="35"/>
       <c r="S36" s="35"/>
@@ -22727,11 +23349,16 @@
       <c r="AA36" s="35"/>
       <c r="AB36" s="35"/>
       <c r="AC36" s="35"/>
-      <c r="AD36" s="5"/>
+      <c r="AD36" s="5">
+        <f>Emissions!E33</f>
+        <v>10.361883050572743</v>
+      </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="20"/>
-      <c r="B37" s="5"/>
+      <c r="B37" s="5">
+        <v>2050</v>
+      </c>
       <c r="C37" s="20"/>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
@@ -22745,7 +23372,10 @@
       <c r="M37" s="35"/>
       <c r="N37" s="35"/>
       <c r="O37" s="35"/>
-      <c r="P37" s="5"/>
+      <c r="P37" s="5">
+        <f>Emissions!D43</f>
+        <v>0</v>
+      </c>
       <c r="Q37" s="20"/>
       <c r="R37" s="35"/>
       <c r="S37" s="35"/>
@@ -22759,11 +23389,18 @@
       <c r="AA37" s="35"/>
       <c r="AB37" s="35"/>
       <c r="AC37" s="35"/>
-      <c r="AD37" s="5"/>
+      <c r="AD37" s="5">
+        <f>Emissions!E43</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="20"/>
-      <c r="B38" s="5"/>
+      <c r="A38" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="35">
+        <v>2010</v>
+      </c>
       <c r="C38" s="20"/>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
@@ -22777,7 +23414,10 @@
       <c r="M38" s="35"/>
       <c r="N38" s="35"/>
       <c r="O38" s="35"/>
-      <c r="P38" s="5"/>
+      <c r="P38" s="5">
+        <f>Emissions!$F$3</f>
+        <v>-54.3</v>
+      </c>
       <c r="Q38" s="20"/>
       <c r="R38" s="35"/>
       <c r="S38" s="35"/>
@@ -22791,11 +23431,16 @@
       <c r="AA38" s="35"/>
       <c r="AB38" s="35"/>
       <c r="AC38" s="35"/>
-      <c r="AD38" s="5"/>
+      <c r="AD38" s="5">
+        <f>Emissions!$F$3</f>
+        <v>-54.3</v>
+      </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="20"/>
-      <c r="B39" s="5"/>
+      <c r="B39" s="5">
+        <v>2020</v>
+      </c>
       <c r="C39" s="20"/>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
@@ -22809,7 +23454,10 @@
       <c r="M39" s="35"/>
       <c r="N39" s="35"/>
       <c r="O39" s="35"/>
-      <c r="P39" s="5"/>
+      <c r="P39" s="5">
+        <f>Emissions!$F$3</f>
+        <v>-54.3</v>
+      </c>
       <c r="Q39" s="20"/>
       <c r="R39" s="35"/>
       <c r="S39" s="35"/>
@@ -22823,480 +23471,721 @@
       <c r="AA39" s="35"/>
       <c r="AB39" s="35"/>
       <c r="AC39" s="35"/>
-      <c r="AD39" s="5"/>
+      <c r="AD39" s="5">
+        <f>Emissions!$F$3</f>
+        <v>-54.3</v>
+      </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="20" t="s">
-        <v>31</v>
-      </c>
+      <c r="A40" s="20"/>
       <c r="B40" s="5">
-        <v>2020</v>
-      </c>
-      <c r="C40" s="20">
-        <f t="shared" ref="C40:Q40" si="2">SUM(C4,C9,C14,C19,C24)</f>
-        <v>335.74239360765608</v>
-      </c>
-      <c r="D40" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="35">
-        <f t="shared" si="2"/>
-        <v>350.63335158894984</v>
-      </c>
-      <c r="F40" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="35">
-        <f t="shared" si="2"/>
-        <v>219.76356327988472</v>
-      </c>
-      <c r="H40" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="35">
-        <f t="shared" si="2"/>
-        <v>-36.500777680667703</v>
-      </c>
-      <c r="K40" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>2030</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
       <c r="P40" s="5">
-        <f t="shared" si="0"/>
-        <v>869.63853079582293</v>
-      </c>
-      <c r="Q40" s="20">
-        <f>SUM(Q4,Q9,Q14,Q19,Q24)</f>
-        <v>335.74239360765608</v>
-      </c>
-      <c r="R40" s="35">
-        <f t="shared" ref="R40:AC40" si="3">SUM(R4,R9,R14,R19,R24)</f>
-        <v>0</v>
-      </c>
-      <c r="S40" s="35">
-        <f t="shared" si="3"/>
-        <v>350.63335158894984</v>
-      </c>
-      <c r="T40" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="35">
-        <f t="shared" si="3"/>
-        <v>219.76356327988472</v>
-      </c>
-      <c r="V40" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W40" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X40" s="35">
-        <f t="shared" si="3"/>
-        <v>-36.500777680667703</v>
-      </c>
-      <c r="Y40" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z40" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA40" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB40" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC40" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <f>Emissions!$F$3</f>
+        <v>-54.3</v>
+      </c>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
       <c r="AD40" s="5">
-        <f>SUM(Q40:AC40)</f>
-        <v>869.63853079582293</v>
+        <f>Emissions!$F$3</f>
+        <v>-54.3</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="20"/>
       <c r="B41" s="5">
-        <v>2030</v>
-      </c>
-      <c r="C41" s="20">
-        <f t="shared" ref="C41:P41" si="4">SUM(C5,C10,C15,C20,C25)</f>
-        <v>81.656910642320014</v>
-      </c>
-      <c r="D41" s="35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="35">
-        <f t="shared" si="4"/>
-        <v>112.65759203308143</v>
-      </c>
-      <c r="F41" s="35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="35">
-        <f t="shared" si="4"/>
-        <v>56.448997111920256</v>
-      </c>
-      <c r="H41" s="35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="35">
-        <f t="shared" si="4"/>
-        <v>-8.2067169713223151</v>
-      </c>
-      <c r="K41" s="35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <v>2040</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
       <c r="P41" s="5">
-        <f t="shared" si="0"/>
-        <v>242.55678281599938</v>
-      </c>
-      <c r="Q41" s="20">
-        <f>SUM(Q5,Q10,Q15,Q20,Q25)</f>
-        <v>85.346820045796107</v>
-      </c>
-      <c r="R41" s="35">
-        <f>SUM(R5,R10,R15,R20,R25)</f>
-        <v>0</v>
-      </c>
-      <c r="S41" s="35">
-        <f>SUM(S5,S10,S15,S20,S25)</f>
-        <v>117.73117485816346</v>
-      </c>
-      <c r="T41" s="35">
-        <f>SUM(T5,T10,T15,T20,T25)</f>
-        <v>0</v>
-      </c>
-      <c r="U41" s="35">
-        <f>SUM(U5,U10,U15,U20,U25)</f>
-        <v>58.948523236832685</v>
-      </c>
-      <c r="V41" s="35">
-        <f>SUM(V5,V10,V15,V20,V25)</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="35">
-        <f>SUM(W5,W10,W15,W20,W25)</f>
-        <v>0</v>
-      </c>
-      <c r="X41" s="35">
-        <f>SUM(X5,X10,X15,X20,X25)</f>
-        <v>-8.5702123477106831</v>
-      </c>
-      <c r="Y41" s="35">
-        <f>SUM(Y5,Y10,Y15,Y20,Y25)</f>
-        <v>0</v>
-      </c>
-      <c r="Z41" s="35">
-        <f>SUM(Z5,Z10,Z15,Z20,Z25)</f>
-        <v>0</v>
-      </c>
-      <c r="AA41" s="35">
-        <f>SUM(AA5,AA10,AA15,AA20,AA25)</f>
-        <v>0</v>
-      </c>
-      <c r="AB41" s="35">
-        <f>SUM(AB5,AB10,AB15,AB20,AB25)</f>
-        <v>0</v>
-      </c>
-      <c r="AC41" s="35">
-        <f>SUM(AC5,AC10,AC15,AC20,AC25)</f>
-        <v>0</v>
-      </c>
+        <f>Emissions!$F$3</f>
+        <v>-54.3</v>
+      </c>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="35"/>
       <c r="AD41" s="5">
-        <f t="shared" si="1"/>
-        <v>253.45630579308155</v>
+        <f>Emissions!$F$3</f>
+        <v>-54.3</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="20"/>
       <c r="B42" s="5">
+        <v>2050</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="5">
+        <f>Emissions!$F$3</f>
+        <v>-54.3</v>
+      </c>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="5">
+        <f>Emissions!$F$3</f>
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="35">
+        <v>2010</v>
+      </c>
+      <c r="C43" s="20">
+        <f>SUM(C3,C8,C13,C18,C23,C28,C33,C38)</f>
+        <v>427.80427776692568</v>
+      </c>
+      <c r="D43" s="35">
+        <f t="shared" ref="D43:AD43" si="10">SUM(D3,D8,D13,D18,D23,D28,D33,D38)</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="35">
+        <f t="shared" si="10"/>
+        <v>444.43031598097127</v>
+      </c>
+      <c r="F43" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="35">
+        <f t="shared" si="10"/>
+        <v>176.91658111172131</v>
+      </c>
+      <c r="H43" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="35">
+        <f t="shared" si="10"/>
+        <v>-16.262534753254329</v>
+      </c>
+      <c r="K43" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="5">
+        <f t="shared" si="10"/>
+        <v>1036.8273838114005</v>
+      </c>
+      <c r="Q43" s="20">
+        <f t="shared" si="10"/>
+        <v>427.80427776692568</v>
+      </c>
+      <c r="R43" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="35">
+        <f t="shared" si="10"/>
+        <v>444.43031598097127</v>
+      </c>
+      <c r="T43" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="35">
+        <f t="shared" si="10"/>
+        <v>176.91658111172131</v>
+      </c>
+      <c r="V43" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="35">
+        <f t="shared" si="10"/>
+        <v>-16.262534753254329</v>
+      </c>
+      <c r="Y43" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD43" s="5">
+        <f>SUM(AD3,AD8,AD13,AD18,AD23,AD28,AD33,AD38)</f>
+        <v>1036.8273838114005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="20"/>
+      <c r="B44" s="35">
+        <v>2020</v>
+      </c>
+      <c r="C44" s="20">
+        <f t="shared" ref="C44:AD44" si="11">SUM(C4,C9,C14,C19,C24,C29,C34,C39)</f>
+        <v>389.71453160765606</v>
+      </c>
+      <c r="D44" s="35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="35">
+        <f t="shared" si="11"/>
+        <v>350.63335158894984</v>
+      </c>
+      <c r="F44" s="35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="35">
+        <f t="shared" si="11"/>
+        <v>219.76356327988472</v>
+      </c>
+      <c r="H44" s="35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="35">
+        <f t="shared" si="11"/>
+        <v>-36.500777680667703</v>
+      </c>
+      <c r="K44" s="35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="5">
+        <f t="shared" si="11"/>
+        <v>926.38844580375371</v>
+      </c>
+      <c r="Q44" s="20">
+        <f t="shared" si="11"/>
+        <v>389.71453160765606</v>
+      </c>
+      <c r="R44" s="35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="35">
+        <f t="shared" si="11"/>
+        <v>350.63335158894984</v>
+      </c>
+      <c r="T44" s="35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="35">
+        <f t="shared" si="11"/>
+        <v>219.76356327988472</v>
+      </c>
+      <c r="V44" s="35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X44" s="35">
+        <f t="shared" si="11"/>
+        <v>-36.500777680667703</v>
+      </c>
+      <c r="Y44" s="35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA44" s="35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB44" s="35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC44" s="35">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD44" s="5">
+        <f t="shared" si="11"/>
+        <v>926.38844580375371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="20"/>
+      <c r="B45" s="35">
+        <v>2030</v>
+      </c>
+      <c r="C45" s="20">
+        <f t="shared" ref="C45:AD45" si="12">SUM(C5,C10,C15,C20,C25,C30,C35,C40)</f>
+        <v>117.63833597565349</v>
+      </c>
+      <c r="D45" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="35">
+        <f t="shared" si="12"/>
+        <v>112.65759203308143</v>
+      </c>
+      <c r="F45" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="35">
+        <f t="shared" si="12"/>
+        <v>56.448997111920256</v>
+      </c>
+      <c r="H45" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="35">
+        <f t="shared" si="12"/>
+        <v>-8.2067169713223151</v>
+      </c>
+      <c r="K45" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="5">
+        <f t="shared" si="12"/>
+        <v>262.29005948795361</v>
+      </c>
+      <c r="Q45" s="20">
+        <f t="shared" si="12"/>
+        <v>121.32824537912958</v>
+      </c>
+      <c r="R45" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="35">
+        <f t="shared" si="12"/>
+        <v>117.73117485816346</v>
+      </c>
+      <c r="T45" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="35">
+        <f t="shared" si="12"/>
+        <v>58.948523236832685</v>
+      </c>
+      <c r="V45" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="35">
+        <f t="shared" si="12"/>
+        <v>-8.5702123477106831</v>
+      </c>
+      <c r="Y45" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA45" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB45" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC45" s="35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD45" s="5">
+        <f t="shared" si="12"/>
+        <v>273.18958246503581</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="20"/>
+      <c r="B46" s="35">
         <v>2040</v>
       </c>
-      <c r="C42" s="20">
-        <f t="shared" ref="C42:P42" si="5">SUM(C6,C11,C16,C21,C26)</f>
-        <v>8.1292085650542294</v>
-      </c>
-      <c r="D42" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="35">
-        <f t="shared" si="5"/>
+      <c r="C46" s="20">
+        <f t="shared" ref="C46:AD46" si="13">SUM(C6,C11,C16,C21,C26,C31,C36,C41)</f>
+        <v>26.119921231720966</v>
+      </c>
+      <c r="D46" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="35">
+        <f t="shared" si="13"/>
         <v>17.710963023302746</v>
       </c>
-      <c r="F42" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="35">
-        <f t="shared" si="5"/>
+      <c r="F46" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="35">
+        <f t="shared" si="13"/>
         <v>6.4750971056352196</v>
       </c>
-      <c r="H42" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="35">
-        <f t="shared" si="5"/>
+      <c r="H46" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="35">
+        <f t="shared" si="13"/>
         <v>-0.68365680928634942</v>
       </c>
-      <c r="K42" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="5">
-        <f t="shared" si="0"/>
-        <v>31.631611884705844</v>
-      </c>
-      <c r="Q42" s="20">
-        <f>SUM(Q6,Q11,Q16,Q21,Q26)</f>
-        <v>9.3112539534234369</v>
-      </c>
-      <c r="R42" s="35">
-        <f>SUM(R6,R11,R16,R21,R26)</f>
-        <v>0</v>
-      </c>
-      <c r="S42" s="35">
-        <f>SUM(S6,S11,S16,S21,S26)</f>
+      <c r="K46" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="5">
+        <f t="shared" si="13"/>
+        <v>14.348250220682573</v>
+      </c>
+      <c r="Q46" s="20">
+        <f t="shared" si="13"/>
+        <v>27.301966620090173</v>
+      </c>
+      <c r="R46" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="35">
+        <f t="shared" si="13"/>
         <v>20.173382605795936</v>
       </c>
-      <c r="T42" s="35">
-        <f>SUM(T6,T11,T16,T21,T26)</f>
-        <v>0</v>
-      </c>
-      <c r="U42" s="35">
-        <f>SUM(U6,U11,U16,U21,U26)</f>
+      <c r="T46" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="35">
+        <f t="shared" si="13"/>
         <v>7.3288353434095903</v>
       </c>
-      <c r="V42" s="35">
-        <f>SUM(V6,V11,V16,V21,V26)</f>
-        <v>0</v>
-      </c>
-      <c r="W42" s="35">
-        <f>SUM(W6,W11,W16,W21,W26)</f>
-        <v>0</v>
-      </c>
-      <c r="X42" s="35">
-        <f>SUM(X6,X11,X16,X21,X26)</f>
+      <c r="V46" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="35">
+        <f t="shared" si="13"/>
         <v>-0.77391630687245316</v>
       </c>
-      <c r="Y42" s="35">
-        <f>SUM(Y6,Y11,Y16,Y21,Y26)</f>
-        <v>0</v>
-      </c>
-      <c r="Z42" s="35">
-        <f>SUM(Z6,Z11,Z16,Z21,Z26)</f>
-        <v>0</v>
-      </c>
-      <c r="AA42" s="35">
-        <f>SUM(AA6,AA11,AA16,AA21,AA26)</f>
-        <v>0</v>
-      </c>
-      <c r="AB42" s="35">
-        <f>SUM(AB6,AB11,AB16,AB21,AB26)</f>
-        <v>0</v>
-      </c>
-      <c r="AC42" s="35">
-        <f>SUM(AC6,AC11,AC16,AC21,AC26)</f>
-        <v>0</v>
-      </c>
-      <c r="AD42" s="5">
-        <f t="shared" si="1"/>
-        <v>36.039555595756511</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="18"/>
-      <c r="B43" s="14">
+      <c r="Y46" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA46" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB46" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC46" s="35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD46" s="5">
+        <f t="shared" si="13"/>
+        <v>18.756193931733222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="18"/>
+      <c r="B47" s="12">
         <v>2050</v>
       </c>
-      <c r="C43" s="18">
-        <f t="shared" ref="C43:P43" si="6">SUM(C7,C12,C17,C22,C27)</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="18">
-        <f>SUM(Q7,Q12,Q17,Q22,Q27)</f>
-        <v>0</v>
-      </c>
-      <c r="R43" s="12">
-        <f t="shared" ref="R43:AC43" si="7">SUM(R7,R12,R17,R22,R27)</f>
-        <v>0</v>
-      </c>
-      <c r="S43" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T43" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V43" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W43" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X43" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z43" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA43" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB43" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AC43" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD43" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C47" s="18">
+        <f t="shared" ref="C47:AD47" si="14">SUM(C7,C12,C17,C22,C27,C32,C37,C42)</f>
+        <v>5.0835487462211279E-13</v>
+      </c>
+      <c r="D47" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="14">
+        <f t="shared" si="14"/>
+        <v>-54.299999999999486</v>
+      </c>
+      <c r="Q47" s="18">
+        <f t="shared" si="14"/>
+        <v>5.0835487462211279E-13</v>
+      </c>
+      <c r="R47" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W47" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X47" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB47" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC47" s="12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD47" s="14">
+        <f t="shared" si="14"/>
+        <v>-54.299999999999486</v>
       </c>
     </row>
   </sheetData>
@@ -23313,8 +24202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC3C506-0CAE-420D-9102-F4E7E5F88D99}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -23672,7 +24561,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -26379,7 +27268,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/xlsx/model.xlsx
+++ b/xlsx/model.xlsx
@@ -8,31 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\TA_model\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CF4300-93D3-4FA7-B77F-BE572346E151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26E0B6C-2D79-414D-8272-731877B9FE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21540" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
+    <workbookView xWindow="-21540" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{BCC5EA96-140E-4D1F-AEAE-F8AA11DA45EB}"/>
   </bookViews>
   <sheets>
     <sheet name="シナリオ" sheetId="1" r:id="rId1"/>
     <sheet name="最終エネルギー消費" sheetId="9" r:id="rId2"/>
     <sheet name="発電電力量" sheetId="10" r:id="rId3"/>
     <sheet name="一次エネルギー供給" sheetId="11" r:id="rId4"/>
-    <sheet name="部門別CO2排出量" sheetId="12" r:id="rId5"/>
-    <sheet name="COMFLOOR" sheetId="31" r:id="rId6"/>
-    <sheet name="GDP・POP" sheetId="30" r:id="rId7"/>
-    <sheet name="Intensity" sheetId="32" r:id="rId8"/>
-    <sheet name="Consumption(EJyr)" sheetId="49" r:id="rId9"/>
-    <sheet name="LOSS" sheetId="36" r:id="rId10"/>
-    <sheet name="sIND" sheetId="50" r:id="rId11"/>
-    <sheet name="sTRA" sheetId="51" r:id="rId12"/>
-    <sheet name="sCOM" sheetId="52" r:id="rId13"/>
-    <sheet name="sRES" sheetId="53" r:id="rId14"/>
-    <sheet name="sELE" sheetId="54" r:id="rId15"/>
-    <sheet name="eELE" sheetId="42" r:id="rId16"/>
-    <sheet name="EMF" sheetId="43" r:id="rId17"/>
-    <sheet name="Emissions_intensity" sheetId="57" r:id="rId18"/>
-    <sheet name="Emissions" sheetId="44" r:id="rId19"/>
-    <sheet name="IND_BF" sheetId="47" r:id="rId20"/>
+    <sheet name="部門別CO2排出量_表" sheetId="59" r:id="rId5"/>
+    <sheet name="部門別CO2排出量" sheetId="12" r:id="rId6"/>
+    <sheet name="COMFLOOR" sheetId="31" r:id="rId7"/>
+    <sheet name="GDP・POP" sheetId="30" r:id="rId8"/>
+    <sheet name="Intensity" sheetId="32" r:id="rId9"/>
+    <sheet name="Consumption(EJyr)" sheetId="49" r:id="rId10"/>
+    <sheet name="LOSS" sheetId="36" r:id="rId11"/>
+    <sheet name="sIND" sheetId="50" r:id="rId12"/>
+    <sheet name="sTRA" sheetId="51" r:id="rId13"/>
+    <sheet name="sCOM" sheetId="52" r:id="rId14"/>
+    <sheet name="sRES" sheetId="53" r:id="rId15"/>
+    <sheet name="sELE" sheetId="54" r:id="rId16"/>
+    <sheet name="eELE" sheetId="42" r:id="rId17"/>
+    <sheet name="EMF" sheetId="43" r:id="rId18"/>
+    <sheet name="Emissions_intensity" sheetId="57" r:id="rId19"/>
+    <sheet name="Emissions" sheetId="44" r:id="rId20"/>
+    <sheet name="IND_BF" sheetId="47" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="81">
   <si>
     <t>シナリオ1</t>
     <phoneticPr fontId="1"/>
@@ -423,6 +424,16 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>2050
+シナリオ1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2050
+シナリオ2</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -658,7 +669,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,6 +814,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1791,6 +1811,1912 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9D3627-AF3F-4743-A4A8-7979E2664556}">
+  <dimension ref="A1:K42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12.4140625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="11" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="34" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="26">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <f>GDP・POP!C2*Intensity!B2/10^6</f>
+        <v>3.8323569999999987</v>
+      </c>
+      <c r="C2">
+        <f>GDP・POP!D2*Intensity!C2/10^6</f>
+        <v>3.8323569999999987</v>
+      </c>
+      <c r="D2">
+        <f>GDP・POP!G2*Intensity!D2/10^6</f>
+        <v>3.2924740000000092</v>
+      </c>
+      <c r="E2">
+        <f>GDP・POP!H2*Intensity!E2/10^6</f>
+        <v>3.2924740000000092</v>
+      </c>
+      <c r="F2">
+        <f>GDP・POP!C2*COMFLOOR!$B2*Intensity!F2/10^6</f>
+        <v>2.2019719999999978</v>
+      </c>
+      <c r="G2">
+        <f>GDP・POP!D2*COMFLOOR!$B2*Intensity!G2/10^6</f>
+        <v>2.2019719999999978</v>
+      </c>
+      <c r="H2">
+        <f>GDP・POP!G2*Intensity!H2/10^6</f>
+        <v>2.0901920000000063</v>
+      </c>
+      <c r="I2">
+        <f>GDP・POP!H2*Intensity!I2/10^6</f>
+        <v>2.0901920000000063</v>
+      </c>
+      <c r="J2">
+        <f>SUM(B2,D2,F2,H2)</f>
+        <v>11.416995000000011</v>
+      </c>
+      <c r="K2">
+        <f>SUM(C2,E2,G2,I2)</f>
+        <v>11.416995000000011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="26">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <f>GDP・POP!C3*Intensity!B3/10^6</f>
+        <v>3.8506600000000013</v>
+      </c>
+      <c r="C3">
+        <f>GDP・POP!D3*Intensity!C3/10^6</f>
+        <v>3.8506600000000013</v>
+      </c>
+      <c r="D3">
+        <f>GDP・POP!G3*Intensity!D3/10^6</f>
+        <v>3.2119450000000063</v>
+      </c>
+      <c r="E3">
+        <f>GDP・POP!H3*Intensity!E3/10^6</f>
+        <v>3.2119450000000063</v>
+      </c>
+      <c r="F3">
+        <f>GDP・POP!C3*COMFLOOR!$B3*Intensity!F3/10^6</f>
+        <v>2.1886420000000029</v>
+      </c>
+      <c r="G3">
+        <f>GDP・POP!D3*COMFLOOR!$B3*Intensity!G3/10^6</f>
+        <v>2.1886420000000029</v>
+      </c>
+      <c r="H3">
+        <f>GDP・POP!G3*Intensity!H3/10^6</f>
+        <v>2.0092050000000072</v>
+      </c>
+      <c r="I3">
+        <f>GDP・POP!H3*Intensity!I3/10^6</f>
+        <v>2.0092050000000072</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J42" si="0">SUM(B3,D3,F3,H3)</f>
+        <v>11.260452000000017</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K42" si="1">SUM(C3,E3,G3,I3)</f>
+        <v>11.260452000000017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="26">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <f>GDP・POP!C4*Intensity!B4/10^6</f>
+        <v>3.7769820000000056</v>
+      </c>
+      <c r="C4">
+        <f>GDP・POP!D4*Intensity!C4/10^6</f>
+        <v>3.7769820000000056</v>
+      </c>
+      <c r="D4">
+        <f>GDP・POP!G4*Intensity!D4/10^6</f>
+        <v>3.1784780000000028</v>
+      </c>
+      <c r="E4">
+        <f>GDP・POP!H4*Intensity!E4/10^6</f>
+        <v>3.1784780000000028</v>
+      </c>
+      <c r="F4">
+        <f>GDP・POP!C4*COMFLOOR!$B4*Intensity!F4/10^6</f>
+        <v>2.1012579999999956</v>
+      </c>
+      <c r="G4">
+        <f>GDP・POP!D4*COMFLOOR!$B4*Intensity!G4/10^6</f>
+        <v>2.1012579999999956</v>
+      </c>
+      <c r="H4">
+        <f>GDP・POP!G4*Intensity!H4/10^6</f>
+        <v>2.0301499999999999</v>
+      </c>
+      <c r="I4">
+        <f>GDP・POP!H4*Intensity!I4/10^6</f>
+        <v>2.0301499999999999</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>11.086868000000003</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>11.086868000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="26">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <f>GDP・POP!C5*Intensity!B5/10^6</f>
+        <v>3.7794760000000003</v>
+      </c>
+      <c r="C5">
+        <f>GDP・POP!D5*Intensity!C5/10^6</f>
+        <v>3.7794760000000003</v>
+      </c>
+      <c r="D5">
+        <f>GDP・POP!G5*Intensity!D5/10^6</f>
+        <v>3.1417440000000023</v>
+      </c>
+      <c r="E5">
+        <f>GDP・POP!H5*Intensity!E5/10^6</f>
+        <v>3.1417440000000023</v>
+      </c>
+      <c r="F5">
+        <f>GDP・POP!C5*COMFLOOR!$B5*Intensity!F5/10^6</f>
+        <v>2.2138839999999984</v>
+      </c>
+      <c r="G5">
+        <f>GDP・POP!D5*COMFLOOR!$B5*Intensity!G5/10^6</f>
+        <v>2.2138839999999984</v>
+      </c>
+      <c r="H5">
+        <f>GDP・POP!G5*Intensity!H5/10^6</f>
+        <v>1.9773710000000002</v>
+      </c>
+      <c r="I5">
+        <f>GDP・POP!H5*Intensity!I5/10^6</f>
+        <v>1.9773710000000002</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>11.112475000000002</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>11.112475000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="26">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <f>GDP・POP!C6*Intensity!B6/10^6</f>
+        <v>3.6701079999999977</v>
+      </c>
+      <c r="C6">
+        <f>GDP・POP!D6*Intensity!C6/10^6</f>
+        <v>3.6701079999999977</v>
+      </c>
+      <c r="D6">
+        <f>GDP・POP!G6*Intensity!D6/10^6</f>
+        <v>3.0556950000000112</v>
+      </c>
+      <c r="E6">
+        <f>GDP・POP!H6*Intensity!E6/10^6</f>
+        <v>3.0556950000000112</v>
+      </c>
+      <c r="F6">
+        <f>GDP・POP!C6*COMFLOOR!$B6*Intensity!F6/10^6</f>
+        <v>2.1838600000000081</v>
+      </c>
+      <c r="G6">
+        <f>GDP・POP!D6*COMFLOOR!$B6*Intensity!G6/10^6</f>
+        <v>2.1838600000000081</v>
+      </c>
+      <c r="H6">
+        <f>GDP・POP!G6*Intensity!H6/10^6</f>
+        <v>1.8973770000000076</v>
+      </c>
+      <c r="I6">
+        <f>GDP・POP!H6*Intensity!I6/10^6</f>
+        <v>1.8973770000000076</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>10.807040000000024</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>10.807040000000024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="26">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <f>GDP・POP!C7*Intensity!B7/10^6</f>
+        <v>3.5400980000000031</v>
+      </c>
+      <c r="C7">
+        <f>GDP・POP!D7*Intensity!C7/10^6</f>
+        <v>3.5400980000000031</v>
+      </c>
+      <c r="D7">
+        <f>GDP・POP!G7*Intensity!D7/10^6</f>
+        <v>3.0490900000000005</v>
+      </c>
+      <c r="E7">
+        <f>GDP・POP!H7*Intensity!E7/10^6</f>
+        <v>3.0490900000000005</v>
+      </c>
+      <c r="F7">
+        <f>GDP・POP!C7*COMFLOOR!$B7*Intensity!F7/10^6</f>
+        <v>2.1162230000000064</v>
+      </c>
+      <c r="G7">
+        <f>GDP・POP!D7*COMFLOOR!$B7*Intensity!G7/10^6</f>
+        <v>2.1162230000000064</v>
+      </c>
+      <c r="H7">
+        <f>GDP・POP!G7*Intensity!H7/10^6</f>
+        <v>1.8469099999999961</v>
+      </c>
+      <c r="I7">
+        <f>GDP・POP!H7*Intensity!I7/10^6</f>
+        <v>1.8469099999999961</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>10.552321000000006</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>10.552321000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="26">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <f>GDP・POP!C8*Intensity!B8/10^6</f>
+        <v>3.464630000000001</v>
+      </c>
+      <c r="C8">
+        <f>GDP・POP!D8*Intensity!C8/10^6</f>
+        <v>3.464630000000001</v>
+      </c>
+      <c r="D8">
+        <f>GDP・POP!G8*Intensity!D8/10^6</f>
+        <v>3.0160219999999978</v>
+      </c>
+      <c r="E8">
+        <f>GDP・POP!H8*Intensity!E8/10^6</f>
+        <v>3.0160219999999978</v>
+      </c>
+      <c r="F8">
+        <f>GDP・POP!C8*COMFLOOR!$B8*Intensity!F8/10^6</f>
+        <v>2.070034999999995</v>
+      </c>
+      <c r="G8">
+        <f>GDP・POP!D8*COMFLOOR!$B8*Intensity!G8/10^6</f>
+        <v>2.070034999999995</v>
+      </c>
+      <c r="H8">
+        <f>GDP・POP!G8*Intensity!H8/10^6</f>
+        <v>1.8485910000000054</v>
+      </c>
+      <c r="I8">
+        <f>GDP・POP!H8*Intensity!I8/10^6</f>
+        <v>1.8485910000000054</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>10.399278000000001</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>10.399278000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="26">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <f>GDP・POP!C9*Intensity!B9/10^6</f>
+        <v>3.4728230000000004</v>
+      </c>
+      <c r="C9">
+        <f>GDP・POP!D9*Intensity!C9/10^6</f>
+        <v>3.4728230000000004</v>
+      </c>
+      <c r="D9">
+        <f>GDP・POP!G9*Intensity!D9/10^6</f>
+        <v>2.9910649999999914</v>
+      </c>
+      <c r="E9">
+        <f>GDP・POP!H9*Intensity!E9/10^6</f>
+        <v>2.9910649999999914</v>
+      </c>
+      <c r="F9">
+        <f>GDP・POP!C9*COMFLOOR!$B9*Intensity!F9/10^6</f>
+        <v>2.1050319999999938</v>
+      </c>
+      <c r="G9">
+        <f>GDP・POP!D9*COMFLOOR!$B9*Intensity!G9/10^6</f>
+        <v>2.1050319999999938</v>
+      </c>
+      <c r="H9">
+        <f>GDP・POP!G9*Intensity!H9/10^6</f>
+        <v>1.9255359999999992</v>
+      </c>
+      <c r="I9">
+        <f>GDP・POP!H9*Intensity!I9/10^6</f>
+        <v>1.9255359999999992</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>10.494455999999985</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>10.494455999999985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="26">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <f>GDP・POP!C10*Intensity!B10/10^6</f>
+        <v>3.4914290000000019</v>
+      </c>
+      <c r="C10">
+        <f>GDP・POP!D10*Intensity!C10/10^6</f>
+        <v>3.4914290000000019</v>
+      </c>
+      <c r="D10">
+        <f>GDP・POP!G10*Intensity!D10/10^6</f>
+        <v>2.9540929999999888</v>
+      </c>
+      <c r="E10">
+        <f>GDP・POP!H10*Intensity!E10/10^6</f>
+        <v>2.9540929999999888</v>
+      </c>
+      <c r="F10">
+        <f>GDP・POP!C10*COMFLOOR!$B10*Intensity!F10/10^6</f>
+        <v>2.1086090000000088</v>
+      </c>
+      <c r="G10">
+        <f>GDP・POP!D10*COMFLOOR!$B10*Intensity!G10/10^6</f>
+        <v>2.1086090000000088</v>
+      </c>
+      <c r="H10">
+        <f>GDP・POP!G10*Intensity!H10/10^6</f>
+        <v>1.7760959999999926</v>
+      </c>
+      <c r="I10">
+        <f>GDP・POP!H10*Intensity!I10/10^6</f>
+        <v>1.7760959999999926</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>10.330226999999992</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>10.330226999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="26">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <f>GDP・POP!C11*Intensity!B11/10^6</f>
+        <v>3.3643169999999993</v>
+      </c>
+      <c r="C11">
+        <f>GDP・POP!D11*Intensity!C11/10^6</f>
+        <v>3.3643169999999993</v>
+      </c>
+      <c r="D11">
+        <f>GDP・POP!G11*Intensity!D11/10^6</f>
+        <v>2.893835000000009</v>
+      </c>
+      <c r="E11">
+        <f>GDP・POP!H11*Intensity!E11/10^6</f>
+        <v>2.893835000000009</v>
+      </c>
+      <c r="F11">
+        <f>GDP・POP!C11*COMFLOOR!$B11*Intensity!F11/10^6</f>
+        <v>2.0647980000000006</v>
+      </c>
+      <c r="G11">
+        <f>GDP・POP!D11*COMFLOOR!$B11*Intensity!G11/10^6</f>
+        <v>2.0647980000000006</v>
+      </c>
+      <c r="H11">
+        <f>GDP・POP!G11*Intensity!H11/10^6</f>
+        <v>1.7600590000000043</v>
+      </c>
+      <c r="I11">
+        <f>GDP・POP!H11*Intensity!I11/10^6</f>
+        <v>1.7600590000000043</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>10.083009000000013</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>10.083009000000013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="26">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <f>GDP・POP!C12*Intensity!B12/10^6</f>
+        <v>3.1464160000000025</v>
+      </c>
+      <c r="C12">
+        <f>GDP・POP!D12*Intensity!C12/10^6</f>
+        <v>3.1464160000000025</v>
+      </c>
+      <c r="D12">
+        <f>GDP・POP!G12*Intensity!D12/10^6</f>
+        <v>2.6152400000000067</v>
+      </c>
+      <c r="E12">
+        <f>GDP・POP!H12*Intensity!E12/10^6</f>
+        <v>2.6152400000000067</v>
+      </c>
+      <c r="F12">
+        <f>GDP・POP!C12*COMFLOOR!$B12*Intensity!F12/10^6</f>
+        <v>1.9469699999999954</v>
+      </c>
+      <c r="G12">
+        <f>GDP・POP!D12*COMFLOOR!$B12*Intensity!G12/10^6</f>
+        <v>1.9469699999999954</v>
+      </c>
+      <c r="H12">
+        <f>GDP・POP!G12*Intensity!H12/10^6</f>
+        <v>1.8437559999999997</v>
+      </c>
+      <c r="I12">
+        <f>GDP・POP!H12*Intensity!I12/10^6</f>
+        <v>1.8437559999999997</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>9.5523820000000033</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>9.5523820000000033</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="26">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <f>GDP・POP!C13*Intensity!B13/10^6</f>
+        <v>3.170649993317165</v>
+      </c>
+      <c r="C13">
+        <f>GDP・POP!D13*Intensity!C13/10^6</f>
+        <v>3.1495123266950529</v>
+      </c>
+      <c r="D13">
+        <f>GDP・POP!G13*Intensity!D13/10^6</f>
+        <v>2.6039225075712045</v>
+      </c>
+      <c r="E13">
+        <f>GDP・POP!H13*Intensity!E13/10^6</f>
+        <v>2.5865630241873987</v>
+      </c>
+      <c r="F13">
+        <f>GDP・POP!C13*COMFLOOR!$B13*Intensity!F13/10^6</f>
+        <v>1.9681344850040998</v>
+      </c>
+      <c r="G13">
+        <f>GDP・POP!D13*COMFLOOR!$B13*Intensity!G13/10^6</f>
+        <v>1.9550135884374074</v>
+      </c>
+      <c r="H13">
+        <f>GDP・POP!G13*Intensity!H13/10^6</f>
+        <v>1.8357771167730079</v>
+      </c>
+      <c r="I13">
+        <f>GDP・POP!H13*Intensity!I13/10^6</f>
+        <v>1.8235386026611895</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>9.5784841026654775</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>9.5146275419810493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="26">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <f>GDP・POP!C14*Intensity!B14/10^6</f>
+        <v>3.1948839866343359</v>
+      </c>
+      <c r="C14">
+        <f>GDP・POP!D14*Intensity!C14/10^6</f>
+        <v>3.1522855334792159</v>
+      </c>
+      <c r="D14">
+        <f>GDP・POP!G14*Intensity!D14/10^6</f>
+        <v>2.5926050151424032</v>
+      </c>
+      <c r="E14">
+        <f>GDP・POP!H14*Intensity!E14/10^6</f>
+        <v>2.5580369482738412</v>
+      </c>
+      <c r="F14">
+        <f>GDP・POP!C14*COMFLOOR!$B14*Intensity!F14/10^6</f>
+        <v>1.9894973181786819</v>
+      </c>
+      <c r="G14">
+        <f>GDP・POP!D14*COMFLOOR!$B14*Intensity!G14/10^6</f>
+        <v>1.9629706872696355</v>
+      </c>
+      <c r="H14">
+        <f>GDP・POP!G14*Intensity!H14/10^6</f>
+        <v>1.8277982335460166</v>
+      </c>
+      <c r="I14">
+        <f>GDP・POP!H14*Intensity!I14/10^6</f>
+        <v>1.8034275904320722</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>9.6047845535014371</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>9.4767207594547642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="26">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <f>GDP・POP!C15*Intensity!B15/10^6</f>
+        <v>3.2191179799514993</v>
+      </c>
+      <c r="C15">
+        <f>GDP・POP!D15*Intensity!C15/10^6</f>
+        <v>3.1547356203524708</v>
+      </c>
+      <c r="D15">
+        <f>GDP・POP!G15*Intensity!D15/10^6</f>
+        <v>2.5812875227136063</v>
+      </c>
+      <c r="E15">
+        <f>GDP・POP!H15*Intensity!E15/10^6</f>
+        <v>2.5296617722593351</v>
+      </c>
+      <c r="F15">
+        <f>GDP・POP!C15*COMFLOOR!$B15*Intensity!F15/10^6</f>
+        <v>2.0110636899511904</v>
+      </c>
+      <c r="G15">
+        <f>GDP・POP!D15*COMFLOOR!$B15*Intensity!G15/10^6</f>
+        <v>1.9708424161521672</v>
+      </c>
+      <c r="H15">
+        <f>GDP・POP!G15*Intensity!H15/10^6</f>
+        <v>1.8198193503190283</v>
+      </c>
+      <c r="I15">
+        <f>GDP・POP!H15*Intensity!I15/10^6</f>
+        <v>1.7834229633126484</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>9.6312885429353248</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>9.4386627720766221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="26">
+        <v>2024</v>
+      </c>
+      <c r="B16">
+        <f>GDP・POP!C16*Intensity!B16/10^6</f>
+        <v>3.2433519732686706</v>
+      </c>
+      <c r="C16">
+        <f>GDP・POP!D16*Intensity!C16/10^6</f>
+        <v>3.1568625873148428</v>
+      </c>
+      <c r="D16">
+        <f>GDP・POP!G16*Intensity!D16/10^6</f>
+        <v>2.5699700302848041</v>
+      </c>
+      <c r="E16">
+        <f>GDP・POP!H16*Intensity!E16/10^6</f>
+        <v>2.5014374961438794</v>
+      </c>
+      <c r="F16">
+        <f>GDP・POP!C16*COMFLOOR!$B16*Intensity!F16/10^6</f>
+        <v>2.0328388819789955</v>
+      </c>
+      <c r="G16">
+        <f>GDP・POP!D16*COMFLOOR!$B16*Intensity!G16/10^6</f>
+        <v>1.9786298451262245</v>
+      </c>
+      <c r="H16">
+        <f>GDP・POP!G16*Intensity!H16/10^6</f>
+        <v>1.8118404670920367</v>
+      </c>
+      <c r="I16">
+        <f>GDP・POP!H16*Intensity!I16/10^6</f>
+        <v>1.7635247213029177</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>9.6580013526245079</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>9.4004546498878643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="26">
+        <v>2025</v>
+      </c>
+      <c r="B17">
+        <f>GDP・POP!C17*Intensity!B17/10^6</f>
+        <v>3.2675859665858336</v>
+      </c>
+      <c r="C17">
+        <f>GDP・POP!D17*Intensity!C17/10^6</f>
+        <v>3.1586664343663062</v>
+      </c>
+      <c r="D17">
+        <f>GDP・POP!G17*Intensity!D17/10^6</f>
+        <v>2.5586525378560081</v>
+      </c>
+      <c r="E17">
+        <f>GDP・POP!H17*Intensity!E17/10^6</f>
+        <v>2.4733641199274743</v>
+      </c>
+      <c r="F17">
+        <f>GDP・POP!C17*COMFLOOR!$B17*Intensity!F17/10^6</f>
+        <v>2.0548282852103696</v>
+      </c>
+      <c r="G17">
+        <f>GDP・POP!D17*COMFLOOR!$B17*Intensity!G17/10^6</f>
+        <v>1.986334009036691</v>
+      </c>
+      <c r="H17">
+        <f>GDP・POP!G17*Intensity!H17/10^6</f>
+        <v>1.8038615838650487</v>
+      </c>
+      <c r="I17">
+        <f>GDP・POP!H17*Intensity!I17/10^6</f>
+        <v>1.7437328644028804</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>9.6849283735172591</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>9.3620974277333531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="26">
+        <v>2026</v>
+      </c>
+      <c r="B18">
+        <f>GDP・POP!C18*Intensity!B18/10^6</f>
+        <v>3.2918199599030045</v>
+      </c>
+      <c r="C18">
+        <f>GDP・POP!D18*Intensity!C18/10^6</f>
+        <v>3.1601471615068877</v>
+      </c>
+      <c r="D18">
+        <f>GDP・POP!G18*Intensity!D18/10^6</f>
+        <v>2.5473350454272059</v>
+      </c>
+      <c r="E18">
+        <f>GDP・POP!H18*Intensity!E18/10^6</f>
+        <v>2.4454416436101201</v>
+      </c>
+      <c r="F18">
+        <f>GDP・POP!C18*COMFLOOR!$B18*Intensity!F18/10^6</f>
+        <v>2.0731922826857589</v>
+      </c>
+      <c r="G18">
+        <f>GDP・POP!D18*COMFLOOR!$B18*Intensity!G18/10^6</f>
+        <v>1.9902645913783303</v>
+      </c>
+      <c r="H18">
+        <f>GDP・POP!G18*Intensity!H18/10^6</f>
+        <v>1.7958827006380569</v>
+      </c>
+      <c r="I18">
+        <f>GDP・POP!H18*Intensity!I18/10^6</f>
+        <v>1.7240473926125361</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>9.7082299886540273</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>9.3199007891078747</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="26">
+        <v>2027</v>
+      </c>
+      <c r="B19">
+        <f>GDP・POP!C19*Intensity!B19/10^6</f>
+        <v>3.3160539532201683</v>
+      </c>
+      <c r="C19">
+        <f>GDP・POP!D19*Intensity!C19/10^6</f>
+        <v>3.1613047687365654</v>
+      </c>
+      <c r="D19">
+        <f>GDP・POP!G19*Intensity!D19/10^6</f>
+        <v>2.5360175529984095</v>
+      </c>
+      <c r="E19">
+        <f>GDP・POP!H19*Intensity!E19/10^6</f>
+        <v>2.4176700671918208</v>
+      </c>
+      <c r="F19">
+        <f>GDP・POP!C19*COMFLOOR!$B19*Intensity!F19/10^6</f>
+        <v>2.0917222116669367</v>
+      </c>
+      <c r="G19">
+        <f>GDP・POP!D19*COMFLOOR!$B19*Intensity!G19/10^6</f>
+        <v>1.9941085084558159</v>
+      </c>
+      <c r="H19">
+        <f>GDP・POP!G19*Intensity!H19/10^6</f>
+        <v>1.7879038174110689</v>
+      </c>
+      <c r="I19">
+        <f>GDP・POP!H19*Intensity!I19/10^6</f>
+        <v>1.7044683059318886</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>9.7316975352965827</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>9.2775516503160915</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="26">
+        <v>2028</v>
+      </c>
+      <c r="B20">
+        <f>GDP・POP!C20*Intensity!B20/10^6</f>
+        <v>3.3402879465373392</v>
+      </c>
+      <c r="C20">
+        <f>GDP・POP!D20*Intensity!C20/10^6</f>
+        <v>3.1621392560553496</v>
+      </c>
+      <c r="D20">
+        <f>GDP・POP!G20*Intensity!D20/10^6</f>
+        <v>2.5247000605696077</v>
+      </c>
+      <c r="E20">
+        <f>GDP・POP!H20*Intensity!E20/10^6</f>
+        <v>2.3900493906725635</v>
+      </c>
+      <c r="F20">
+        <f>GDP・POP!C20*COMFLOOR!$B20*Intensity!F20/10^6</f>
+        <v>2.1104229696655463</v>
+      </c>
+      <c r="G20">
+        <f>GDP・POP!D20*COMFLOOR!$B20*Intensity!G20/10^6</f>
+        <v>1.9978670779500516</v>
+      </c>
+      <c r="H20">
+        <f>GDP・POP!G20*Intensity!H20/10^6</f>
+        <v>1.7799249341840773</v>
+      </c>
+      <c r="I20">
+        <f>GDP・POP!H20*Intensity!I20/10^6</f>
+        <v>1.6849956043609273</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>9.7553359109565694</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>9.2350513290388925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="26">
+        <v>2029</v>
+      </c>
+      <c r="B21">
+        <f>GDP・POP!C21*Intensity!B21/10^6</f>
+        <v>3.3645219398545025</v>
+      </c>
+      <c r="C21">
+        <f>GDP・POP!D21*Intensity!C21/10^6</f>
+        <v>3.1626506234632368</v>
+      </c>
+      <c r="D21">
+        <f>GDP・POP!G21*Intensity!D21/10^6</f>
+        <v>2.5133825681408113</v>
+      </c>
+      <c r="E21">
+        <f>GDP・POP!H21*Intensity!E21/10^6</f>
+        <v>2.3625796140523661</v>
+      </c>
+      <c r="F21">
+        <f>GDP・POP!C21*COMFLOOR!$B21*Intensity!F21/10^6</f>
+        <v>2.1292994950671424</v>
+      </c>
+      <c r="G21">
+        <f>GDP・POP!D21*COMFLOOR!$B21*Intensity!G21/10^6</f>
+        <v>2.0015415253631166</v>
+      </c>
+      <c r="H21">
+        <f>GDP・POP!G21*Intensity!H21/10^6</f>
+        <v>1.771946050957089</v>
+      </c>
+      <c r="I21">
+        <f>GDP・POP!H21*Intensity!I21/10^6</f>
+        <v>1.6656292878996659</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>9.7791500540195457</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>9.1924010507783844</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="26">
+        <v>2030</v>
+      </c>
+      <c r="B22">
+        <f>GDP・POP!C22*Intensity!B22/10^6</f>
+        <v>3.3887559331716739</v>
+      </c>
+      <c r="C22">
+        <f>GDP・POP!D22*Intensity!C22/10^6</f>
+        <v>3.1628388709602295</v>
+      </c>
+      <c r="D22">
+        <f>GDP・POP!G22*Intensity!D22/10^6</f>
+        <v>2.5020650757120095</v>
+      </c>
+      <c r="E22">
+        <f>GDP・POP!H22*Intensity!E22/10^6</f>
+        <v>2.3352607373312098</v>
+      </c>
+      <c r="F22">
+        <f>GDP・POP!C22*COMFLOOR!$B22*Intensity!F22/10^6</f>
+        <v>2.1483568362827805</v>
+      </c>
+      <c r="G22">
+        <f>GDP・POP!D22*COMFLOOR!$B22*Intensity!G22/10^6</f>
+        <v>2.0051330471972624</v>
+      </c>
+      <c r="H22">
+        <f>GDP・POP!G22*Intensity!H22/10^6</f>
+        <v>1.7639671677300974</v>
+      </c>
+      <c r="I22">
+        <f>GDP・POP!H22*Intensity!I22/10^6</f>
+        <v>1.6463693565480915</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>9.8031450128965609</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>9.1496020120367945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="26">
+        <v>2031</v>
+      </c>
+      <c r="B23">
+        <f>GDP・POP!C23*Intensity!B23/10^6</f>
+        <v>3.4129899264888368</v>
+      </c>
+      <c r="C23">
+        <f>GDP・POP!D23*Intensity!C23/10^6</f>
+        <v>3.1627039985463257</v>
+      </c>
+      <c r="D23">
+        <f>GDP・POP!G23*Intensity!D23/10^6</f>
+        <v>2.4907475832832127</v>
+      </c>
+      <c r="E23">
+        <f>GDP・POP!H23*Intensity!E23/10^6</f>
+        <v>2.3080927605091128</v>
+      </c>
+      <c r="F23">
+        <f>GDP・POP!C23*COMFLOOR!$B23*Intensity!F23/10^6</f>
+        <v>2.1613903104425449</v>
+      </c>
+      <c r="G23">
+        <f>GDP・POP!D23*COMFLOOR!$B23*Intensity!G23/10^6</f>
+        <v>2.002888354343427</v>
+      </c>
+      <c r="H23">
+        <f>GDP・POP!G23*Intensity!H23/10^6</f>
+        <v>1.7559882845031094</v>
+      </c>
+      <c r="I23">
+        <f>GDP・POP!H23*Intensity!I23/10^6</f>
+        <v>1.6272158103062164</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>9.8211161047177047</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>9.1009009237050833</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="26">
+        <v>2032</v>
+      </c>
+      <c r="B24">
+        <f>GDP・POP!C24*Intensity!B24/10^6</f>
+        <v>3.4372239198060002</v>
+      </c>
+      <c r="C24">
+        <f>GDP・POP!D24*Intensity!C24/10^6</f>
+        <v>3.1622460062215265</v>
+      </c>
+      <c r="D24">
+        <f>GDP・POP!G24*Intensity!D24/10^6</f>
+        <v>2.4794300908544109</v>
+      </c>
+      <c r="E24">
+        <f>GDP・POP!H24*Intensity!E24/10^6</f>
+        <v>2.2810756835860624</v>
+      </c>
+      <c r="F24">
+        <f>GDP・POP!C24*COMFLOOR!$B24*Intensity!F24/10^6</f>
+        <v>2.1745199712620864</v>
+      </c>
+      <c r="G24">
+        <f>GDP・POP!D24*COMFLOOR!$B24*Intensity!G24/10^6</f>
+        <v>2.0005583735611232</v>
+      </c>
+      <c r="H24">
+        <f>GDP・POP!G24*Intensity!H24/10^6</f>
+        <v>1.7480094012761176</v>
+      </c>
+      <c r="I24">
+        <f>GDP・POP!H24*Intensity!I24/10^6</f>
+        <v>1.6081686491740312</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>9.8391833831986144</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>9.052048712542744</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="26">
+        <v>2033</v>
+      </c>
+      <c r="B25">
+        <f>GDP・POP!C25*Intensity!B25/10^6</f>
+        <v>3.4614579131231715</v>
+      </c>
+      <c r="C25">
+        <f>GDP・POP!D25*Intensity!C25/10^6</f>
+        <v>3.1614648939858321</v>
+      </c>
+      <c r="D25">
+        <f>GDP・POP!G25*Intensity!D25/10^6</f>
+        <v>2.468112598425614</v>
+      </c>
+      <c r="E25">
+        <f>GDP・POP!H25*Intensity!E25/10^6</f>
+        <v>2.2542095065620629</v>
+      </c>
+      <c r="F25">
+        <f>GDP・POP!C25*COMFLOOR!$B25*Intensity!F25/10^6</f>
+        <v>2.1877495731471517</v>
+      </c>
+      <c r="G25">
+        <f>GDP・POP!D25*COMFLOOR!$B25*Intensity!G25/10^6</f>
+        <v>1.9981446101410669</v>
+      </c>
+      <c r="H25">
+        <f>GDP・POP!G25*Intensity!H25/10^6</f>
+        <v>1.7400305180491296</v>
+      </c>
+      <c r="I25">
+        <f>GDP・POP!H25*Intensity!I25/10^6</f>
+        <v>1.5892278731515397</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>9.8573506027450666</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>9.0030468838405007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="26">
+        <v>2034</v>
+      </c>
+      <c r="B26">
+        <f>GDP・POP!C26*Intensity!B26/10^6</f>
+        <v>3.4856919064403349</v>
+      </c>
+      <c r="C26">
+        <f>GDP・POP!D26*Intensity!C26/10^6</f>
+        <v>3.1603606618392419</v>
+      </c>
+      <c r="D26">
+        <f>GDP・POP!G26*Intensity!D26/10^6</f>
+        <v>2.4567951059968127</v>
+      </c>
+      <c r="E26">
+        <f>GDP・POP!H26*Intensity!E26/10^6</f>
+        <v>2.2274942294371134</v>
+      </c>
+      <c r="F26">
+        <f>GDP・POP!C26*COMFLOOR!$B26*Intensity!F26/10^6</f>
+        <v>2.2010829221577399</v>
+      </c>
+      <c r="G26">
+        <f>GDP・POP!D26*COMFLOOR!$B26*Intensity!G26/10^6</f>
+        <v>1.9956485160896873</v>
+      </c>
+      <c r="H26">
+        <f>GDP・POP!G26*Intensity!H26/10^6</f>
+        <v>1.732051634822138</v>
+      </c>
+      <c r="I26">
+        <f>GDP・POP!H26*Intensity!I26/10^6</f>
+        <v>1.5703934822387409</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>9.8756215694170262</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>8.953896889604783</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="26">
+        <v>2035</v>
+      </c>
+      <c r="B27">
+        <f>GDP・POP!C27*Intensity!B27/10^6</f>
+        <v>3.5099258997575058</v>
+      </c>
+      <c r="C27">
+        <f>GDP・POP!D27*Intensity!C27/10^6</f>
+        <v>3.1589333097817565</v>
+      </c>
+      <c r="D27">
+        <f>GDP・POP!G27*Intensity!D27/10^6</f>
+        <v>2.4454776135680159</v>
+      </c>
+      <c r="E27">
+        <f>GDP・POP!H27*Intensity!E27/10^6</f>
+        <v>2.2009298522112157</v>
+      </c>
+      <c r="F27">
+        <f>GDP・POP!C27*COMFLOOR!$B27*Intensity!F27/10^6</f>
+        <v>2.2145238404416152</v>
+      </c>
+      <c r="G27">
+        <f>GDP・POP!D27*COMFLOOR!$B27*Intensity!G27/10^6</f>
+        <v>1.993071456397455</v>
+      </c>
+      <c r="H27">
+        <f>GDP・POP!G27*Intensity!H27/10^6</f>
+        <v>1.7240727515951497</v>
+      </c>
+      <c r="I27">
+        <f>GDP・POP!H27*Intensity!I27/10^6</f>
+        <v>1.5516654764356355</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>9.8940001053622861</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>8.9046000948260637</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="26">
+        <v>2036</v>
+      </c>
+      <c r="B28">
+        <f>GDP・POP!C28*Intensity!B28/10^6</f>
+        <v>3.5341598930746696</v>
+      </c>
+      <c r="C28">
+        <f>GDP・POP!D28*Intensity!C28/10^6</f>
+        <v>3.1571828378133748</v>
+      </c>
+      <c r="D28">
+        <f>GDP・POP!G28*Intensity!D28/10^6</f>
+        <v>2.4341601211392145</v>
+      </c>
+      <c r="E28">
+        <f>GDP・POP!H28*Intensity!E28/10^6</f>
+        <v>2.1745163748843681</v>
+      </c>
+      <c r="F28">
+        <f>GDP・POP!C28*COMFLOOR!$B28*Intensity!F28/10^6</f>
+        <v>2.2227851871037387</v>
+      </c>
+      <c r="G28">
+        <f>GDP・POP!D28*COMFLOOR!$B28*Intensity!G28/10^6</f>
+        <v>1.9856881004793421</v>
+      </c>
+      <c r="H28">
+        <f>GDP・POP!G28*Intensity!H28/10^6</f>
+        <v>1.7160938683681581</v>
+      </c>
+      <c r="I28">
+        <f>GDP・POP!H28*Intensity!I28/10^6</f>
+        <v>1.5330438557422232</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>9.907199069685781</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>8.8504311689193074</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="26">
+        <v>2037</v>
+      </c>
+      <c r="B29">
+        <f>GDP・POP!C29*Intensity!B29/10^6</f>
+        <v>3.5583938863918401</v>
+      </c>
+      <c r="C29">
+        <f>GDP・POP!D29*Intensity!C29/10^6</f>
+        <v>3.1551092459341046</v>
+      </c>
+      <c r="D29">
+        <f>GDP・POP!G29*Intensity!D29/10^6</f>
+        <v>2.4228426287104177</v>
+      </c>
+      <c r="E29">
+        <f>GDP・POP!H29*Intensity!E29/10^6</f>
+        <v>2.1482537974565745</v>
+      </c>
+      <c r="F29">
+        <f>GDP・POP!C29*COMFLOOR!$B29*Intensity!F29/10^6</f>
+        <v>2.2311358042172991</v>
+      </c>
+      <c r="G29">
+        <f>GDP・POP!D29*COMFLOOR!$B29*Intensity!G29/10^6</f>
+        <v>1.9782737464060089</v>
+      </c>
+      <c r="H29">
+        <f>GDP・POP!G29*Intensity!H29/10^6</f>
+        <v>1.7081149851411699</v>
+      </c>
+      <c r="I29">
+        <f>GDP・POP!H29*Intensity!I29/10^6</f>
+        <v>1.5145286201585073</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>9.9204873044607265</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>8.7961654099551954</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="26">
+        <v>2038</v>
+      </c>
+      <c r="B30">
+        <f>GDP・POP!C30*Intensity!B30/10^6</f>
+        <v>3.5826278797090034</v>
+      </c>
+      <c r="C30">
+        <f>GDP・POP!D30*Intensity!C30/10^6</f>
+        <v>3.1527125341439262</v>
+      </c>
+      <c r="D30">
+        <f>GDP・POP!G30*Intensity!D30/10^6</f>
+        <v>2.4115251362816159</v>
+      </c>
+      <c r="E30">
+        <f>GDP・POP!H30*Intensity!E30/10^6</f>
+        <v>2.1221421199278239</v>
+      </c>
+      <c r="F30">
+        <f>GDP・POP!C30*COMFLOOR!$B30*Intensity!F30/10^6</f>
+        <v>2.2395793197393572</v>
+      </c>
+      <c r="G30">
+        <f>GDP・POP!D30*COMFLOOR!$B30*Intensity!G30/10^6</f>
+        <v>1.970829801370636</v>
+      </c>
+      <c r="H30">
+        <f>GDP・POP!G30*Intensity!H30/10^6</f>
+        <v>1.7001361019141785</v>
+      </c>
+      <c r="I30">
+        <f>GDP・POP!H30*Intensity!I30/10^6</f>
+        <v>1.4961197696844784</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>9.9338684376441559</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>8.7418042251268648</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="26">
+        <v>2039</v>
+      </c>
+      <c r="B31">
+        <f>GDP・POP!C31*Intensity!B31/10^6</f>
+        <v>3.6068618730261743</v>
+      </c>
+      <c r="C31">
+        <f>GDP・POP!D31*Intensity!C31/10^6</f>
+        <v>3.1499927024428644</v>
+      </c>
+      <c r="D31">
+        <f>GDP・POP!G31*Intensity!D31/10^6</f>
+        <v>2.400207643852819</v>
+      </c>
+      <c r="E31">
+        <f>GDP・POP!H31*Intensity!E31/10^6</f>
+        <v>2.0961813422981326</v>
+      </c>
+      <c r="F31">
+        <f>GDP・POP!C31*COMFLOOR!$B31*Intensity!F31/10^6</f>
+        <v>2.2481194377892306</v>
+      </c>
+      <c r="G31">
+        <f>GDP・POP!D31*COMFLOOR!$B31*Intensity!G31/10^6</f>
+        <v>1.9633576423359314</v>
+      </c>
+      <c r="H31">
+        <f>GDP・POP!G31*Intensity!H31/10^6</f>
+        <v>1.6921572186871903</v>
+      </c>
+      <c r="I31">
+        <f>GDP・POP!H31*Intensity!I31/10^6</f>
+        <v>1.4778173043201486</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>9.9473461733554149</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>8.6873489913970765</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="26">
+        <v>2040</v>
+      </c>
+      <c r="B32">
+        <f>GDP・POP!C32*Intensity!B32/10^6</f>
+        <v>3.6310958663433381</v>
+      </c>
+      <c r="C32">
+        <f>GDP・POP!D32*Intensity!C32/10^6</f>
+        <v>3.146949750830895</v>
+      </c>
+      <c r="D32">
+        <f>GDP・POP!G32*Intensity!D32/10^6</f>
+        <v>2.3888901514240177</v>
+      </c>
+      <c r="E32">
+        <f>GDP・POP!H32*Intensity!E32/10^6</f>
+        <v>2.0703714645674833</v>
+      </c>
+      <c r="F32">
+        <f>GDP・POP!C32*COMFLOOR!$B32*Intensity!F32/10^6</f>
+        <v>2.2567598074058988</v>
+      </c>
+      <c r="G32">
+        <f>GDP・POP!D32*COMFLOOR!$B32*Intensity!G32/10^6</f>
+        <v>1.9558584997517801</v>
+      </c>
+      <c r="H32">
+        <f>GDP・POP!G32*Intensity!H32/10^6</f>
+        <v>1.6841783354601989</v>
+      </c>
+      <c r="I32">
+        <f>GDP・POP!H32*Intensity!I32/10^6</f>
+        <v>1.4596212240655064</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>9.9609241606334535</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>8.6328009392156648</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="26">
+        <v>2041</v>
+      </c>
+      <c r="B33">
+        <f>GDP・POP!C33*Intensity!B33/10^6</f>
+        <v>3.6553298596605091</v>
+      </c>
+      <c r="C33">
+        <f>GDP・POP!D33*Intensity!C33/10^6</f>
+        <v>3.1435836793080418</v>
+      </c>
+      <c r="D33">
+        <f>GDP・POP!G33*Intensity!D33/10^6</f>
+        <v>2.3775726589952209</v>
+      </c>
+      <c r="E33">
+        <f>GDP・POP!H33*Intensity!E33/10^6</f>
+        <v>2.044712486735893</v>
+      </c>
+      <c r="F33">
+        <f>GDP・POP!C33*COMFLOOR!$B33*Intensity!F33/10^6</f>
+        <v>2.271127296731108</v>
+      </c>
+      <c r="G33">
+        <f>GDP・POP!D33*COMFLOOR!$B33*Intensity!G33/10^6</f>
+        <v>1.9531694751887554</v>
+      </c>
+      <c r="H33">
+        <f>GDP・POP!G33*Intensity!H33/10^6</f>
+        <v>1.6761994522332107</v>
+      </c>
+      <c r="I33">
+        <f>GDP・POP!H33*Intensity!I33/10^6</f>
+        <v>1.4415315289205632</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>9.9802292676200484</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>8.5829971701532539</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="26">
+        <v>2042</v>
+      </c>
+      <c r="B34">
+        <f>GDP・POP!C34*Intensity!B34/10^6</f>
+        <v>3.6795638529776724</v>
+      </c>
+      <c r="C34">
+        <f>GDP・POP!D34*Intensity!C34/10^6</f>
+        <v>3.1398944878742809</v>
+      </c>
+      <c r="D34">
+        <f>GDP・POP!G34*Intensity!D34/10^6</f>
+        <v>2.3662551665664195</v>
+      </c>
+      <c r="E34">
+        <f>GDP・POP!H34*Intensity!E34/10^6</f>
+        <v>2.0192044088033447</v>
+      </c>
+      <c r="F34">
+        <f>GDP・POP!C34*COMFLOOR!$B34*Intensity!F34/10^6</f>
+        <v>2.2855822916015849</v>
+      </c>
+      <c r="G34">
+        <f>GDP・POP!D34*COMFLOOR!$B34*Intensity!G34/10^6</f>
+        <v>1.9503635555000196</v>
+      </c>
+      <c r="H34">
+        <f>GDP・POP!G34*Intensity!H34/10^6</f>
+        <v>1.6682205690062191</v>
+      </c>
+      <c r="I34">
+        <f>GDP・POP!H34*Intensity!I34/10^6</f>
+        <v>1.4235482188853072</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>9.9996218801518975</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>8.5330106710629519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="26">
+        <v>2043</v>
+      </c>
+      <c r="B35">
+        <f>GDP・POP!C35*Intensity!B35/10^6</f>
+        <v>3.7037978462948433</v>
+      </c>
+      <c r="C35">
+        <f>GDP・POP!D35*Intensity!C35/10^6</f>
+        <v>3.1358821765296376</v>
+      </c>
+      <c r="D35">
+        <f>GDP・POP!G35*Intensity!D35/10^6</f>
+        <v>2.3549376741376227</v>
+      </c>
+      <c r="E35">
+        <f>GDP・POP!H35*Intensity!E35/10^6</f>
+        <v>1.993847230769856</v>
+      </c>
+      <c r="F35">
+        <f>GDP・POP!C35*COMFLOOR!$B35*Intensity!F35/10^6</f>
+        <v>2.3001275966104466</v>
+      </c>
+      <c r="G35">
+        <f>GDP・POP!D35*COMFLOOR!$B35*Intensity!G35/10^6</f>
+        <v>1.9474413651301801</v>
+      </c>
+      <c r="H35">
+        <f>GDP・POP!G35*Intensity!H35/10^6</f>
+        <v>1.6602416857792308</v>
+      </c>
+      <c r="I35">
+        <f>GDP・POP!H35*Intensity!I35/10^6</f>
+        <v>1.4056712939597504</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>10.019104802822142</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>8.4828420663894235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="26">
+        <v>2044</v>
+      </c>
+      <c r="B36">
+        <f>GDP・POP!C36*Intensity!B36/10^6</f>
+        <v>3.7280318396120067</v>
+      </c>
+      <c r="C36">
+        <f>GDP・POP!D36*Intensity!C36/10^6</f>
+        <v>3.1315467452740915</v>
+      </c>
+      <c r="D36">
+        <f>GDP・POP!G36*Intensity!D36/10^6</f>
+        <v>2.3436201817088209</v>
+      </c>
+      <c r="E36">
+        <f>GDP・POP!H36*Intensity!E36/10^6</f>
+        <v>1.9686409526354132</v>
+      </c>
+      <c r="F36">
+        <f>GDP・POP!C36*COMFLOOR!$B36*Intensity!F36/10^6</f>
+        <v>2.3147660470734852</v>
+      </c>
+      <c r="G36">
+        <f>GDP・POP!D36*COMFLOOR!$B36*Intensity!G36/10^6</f>
+        <v>1.9444034795417315</v>
+      </c>
+      <c r="H36">
+        <f>GDP・POP!G36*Intensity!H36/10^6</f>
+        <v>1.6522628025522392</v>
+      </c>
+      <c r="I36">
+        <f>GDP・POP!H36*Intensity!I36/10^6</f>
+        <v>1.3879007541438837</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>10.038680870946553</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>8.4324919315951199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="26">
+        <v>2045</v>
+      </c>
+      <c r="B37">
+        <f>GDP・POP!C37*Intensity!B37/10^6</f>
+        <v>3.7522658329291776</v>
+      </c>
+      <c r="C37">
+        <f>GDP・POP!D37*Intensity!C37/10^6</f>
+        <v>3.1268881941076505</v>
+      </c>
+      <c r="D37">
+        <f>GDP・POP!G37*Intensity!D37/10^6</f>
+        <v>2.332302689280024</v>
+      </c>
+      <c r="E37">
+        <f>GDP・POP!H37*Intensity!E37/10^6</f>
+        <v>1.9435855744000217</v>
+      </c>
+      <c r="F37">
+        <f>GDP・POP!C37*COMFLOOR!$B37*Intensity!F37/10^6</f>
+        <v>2.3295005000117879</v>
+      </c>
+      <c r="G37">
+        <f>GDP・POP!D37*COMFLOOR!$B37*Intensity!G37/10^6</f>
+        <v>1.9412504166764912</v>
+      </c>
+      <c r="H37">
+        <f>GDP・POP!G37*Intensity!H37/10^6</f>
+        <v>1.6442839193252512</v>
+      </c>
+      <c r="I37">
+        <f>GDP・POP!H37*Intensity!I37/10^6</f>
+        <v>1.3702365994377101</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>10.058352941546239</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>8.3819607846218744</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="26">
+        <v>2046</v>
+      </c>
+      <c r="B38">
+        <f>GDP・POP!C38*Intensity!B38/10^6</f>
+        <v>3.7764998262463414</v>
+      </c>
+      <c r="C38">
+        <f>GDP・POP!D38*Intensity!C38/10^6</f>
+        <v>3.1219065230303138</v>
+      </c>
+      <c r="D38">
+        <f>GDP・POP!G38*Intensity!D38/10^6</f>
+        <v>2.3209851968512227</v>
+      </c>
+      <c r="E38">
+        <f>GDP・POP!H38*Intensity!E38/10^6</f>
+        <v>1.9186810960636806</v>
+      </c>
+      <c r="F38">
+        <f>GDP・POP!C38*COMFLOOR!$B38*Intensity!F38/10^6</f>
+        <v>2.3428736834284893</v>
+      </c>
+      <c r="G38">
+        <f>GDP・POP!D38*COMFLOOR!$B38*Intensity!G38/10^6</f>
+        <v>1.9367755783008873</v>
+      </c>
+      <c r="H38">
+        <f>GDP・POP!G38*Intensity!H38/10^6</f>
+        <v>1.6363050360982594</v>
+      </c>
+      <c r="I38">
+        <f>GDP・POP!H38*Intensity!I38/10^6</f>
+        <v>1.35267882984123</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>10.076663742624312</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>8.3300420272361109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="26">
+        <v>2047</v>
+      </c>
+      <c r="B39">
+        <f>GDP・POP!C39*Intensity!B39/10^6</f>
+        <v>3.8007338195635123</v>
+      </c>
+      <c r="C39">
+        <f>GDP・POP!D39*Intensity!C39/10^6</f>
+        <v>3.1166017320420814</v>
+      </c>
+      <c r="D39">
+        <f>GDP・POP!G39*Intensity!D39/10^6</f>
+        <v>2.3096677044224259</v>
+      </c>
+      <c r="E39">
+        <f>GDP・POP!H39*Intensity!E39/10^6</f>
+        <v>1.8939275176263901</v>
+      </c>
+      <c r="F39">
+        <f>GDP・POP!C39*COMFLOOR!$B39*Intensity!F39/10^6</f>
+        <v>2.3563381254210505</v>
+      </c>
+      <c r="G39">
+        <f>GDP・POP!D39*COMFLOOR!$B39*Intensity!G39/10^6</f>
+        <v>1.9321972628452619</v>
+      </c>
+      <c r="H39">
+        <f>GDP・POP!G39*Intensity!H39/10^6</f>
+        <v>1.6283261528712714</v>
+      </c>
+      <c r="I39">
+        <f>GDP・POP!H39*Intensity!I39/10^6</f>
+        <v>1.335227445354443</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>10.09506580227826</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>8.277953957868176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="26">
+        <v>2048</v>
+      </c>
+      <c r="B40">
+        <f>GDP・POP!C40*Intensity!B40/10^6</f>
+        <v>3.8249678128806757</v>
+      </c>
+      <c r="C40">
+        <f>GDP・POP!D40*Intensity!C40/10^6</f>
+        <v>3.1109738211429532</v>
+      </c>
+      <c r="D40">
+        <f>GDP・POP!G40*Intensity!D40/10^6</f>
+        <v>2.2983502119936245</v>
+      </c>
+      <c r="E40">
+        <f>GDP・POP!H40*Intensity!E40/10^6</f>
+        <v>1.8693248390881503</v>
+      </c>
+      <c r="F40">
+        <f>GDP・POP!C40*COMFLOOR!$B40*Intensity!F40/10^6</f>
+        <v>2.3698965580268125</v>
+      </c>
+      <c r="G40">
+        <f>GDP・POP!D40*COMFLOOR!$B40*Intensity!G40/10^6</f>
+        <v>1.9275158671951429</v>
+      </c>
+      <c r="H40">
+        <f>GDP・POP!G40*Intensity!H40/10^6</f>
+        <v>1.6203472696442798</v>
+      </c>
+      <c r="I40">
+        <f>GDP・POP!H40*Intensity!I40/10^6</f>
+        <v>1.3178824459773493</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>10.113561852545391</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>8.2256969734035952</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="26">
+        <v>2049</v>
+      </c>
+      <c r="B41">
+        <f>GDP・POP!C41*Intensity!B41/10^6</f>
+        <v>3.849201806197839</v>
+      </c>
+      <c r="C41">
+        <f>GDP・POP!D41*Intensity!C41/10^6</f>
+        <v>3.1050227903329302</v>
+      </c>
+      <c r="D41">
+        <f>GDP・POP!G41*Intensity!D41/10^6</f>
+        <v>2.2870327195648228</v>
+      </c>
+      <c r="E41">
+        <f>GDP・POP!H41*Intensity!E41/10^6</f>
+        <v>1.8448730604489609</v>
+      </c>
+      <c r="F41">
+        <f>GDP・POP!C41*COMFLOOR!$B41*Intensity!F41/10^6</f>
+        <v>2.3835517225303424</v>
+      </c>
+      <c r="G41">
+        <f>GDP・POP!D41*COMFLOOR!$B41*Intensity!G41/10^6</f>
+        <v>1.9227317228411474</v>
+      </c>
+      <c r="H41">
+        <f>GDP・POP!G41*Intensity!H41/10^6</f>
+        <v>1.6123683864172882</v>
+      </c>
+      <c r="I41">
+        <f>GDP・POP!H41*Intensity!I41/10^6</f>
+        <v>1.3006438317099487</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>10.132154634710291</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>8.1732714053329865</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="26">
+        <v>2050</v>
+      </c>
+      <c r="B42">
+        <f>GDP・POP!C42*Intensity!B42/10^6</f>
+        <v>3.8734357995150099</v>
+      </c>
+      <c r="C42">
+        <f>GDP・POP!D42*Intensity!C42/10^6</f>
+        <v>3.0987486396120105</v>
+      </c>
+      <c r="D42">
+        <f>GDP・POP!G42*Intensity!D42/10^6</f>
+        <v>2.2757152271360259</v>
+      </c>
+      <c r="E42">
+        <f>GDP・POP!H42*Intensity!E42/10^6</f>
+        <v>1.8205721817088225</v>
+      </c>
+      <c r="F42">
+        <f>GDP・POP!C42*COMFLOOR!$B42*Intensity!F42/10^6</f>
+        <v>2.3973063858563726</v>
+      </c>
+      <c r="G42">
+        <f>GDP・POP!D42*COMFLOOR!$B42*Intensity!G42/10^6</f>
+        <v>1.9178451086850998</v>
+      </c>
+      <c r="H42">
+        <f>GDP・POP!G42*Intensity!H42/10^6</f>
+        <v>1.6043895031902999</v>
+      </c>
+      <c r="I42">
+        <f>GDP・POP!H42*Intensity!I42/10^6</f>
+        <v>1.2835116025522413</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>10.150846915697707</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>8.1206775325581741</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334B55D2-E04B-48DB-ABCA-1CE98983DBFF}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -1904,7 +3830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D646C91-911F-486E-8177-C851B6B0D693}">
   <dimension ref="A1:K46"/>
   <sheetViews>
@@ -3804,7 +5730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02CA7BF-8982-4595-8436-CC3A8154EB0A}">
   <dimension ref="A1:K46"/>
   <sheetViews>
@@ -5706,7 +7632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A17BFFE-96DA-436A-8D9A-B2CAE645547A}">
   <dimension ref="A1:K46"/>
   <sheetViews>
@@ -7606,7 +9532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90718EDA-24CA-41D3-8BE1-E158FE47D224}">
   <dimension ref="A1:K46"/>
   <sheetViews>
@@ -9506,7 +11432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EF27D6-DA54-419B-AE6D-2F27562AFF91}">
   <dimension ref="A1:AA46"/>
   <sheetViews>
@@ -14046,7 +15972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B08CB0-75F6-47E4-8051-A6D81E1FCE5A}">
   <dimension ref="A1:N42"/>
   <sheetViews>
@@ -15914,7 +17840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FB534B-C217-4F2D-A729-94D9310B1BD4}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -16014,7 +17940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F681C9-CDBC-487E-8F80-B8CCB9B41242}">
   <dimension ref="A1:E43"/>
   <sheetViews>
@@ -16749,1044 +18675,6 @@
       </c>
       <c r="E43" s="1">
         <v>0.24636864205299799</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A352688-02A1-495B-81D2-06D9AFFE8253}">
-  <dimension ref="A1:F43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="16384" width="10" style="26"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="57"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="26">
-        <v>2010</v>
-      </c>
-      <c r="B3" s="26">
-        <f>Emissions_intensity!B3*GDP・POP!G2</f>
-        <v>28.775119328906975</v>
-      </c>
-      <c r="C3" s="26">
-        <f>Emissions_intensity!C3*GDP・POP!H2</f>
-        <v>28.775119328906975</v>
-      </c>
-      <c r="D3" s="1">
-        <f>Emissions_intensity!D3/10^3*GDP・POP!G2</f>
-        <v>29.46362437612942</v>
-      </c>
-      <c r="E3" s="1">
-        <f>Emissions_intensity!E3/10^3*GDP・POP!H2</f>
-        <v>29.46362437612942</v>
-      </c>
-      <c r="F3" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="26">
-        <v>2011</v>
-      </c>
-      <c r="B4" s="26">
-        <f>Emissions_intensity!B4*GDP・POP!G3</f>
-        <v>28.680854021309937</v>
-      </c>
-      <c r="C4" s="26">
-        <f>Emissions_intensity!C4*GDP・POP!H3</f>
-        <v>28.680854021309937</v>
-      </c>
-      <c r="D4" s="1">
-        <f>Emissions_intensity!D4/10^3*GDP・POP!G3</f>
-        <v>28.705285464334004</v>
-      </c>
-      <c r="E4" s="1">
-        <f>Emissions_intensity!E4/10^3*GDP・POP!H3</f>
-        <v>28.705285464334004</v>
-      </c>
-      <c r="F4" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="26">
-        <v>2012</v>
-      </c>
-      <c r="B5" s="26">
-        <f>Emissions_intensity!B5*GDP・POP!G4</f>
-        <v>28.96254624146086</v>
-      </c>
-      <c r="C5" s="26">
-        <f>Emissions_intensity!C5*GDP・POP!H4</f>
-        <v>28.96254624146086</v>
-      </c>
-      <c r="D5" s="1">
-        <f>Emissions_intensity!D5/10^3*GDP・POP!G4</f>
-        <v>30.381377588026403</v>
-      </c>
-      <c r="E5" s="1">
-        <f>Emissions_intensity!E5/10^3*GDP・POP!H4</f>
-        <v>30.381377588026403</v>
-      </c>
-      <c r="F5" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="26">
-        <v>2013</v>
-      </c>
-      <c r="B6" s="26">
-        <f>Emissions_intensity!B6*GDP・POP!G5</f>
-        <v>29.866015622377489</v>
-      </c>
-      <c r="C6" s="26">
-        <f>Emissions_intensity!C6*GDP・POP!H5</f>
-        <v>29.866015622377489</v>
-      </c>
-      <c r="D6" s="1">
-        <f>Emissions_intensity!D6/10^3*GDP・POP!G5</f>
-        <v>29.90241086671552</v>
-      </c>
-      <c r="E6" s="1">
-        <f>Emissions_intensity!E6/10^3*GDP・POP!H5</f>
-        <v>29.90241086671552</v>
-      </c>
-      <c r="F6" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="26">
-        <v>2014</v>
-      </c>
-      <c r="B7" s="26">
-        <f>Emissions_intensity!B7*GDP・POP!G6</f>
-        <v>29.060243905617376</v>
-      </c>
-      <c r="C7" s="26">
-        <f>Emissions_intensity!C7*GDP・POP!H6</f>
-        <v>29.060243905617376</v>
-      </c>
-      <c r="D7" s="1">
-        <f>Emissions_intensity!D7/10^3*GDP・POP!G6</f>
-        <v>29.162637040596852</v>
-      </c>
-      <c r="E7" s="1">
-        <f>Emissions_intensity!E7/10^3*GDP・POP!H6</f>
-        <v>29.162637040596852</v>
-      </c>
-      <c r="F7" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="26">
-        <v>2015</v>
-      </c>
-      <c r="B8" s="26">
-        <f>Emissions_intensity!B8*GDP・POP!G7</f>
-        <v>28.131548114623047</v>
-      </c>
-      <c r="C8" s="26">
-        <f>Emissions_intensity!C8*GDP・POP!H7</f>
-        <v>28.131548114623047</v>
-      </c>
-      <c r="D8" s="1">
-        <f>Emissions_intensity!D8/10^3*GDP・POP!G7</f>
-        <v>29.596439313027453</v>
-      </c>
-      <c r="E8" s="1">
-        <f>Emissions_intensity!E8/10^3*GDP・POP!H7</f>
-        <v>29.596439313027453</v>
-      </c>
-      <c r="F8" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="26">
-        <v>2016</v>
-      </c>
-      <c r="B9" s="26">
-        <f>Emissions_intensity!B9*GDP・POP!G8</f>
-        <v>27.207998397576194</v>
-      </c>
-      <c r="C9" s="26">
-        <f>Emissions_intensity!C9*GDP・POP!H8</f>
-        <v>27.207998397576194</v>
-      </c>
-      <c r="D9" s="1">
-        <f>Emissions_intensity!D9/10^3*GDP・POP!G8</f>
-        <v>29.771891898633733</v>
-      </c>
-      <c r="E9" s="1">
-        <f>Emissions_intensity!E9/10^3*GDP・POP!H8</f>
-        <v>29.771891898633733</v>
-      </c>
-      <c r="F9" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="26">
-        <v>2017</v>
-      </c>
-      <c r="B10" s="26">
-        <f>Emissions_intensity!B10*GDP・POP!G9</f>
-        <v>26.964390321506539</v>
-      </c>
-      <c r="C10" s="26">
-        <f>Emissions_intensity!C10*GDP・POP!H9</f>
-        <v>26.964390321506539</v>
-      </c>
-      <c r="D10" s="1">
-        <f>Emissions_intensity!D10/10^3*GDP・POP!G9</f>
-        <v>30.106811749075362</v>
-      </c>
-      <c r="E10" s="1">
-        <f>Emissions_intensity!E10/10^3*GDP・POP!H9</f>
-        <v>30.106811749075362</v>
-      </c>
-      <c r="F10" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="26">
-        <v>2018</v>
-      </c>
-      <c r="B11" s="26">
-        <f>Emissions_intensity!B11*GDP・POP!G10</f>
-        <v>27.129739228588548</v>
-      </c>
-      <c r="C11" s="26">
-        <f>Emissions_intensity!C11*GDP・POP!H10</f>
-        <v>27.129739228588548</v>
-      </c>
-      <c r="D11" s="1">
-        <f>Emissions_intensity!D11/10^3*GDP・POP!G10</f>
-        <v>30.793036026031395</v>
-      </c>
-      <c r="E11" s="1">
-        <f>Emissions_intensity!E11/10^3*GDP・POP!H10</f>
-        <v>30.793036026031395</v>
-      </c>
-      <c r="F11" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="26">
-        <v>2019</v>
-      </c>
-      <c r="B12" s="26">
-        <f>Emissions_intensity!B12*GDP・POP!G11</f>
-        <v>26.045717352570733</v>
-      </c>
-      <c r="C12" s="26">
-        <f>Emissions_intensity!C12*GDP・POP!H11</f>
-        <v>26.045717352570733</v>
-      </c>
-      <c r="D12" s="1">
-        <f>Emissions_intensity!D12/10^3*GDP・POP!G11</f>
-        <v>31.317393615623359</v>
-      </c>
-      <c r="E12" s="1">
-        <f>Emissions_intensity!E12/10^3*GDP・POP!H11</f>
-        <v>31.317393615623359</v>
-      </c>
-      <c r="F12" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="26">
-        <v>2020</v>
-      </c>
-      <c r="B13" s="26">
-        <f>Emissions_intensity!B13*GDP・POP!G12</f>
-        <v>25.99212785621209</v>
-      </c>
-      <c r="C13" s="26">
-        <f>Emissions_intensity!C13*GDP・POP!H12</f>
-        <v>25.99212785621209</v>
-      </c>
-      <c r="D13" s="1">
-        <f>Emissions_intensity!D13/10^3*GDP・POP!G12</f>
-        <v>31.085649151718691</v>
-      </c>
-      <c r="E13" s="1">
-        <f>Emissions_intensity!E13/10^3*GDP・POP!H12</f>
-        <v>31.085649151718691</v>
-      </c>
-      <c r="F13" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="26">
-        <v>2021</v>
-      </c>
-      <c r="B14" s="26">
-        <f>Emissions_intensity!B14*GDP・POP!G13</f>
-        <v>25.879646512159105</v>
-      </c>
-      <c r="C14" s="26">
-        <f>Emissions_intensity!C14*GDP・POP!H13</f>
-        <v>25.879646512159105</v>
-      </c>
-      <c r="D14" s="1">
-        <f>Emissions_intensity!D14/10^3*GDP・POP!G13</f>
-        <v>30.951125513766165</v>
-      </c>
-      <c r="E14" s="1">
-        <f>Emissions_intensity!E14/10^3*GDP・POP!H13</f>
-        <v>30.951125513766165</v>
-      </c>
-      <c r="F14" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="26">
-        <v>2022</v>
-      </c>
-      <c r="B15" s="26">
-        <f>Emissions_intensity!B15*GDP・POP!G14</f>
-        <v>25.767165168106121</v>
-      </c>
-      <c r="C15" s="26">
-        <f>Emissions_intensity!C15*GDP・POP!H14</f>
-        <v>25.767165168106121</v>
-      </c>
-      <c r="D15" s="1">
-        <f>Emissions_intensity!D15/10^3*GDP・POP!G14</f>
-        <v>30.816601875813639</v>
-      </c>
-      <c r="E15" s="1">
-        <f>Emissions_intensity!E15/10^3*GDP・POP!H14</f>
-        <v>30.816601875813639</v>
-      </c>
-      <c r="F15" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="26">
-        <v>2023</v>
-      </c>
-      <c r="B16" s="26">
-        <f>Emissions_intensity!B16*GDP・POP!G15</f>
-        <v>25.654683824053187</v>
-      </c>
-      <c r="C16" s="26">
-        <f>Emissions_intensity!C16*GDP・POP!H15</f>
-        <v>25.654683824053187</v>
-      </c>
-      <c r="D16" s="1">
-        <f>Emissions_intensity!D16/10^3*GDP・POP!G15</f>
-        <v>30.682078237861173</v>
-      </c>
-      <c r="E16" s="1">
-        <f>Emissions_intensity!E16/10^3*GDP・POP!H15</f>
-        <v>30.682078237861173</v>
-      </c>
-      <c r="F16" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="26">
-        <v>2024</v>
-      </c>
-      <c r="B17" s="26">
-        <f>Emissions_intensity!B17*GDP・POP!G16</f>
-        <v>25.542202480000206</v>
-      </c>
-      <c r="C17" s="26">
-        <f>Emissions_intensity!C17*GDP・POP!H16</f>
-        <v>25.542202480000206</v>
-      </c>
-      <c r="D17" s="1">
-        <f>Emissions_intensity!D17/10^3*GDP・POP!G16</f>
-        <v>30.547554599908651</v>
-      </c>
-      <c r="E17" s="1">
-        <f>Emissions_intensity!E17/10^3*GDP・POP!H16</f>
-        <v>30.547554599908651</v>
-      </c>
-      <c r="F17" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="26">
-        <v>2025</v>
-      </c>
-      <c r="B18" s="26">
-        <f>Emissions_intensity!B18*GDP・POP!G17</f>
-        <v>25.429721135947272</v>
-      </c>
-      <c r="C18" s="26">
-        <f>Emissions_intensity!C18*GDP・POP!H17</f>
-        <v>25.429721135947272</v>
-      </c>
-      <c r="D18" s="1">
-        <f>Emissions_intensity!D18/10^3*GDP・POP!G17</f>
-        <v>30.413030961956185</v>
-      </c>
-      <c r="E18" s="1">
-        <f>Emissions_intensity!E18/10^3*GDP・POP!H17</f>
-        <v>30.413030961956185</v>
-      </c>
-      <c r="F18" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="26">
-        <v>2026</v>
-      </c>
-      <c r="B19" s="26">
-        <f>Emissions_intensity!B19*GDP・POP!G18</f>
-        <v>25.317239791894288</v>
-      </c>
-      <c r="C19" s="26">
-        <f>Emissions_intensity!C19*GDP・POP!H18</f>
-        <v>25.317239791894288</v>
-      </c>
-      <c r="D19" s="1">
-        <f>Emissions_intensity!D19/10^3*GDP・POP!G18</f>
-        <v>30.278507324003662</v>
-      </c>
-      <c r="E19" s="1">
-        <f>Emissions_intensity!E19/10^3*GDP・POP!H18</f>
-        <v>30.278507324003662</v>
-      </c>
-      <c r="F19" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="26">
-        <v>2027</v>
-      </c>
-      <c r="B20" s="26">
-        <f>Emissions_intensity!B20*GDP・POP!G19</f>
-        <v>25.204758447841353</v>
-      </c>
-      <c r="C20" s="26">
-        <f>Emissions_intensity!C20*GDP・POP!H19</f>
-        <v>25.204758447841353</v>
-      </c>
-      <c r="D20" s="1">
-        <f>Emissions_intensity!D20/10^3*GDP・POP!G19</f>
-        <v>30.143983686051193</v>
-      </c>
-      <c r="E20" s="1">
-        <f>Emissions_intensity!E20/10^3*GDP・POP!H19</f>
-        <v>30.143983686051193</v>
-      </c>
-      <c r="F20" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="26">
-        <v>2028</v>
-      </c>
-      <c r="B21" s="26">
-        <f>Emissions_intensity!B21*GDP・POP!G20</f>
-        <v>25.092277103788369</v>
-      </c>
-      <c r="C21" s="26">
-        <f>Emissions_intensity!C21*GDP・POP!H20</f>
-        <v>25.092277103788369</v>
-      </c>
-      <c r="D21" s="1">
-        <f>Emissions_intensity!D21/10^3*GDP・POP!G20</f>
-        <v>30.009460048098671</v>
-      </c>
-      <c r="E21" s="1">
-        <f>Emissions_intensity!E21/10^3*GDP・POP!H20</f>
-        <v>30.009460048098671</v>
-      </c>
-      <c r="F21" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="26">
-        <v>2029</v>
-      </c>
-      <c r="B22" s="26">
-        <f>Emissions_intensity!B22*GDP・POP!G21</f>
-        <v>24.979795759735435</v>
-      </c>
-      <c r="C22" s="26">
-        <f>Emissions_intensity!C22*GDP・POP!H21</f>
-        <v>24.979795759735435</v>
-      </c>
-      <c r="D22" s="1">
-        <f>Emissions_intensity!D22/10^3*GDP・POP!G21</f>
-        <v>29.874936410146205</v>
-      </c>
-      <c r="E22" s="1">
-        <f>Emissions_intensity!E22/10^3*GDP・POP!H21</f>
-        <v>29.874936410146205</v>
-      </c>
-      <c r="F22" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="26">
-        <v>2030</v>
-      </c>
-      <c r="B23" s="26">
-        <f>Emissions_intensity!B23*GDP・POP!G22</f>
-        <v>24.867314415682454</v>
-      </c>
-      <c r="C23" s="26">
-        <f>Emissions_intensity!C23*GDP・POP!H22</f>
-        <v>24.867314415682454</v>
-      </c>
-      <c r="D23" s="1">
-        <f>Emissions_intensity!D23/10^3*GDP・POP!G22</f>
-        <v>29.740412772193682</v>
-      </c>
-      <c r="E23" s="1">
-        <f>Emissions_intensity!E23/10^3*GDP・POP!H22</f>
-        <v>29.740412772193682</v>
-      </c>
-      <c r="F23" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="26">
-        <v>2031</v>
-      </c>
-      <c r="B24" s="26">
-        <f>Emissions_intensity!B24*GDP・POP!G23</f>
-        <v>24.75483307162952</v>
-      </c>
-      <c r="C24" s="26">
-        <f>Emissions_intensity!C24*GDP・POP!H23</f>
-        <v>24.75483307162952</v>
-      </c>
-      <c r="D24" s="1">
-        <f>Emissions_intensity!D24/10^3*GDP・POP!G23</f>
-        <v>29.605889134241213</v>
-      </c>
-      <c r="E24" s="1">
-        <f>Emissions_intensity!E24/10^3*GDP・POP!H23</f>
-        <v>29.605889134241213</v>
-      </c>
-      <c r="F24" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="26">
-        <v>2032</v>
-      </c>
-      <c r="B25" s="26">
-        <f>Emissions_intensity!B25*GDP・POP!G24</f>
-        <v>24.642351727576536</v>
-      </c>
-      <c r="C25" s="26">
-        <f>Emissions_intensity!C25*GDP・POP!H24</f>
-        <v>24.642351727576536</v>
-      </c>
-      <c r="D25" s="1">
-        <f>Emissions_intensity!D25/10^3*GDP・POP!G24</f>
-        <v>29.471365496288691</v>
-      </c>
-      <c r="E25" s="1">
-        <f>Emissions_intensity!E25/10^3*GDP・POP!H24</f>
-        <v>29.471365496288691</v>
-      </c>
-      <c r="F25" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="26">
-        <v>2033</v>
-      </c>
-      <c r="B26" s="26">
-        <f>Emissions_intensity!B26*GDP・POP!G25</f>
-        <v>24.529870383523601</v>
-      </c>
-      <c r="C26" s="26">
-        <f>Emissions_intensity!C26*GDP・POP!H25</f>
-        <v>24.529870383523601</v>
-      </c>
-      <c r="D26" s="1">
-        <f>Emissions_intensity!D26/10^3*GDP・POP!G25</f>
-        <v>29.336841858336225</v>
-      </c>
-      <c r="E26" s="1">
-        <f>Emissions_intensity!E26/10^3*GDP・POP!H25</f>
-        <v>29.336841858336225</v>
-      </c>
-      <c r="F26" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="26">
-        <v>2034</v>
-      </c>
-      <c r="B27" s="26">
-        <f>Emissions_intensity!B27*GDP・POP!G26</f>
-        <v>24.417389039470617</v>
-      </c>
-      <c r="C27" s="26">
-        <f>Emissions_intensity!C27*GDP・POP!H26</f>
-        <v>24.417389039470617</v>
-      </c>
-      <c r="D27" s="1">
-        <f>Emissions_intensity!D27/10^3*GDP・POP!G26</f>
-        <v>29.202318220383702</v>
-      </c>
-      <c r="E27" s="1">
-        <f>Emissions_intensity!E27/10^3*GDP・POP!H26</f>
-        <v>29.202318220383702</v>
-      </c>
-      <c r="F27" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="26">
-        <v>2035</v>
-      </c>
-      <c r="B28" s="26">
-        <f>Emissions_intensity!B28*GDP・POP!G27</f>
-        <v>24.304907695417683</v>
-      </c>
-      <c r="C28" s="26">
-        <f>Emissions_intensity!C28*GDP・POP!H27</f>
-        <v>24.304907695417683</v>
-      </c>
-      <c r="D28" s="1">
-        <f>Emissions_intensity!D28/10^3*GDP・POP!G27</f>
-        <v>29.067794582431237</v>
-      </c>
-      <c r="E28" s="1">
-        <f>Emissions_intensity!E28/10^3*GDP・POP!H27</f>
-        <v>29.067794582431237</v>
-      </c>
-      <c r="F28" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="26">
-        <v>2036</v>
-      </c>
-      <c r="B29" s="26">
-        <f>Emissions_intensity!B29*GDP・POP!G28</f>
-        <v>24.192426351364702</v>
-      </c>
-      <c r="C29" s="26">
-        <f>Emissions_intensity!C29*GDP・POP!H28</f>
-        <v>24.192426351364702</v>
-      </c>
-      <c r="D29" s="1">
-        <f>Emissions_intensity!D29/10^3*GDP・POP!G28</f>
-        <v>28.933270944478711</v>
-      </c>
-      <c r="E29" s="1">
-        <f>Emissions_intensity!E29/10^3*GDP・POP!H28</f>
-        <v>28.933270944478711</v>
-      </c>
-      <c r="F29" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="26">
-        <v>2037</v>
-      </c>
-      <c r="B30" s="26">
-        <f>Emissions_intensity!B30*GDP・POP!G29</f>
-        <v>24.079945007311768</v>
-      </c>
-      <c r="C30" s="26">
-        <f>Emissions_intensity!C30*GDP・POP!H29</f>
-        <v>24.079945007311768</v>
-      </c>
-      <c r="D30" s="1">
-        <f>Emissions_intensity!D30/10^3*GDP・POP!G29</f>
-        <v>28.798747306526245</v>
-      </c>
-      <c r="E30" s="1">
-        <f>Emissions_intensity!E30/10^3*GDP・POP!H29</f>
-        <v>28.798747306526245</v>
-      </c>
-      <c r="F30" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="26">
-        <v>2038</v>
-      </c>
-      <c r="B31" s="26">
-        <f>Emissions_intensity!B31*GDP・POP!G30</f>
-        <v>23.967463663258783</v>
-      </c>
-      <c r="C31" s="26">
-        <f>Emissions_intensity!C31*GDP・POP!H30</f>
-        <v>23.967463663258783</v>
-      </c>
-      <c r="D31" s="1">
-        <f>Emissions_intensity!D31/10^3*GDP・POP!G30</f>
-        <v>28.664223668573722</v>
-      </c>
-      <c r="E31" s="1">
-        <f>Emissions_intensity!E31/10^3*GDP・POP!H30</f>
-        <v>28.664223668573722</v>
-      </c>
-      <c r="F31" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="26">
-        <v>2039</v>
-      </c>
-      <c r="B32" s="26">
-        <f>Emissions_intensity!B32*GDP・POP!G31</f>
-        <v>23.854982319205849</v>
-      </c>
-      <c r="C32" s="26">
-        <f>Emissions_intensity!C32*GDP・POP!H31</f>
-        <v>23.854982319205849</v>
-      </c>
-      <c r="D32" s="1">
-        <f>Emissions_intensity!D32/10^3*GDP・POP!G31</f>
-        <v>28.529700030621257</v>
-      </c>
-      <c r="E32" s="1">
-        <f>Emissions_intensity!E32/10^3*GDP・POP!H31</f>
-        <v>28.529700030621257</v>
-      </c>
-      <c r="F32" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="26">
-        <v>2040</v>
-      </c>
-      <c r="B33" s="26">
-        <f>Emissions_intensity!B33*GDP・POP!G32</f>
-        <v>23.742500975152865</v>
-      </c>
-      <c r="C33" s="26">
-        <f>Emissions_intensity!C33*GDP・POP!H32</f>
-        <v>23.742500975152865</v>
-      </c>
-      <c r="D33" s="1">
-        <f>Emissions_intensity!D33/10^3*GDP・POP!G32</f>
-        <v>28.395176392668731</v>
-      </c>
-      <c r="E33" s="1">
-        <f>Emissions_intensity!E33/10^3*GDP・POP!H32</f>
-        <v>28.395176392668731</v>
-      </c>
-      <c r="F33" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="26">
-        <v>2041</v>
-      </c>
-      <c r="B34" s="26">
-        <f>Emissions_intensity!B34*GDP・POP!G33</f>
-        <v>23.63001963109993</v>
-      </c>
-      <c r="C34" s="26">
-        <f>Emissions_intensity!C34*GDP・POP!H33</f>
-        <v>23.63001963109993</v>
-      </c>
-      <c r="D34" s="1">
-        <f>Emissions_intensity!D34/10^3*GDP・POP!G33</f>
-        <v>28.260652754716265</v>
-      </c>
-      <c r="E34" s="1">
-        <f>Emissions_intensity!E34/10^3*GDP・POP!H33</f>
-        <v>28.260652754716265</v>
-      </c>
-      <c r="F34" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="26">
-        <v>2042</v>
-      </c>
-      <c r="B35" s="26">
-        <f>Emissions_intensity!B35*GDP・POP!G34</f>
-        <v>23.51753828704695</v>
-      </c>
-      <c r="C35" s="26">
-        <f>Emissions_intensity!C35*GDP・POP!H34</f>
-        <v>23.51753828704695</v>
-      </c>
-      <c r="D35" s="1">
-        <f>Emissions_intensity!D35/10^3*GDP・POP!G34</f>
-        <v>28.126129116763742</v>
-      </c>
-      <c r="E35" s="1">
-        <f>Emissions_intensity!E35/10^3*GDP・POP!H34</f>
-        <v>28.126129116763742</v>
-      </c>
-      <c r="F35" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="26">
-        <v>2043</v>
-      </c>
-      <c r="B36" s="26">
-        <f>Emissions_intensity!B36*GDP・POP!G35</f>
-        <v>23.405056942994015</v>
-      </c>
-      <c r="C36" s="26">
-        <f>Emissions_intensity!C36*GDP・POP!H35</f>
-        <v>23.405056942994015</v>
-      </c>
-      <c r="D36" s="1">
-        <f>Emissions_intensity!D36/10^3*GDP・POP!G35</f>
-        <v>27.991605478811277</v>
-      </c>
-      <c r="E36" s="1">
-        <f>Emissions_intensity!E36/10^3*GDP・POP!H35</f>
-        <v>27.991605478811277</v>
-      </c>
-      <c r="F36" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="26">
-        <v>2044</v>
-      </c>
-      <c r="B37" s="26">
-        <f>Emissions_intensity!B37*GDP・POP!G36</f>
-        <v>23.292575598941031</v>
-      </c>
-      <c r="C37" s="26">
-        <f>Emissions_intensity!C37*GDP・POP!H36</f>
-        <v>23.292575598941031</v>
-      </c>
-      <c r="D37" s="1">
-        <f>Emissions_intensity!D37/10^3*GDP・POP!G36</f>
-        <v>27.857081840858751</v>
-      </c>
-      <c r="E37" s="1">
-        <f>Emissions_intensity!E37/10^3*GDP・POP!H36</f>
-        <v>27.857081840858751</v>
-      </c>
-      <c r="F37" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="26">
-        <v>2045</v>
-      </c>
-      <c r="B38" s="26">
-        <f>Emissions_intensity!B38*GDP・POP!G37</f>
-        <v>23.180094254888097</v>
-      </c>
-      <c r="C38" s="26">
-        <f>Emissions_intensity!C38*GDP・POP!H37</f>
-        <v>23.180094254888097</v>
-      </c>
-      <c r="D38" s="1">
-        <f>Emissions_intensity!D38/10^3*GDP・POP!G37</f>
-        <v>27.722558202906285</v>
-      </c>
-      <c r="E38" s="1">
-        <f>Emissions_intensity!E38/10^3*GDP・POP!H37</f>
-        <v>27.722558202906285</v>
-      </c>
-      <c r="F38" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="26">
-        <v>2046</v>
-      </c>
-      <c r="B39" s="26">
-        <f>Emissions_intensity!B39*GDP・POP!G38</f>
-        <v>23.067612910835113</v>
-      </c>
-      <c r="C39" s="26">
-        <f>Emissions_intensity!C39*GDP・POP!H38</f>
-        <v>23.067612910835113</v>
-      </c>
-      <c r="D39" s="1">
-        <f>Emissions_intensity!D39/10^3*GDP・POP!G38</f>
-        <v>27.588034564953762</v>
-      </c>
-      <c r="E39" s="1">
-        <f>Emissions_intensity!E39/10^3*GDP・POP!H38</f>
-        <v>27.588034564953762</v>
-      </c>
-      <c r="F39" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="26">
-        <v>2047</v>
-      </c>
-      <c r="B40" s="26">
-        <f>Emissions_intensity!B40*GDP・POP!G39</f>
-        <v>22.955131566782178</v>
-      </c>
-      <c r="C40" s="26">
-        <f>Emissions_intensity!C40*GDP・POP!H39</f>
-        <v>22.955131566782178</v>
-      </c>
-      <c r="D40" s="1">
-        <f>Emissions_intensity!D40/10^3*GDP・POP!G39</f>
-        <v>27.453510927001297</v>
-      </c>
-      <c r="E40" s="1">
-        <f>Emissions_intensity!E40/10^3*GDP・POP!H39</f>
-        <v>27.453510927001297</v>
-      </c>
-      <c r="F40" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="26">
-        <v>2048</v>
-      </c>
-      <c r="B41" s="26">
-        <f>Emissions_intensity!B41*GDP・POP!G40</f>
-        <v>22.842650222729198</v>
-      </c>
-      <c r="C41" s="26">
-        <f>Emissions_intensity!C41*GDP・POP!H40</f>
-        <v>22.842650222729198</v>
-      </c>
-      <c r="D41" s="1">
-        <f>Emissions_intensity!D41/10^3*GDP・POP!G40</f>
-        <v>27.318987289048771</v>
-      </c>
-      <c r="E41" s="1">
-        <f>Emissions_intensity!E41/10^3*GDP・POP!H40</f>
-        <v>27.318987289048771</v>
-      </c>
-      <c r="F41" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="26">
-        <v>2049</v>
-      </c>
-      <c r="B42" s="26">
-        <f>Emissions_intensity!B42*GDP・POP!G41</f>
-        <v>22.730168878676213</v>
-      </c>
-      <c r="C42" s="26">
-        <f>Emissions_intensity!C42*GDP・POP!H41</f>
-        <v>22.730168878676213</v>
-      </c>
-      <c r="D42" s="1">
-        <f>Emissions_intensity!D42/10^3*GDP・POP!G41</f>
-        <v>27.184463651096248</v>
-      </c>
-      <c r="E42" s="1">
-        <f>Emissions_intensity!E42/10^3*GDP・POP!H41</f>
-        <v>27.184463651096248</v>
-      </c>
-      <c r="F42" s="26">
-        <v>-54.3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="26">
-        <v>2050</v>
-      </c>
-      <c r="B43" s="26">
-        <f>Emissions_intensity!B43*GDP・POP!G42</f>
-        <v>22.617687534623279</v>
-      </c>
-      <c r="C43" s="26">
-        <f>Emissions_intensity!C43*GDP・POP!H42</f>
-        <v>22.617687534623279</v>
-      </c>
-      <c r="D43" s="1">
-        <f>Emissions_intensity!D43/10^3*GDP・POP!G42</f>
-        <v>27.049940013143782</v>
-      </c>
-      <c r="E43" s="1">
-        <f>Emissions_intensity!E43/10^3*GDP・POP!H42</f>
-        <v>27.049940013143782</v>
-      </c>
-      <c r="F43" s="26">
-        <v>-54.3</v>
       </c>
     </row>
   </sheetData>
@@ -19017,6 +19905,1044 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A352688-02A1-495B-81D2-06D9AFFE8253}">
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="10" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="57"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="26">
+        <v>2010</v>
+      </c>
+      <c r="B3" s="26">
+        <f>Emissions_intensity!B3*GDP・POP!G2</f>
+        <v>28.775119328906975</v>
+      </c>
+      <c r="C3" s="26">
+        <f>Emissions_intensity!C3*GDP・POP!H2</f>
+        <v>28.775119328906975</v>
+      </c>
+      <c r="D3" s="1">
+        <f>Emissions_intensity!D3/10^3*GDP・POP!G2</f>
+        <v>29.46362437612942</v>
+      </c>
+      <c r="E3" s="1">
+        <f>Emissions_intensity!E3/10^3*GDP・POP!H2</f>
+        <v>29.46362437612942</v>
+      </c>
+      <c r="F3" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="26">
+        <v>2011</v>
+      </c>
+      <c r="B4" s="26">
+        <f>Emissions_intensity!B4*GDP・POP!G3</f>
+        <v>28.680854021309937</v>
+      </c>
+      <c r="C4" s="26">
+        <f>Emissions_intensity!C4*GDP・POP!H3</f>
+        <v>28.680854021309937</v>
+      </c>
+      <c r="D4" s="1">
+        <f>Emissions_intensity!D4/10^3*GDP・POP!G3</f>
+        <v>28.705285464334004</v>
+      </c>
+      <c r="E4" s="1">
+        <f>Emissions_intensity!E4/10^3*GDP・POP!H3</f>
+        <v>28.705285464334004</v>
+      </c>
+      <c r="F4" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="26">
+        <v>2012</v>
+      </c>
+      <c r="B5" s="26">
+        <f>Emissions_intensity!B5*GDP・POP!G4</f>
+        <v>28.96254624146086</v>
+      </c>
+      <c r="C5" s="26">
+        <f>Emissions_intensity!C5*GDP・POP!H4</f>
+        <v>28.96254624146086</v>
+      </c>
+      <c r="D5" s="1">
+        <f>Emissions_intensity!D5/10^3*GDP・POP!G4</f>
+        <v>30.381377588026403</v>
+      </c>
+      <c r="E5" s="1">
+        <f>Emissions_intensity!E5/10^3*GDP・POP!H4</f>
+        <v>30.381377588026403</v>
+      </c>
+      <c r="F5" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="26">
+        <v>2013</v>
+      </c>
+      <c r="B6" s="26">
+        <f>Emissions_intensity!B6*GDP・POP!G5</f>
+        <v>29.866015622377489</v>
+      </c>
+      <c r="C6" s="26">
+        <f>Emissions_intensity!C6*GDP・POP!H5</f>
+        <v>29.866015622377489</v>
+      </c>
+      <c r="D6" s="1">
+        <f>Emissions_intensity!D6/10^3*GDP・POP!G5</f>
+        <v>29.90241086671552</v>
+      </c>
+      <c r="E6" s="1">
+        <f>Emissions_intensity!E6/10^3*GDP・POP!H5</f>
+        <v>29.90241086671552</v>
+      </c>
+      <c r="F6" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="26">
+        <v>2014</v>
+      </c>
+      <c r="B7" s="26">
+        <f>Emissions_intensity!B7*GDP・POP!G6</f>
+        <v>29.060243905617376</v>
+      </c>
+      <c r="C7" s="26">
+        <f>Emissions_intensity!C7*GDP・POP!H6</f>
+        <v>29.060243905617376</v>
+      </c>
+      <c r="D7" s="1">
+        <f>Emissions_intensity!D7/10^3*GDP・POP!G6</f>
+        <v>29.162637040596852</v>
+      </c>
+      <c r="E7" s="1">
+        <f>Emissions_intensity!E7/10^3*GDP・POP!H6</f>
+        <v>29.162637040596852</v>
+      </c>
+      <c r="F7" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="26">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="26">
+        <f>Emissions_intensity!B8*GDP・POP!G7</f>
+        <v>28.131548114623047</v>
+      </c>
+      <c r="C8" s="26">
+        <f>Emissions_intensity!C8*GDP・POP!H7</f>
+        <v>28.131548114623047</v>
+      </c>
+      <c r="D8" s="1">
+        <f>Emissions_intensity!D8/10^3*GDP・POP!G7</f>
+        <v>29.596439313027453</v>
+      </c>
+      <c r="E8" s="1">
+        <f>Emissions_intensity!E8/10^3*GDP・POP!H7</f>
+        <v>29.596439313027453</v>
+      </c>
+      <c r="F8" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="26">
+        <v>2016</v>
+      </c>
+      <c r="B9" s="26">
+        <f>Emissions_intensity!B9*GDP・POP!G8</f>
+        <v>27.207998397576194</v>
+      </c>
+      <c r="C9" s="26">
+        <f>Emissions_intensity!C9*GDP・POP!H8</f>
+        <v>27.207998397576194</v>
+      </c>
+      <c r="D9" s="1">
+        <f>Emissions_intensity!D9/10^3*GDP・POP!G8</f>
+        <v>29.771891898633733</v>
+      </c>
+      <c r="E9" s="1">
+        <f>Emissions_intensity!E9/10^3*GDP・POP!H8</f>
+        <v>29.771891898633733</v>
+      </c>
+      <c r="F9" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="26">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="26">
+        <f>Emissions_intensity!B10*GDP・POP!G9</f>
+        <v>26.964390321506539</v>
+      </c>
+      <c r="C10" s="26">
+        <f>Emissions_intensity!C10*GDP・POP!H9</f>
+        <v>26.964390321506539</v>
+      </c>
+      <c r="D10" s="1">
+        <f>Emissions_intensity!D10/10^3*GDP・POP!G9</f>
+        <v>30.106811749075362</v>
+      </c>
+      <c r="E10" s="1">
+        <f>Emissions_intensity!E10/10^3*GDP・POP!H9</f>
+        <v>30.106811749075362</v>
+      </c>
+      <c r="F10" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="26">
+        <v>2018</v>
+      </c>
+      <c r="B11" s="26">
+        <f>Emissions_intensity!B11*GDP・POP!G10</f>
+        <v>27.129739228588548</v>
+      </c>
+      <c r="C11" s="26">
+        <f>Emissions_intensity!C11*GDP・POP!H10</f>
+        <v>27.129739228588548</v>
+      </c>
+      <c r="D11" s="1">
+        <f>Emissions_intensity!D11/10^3*GDP・POP!G10</f>
+        <v>30.793036026031395</v>
+      </c>
+      <c r="E11" s="1">
+        <f>Emissions_intensity!E11/10^3*GDP・POP!H10</f>
+        <v>30.793036026031395</v>
+      </c>
+      <c r="F11" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="26">
+        <v>2019</v>
+      </c>
+      <c r="B12" s="26">
+        <f>Emissions_intensity!B12*GDP・POP!G11</f>
+        <v>26.045717352570733</v>
+      </c>
+      <c r="C12" s="26">
+        <f>Emissions_intensity!C12*GDP・POP!H11</f>
+        <v>26.045717352570733</v>
+      </c>
+      <c r="D12" s="1">
+        <f>Emissions_intensity!D12/10^3*GDP・POP!G11</f>
+        <v>31.317393615623359</v>
+      </c>
+      <c r="E12" s="1">
+        <f>Emissions_intensity!E12/10^3*GDP・POP!H11</f>
+        <v>31.317393615623359</v>
+      </c>
+      <c r="F12" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="26">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="26">
+        <f>Emissions_intensity!B13*GDP・POP!G12</f>
+        <v>25.99212785621209</v>
+      </c>
+      <c r="C13" s="26">
+        <f>Emissions_intensity!C13*GDP・POP!H12</f>
+        <v>25.99212785621209</v>
+      </c>
+      <c r="D13" s="1">
+        <f>Emissions_intensity!D13/10^3*GDP・POP!G12</f>
+        <v>31.085649151718691</v>
+      </c>
+      <c r="E13" s="1">
+        <f>Emissions_intensity!E13/10^3*GDP・POP!H12</f>
+        <v>31.085649151718691</v>
+      </c>
+      <c r="F13" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="26">
+        <v>2021</v>
+      </c>
+      <c r="B14" s="26">
+        <f>Emissions_intensity!B14*GDP・POP!G13</f>
+        <v>25.879646512159105</v>
+      </c>
+      <c r="C14" s="26">
+        <f>Emissions_intensity!C14*GDP・POP!H13</f>
+        <v>25.879646512159105</v>
+      </c>
+      <c r="D14" s="1">
+        <f>Emissions_intensity!D14/10^3*GDP・POP!G13</f>
+        <v>30.951125513766165</v>
+      </c>
+      <c r="E14" s="1">
+        <f>Emissions_intensity!E14/10^3*GDP・POP!H13</f>
+        <v>30.951125513766165</v>
+      </c>
+      <c r="F14" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="26">
+        <v>2022</v>
+      </c>
+      <c r="B15" s="26">
+        <f>Emissions_intensity!B15*GDP・POP!G14</f>
+        <v>25.767165168106121</v>
+      </c>
+      <c r="C15" s="26">
+        <f>Emissions_intensity!C15*GDP・POP!H14</f>
+        <v>25.767165168106121</v>
+      </c>
+      <c r="D15" s="1">
+        <f>Emissions_intensity!D15/10^3*GDP・POP!G14</f>
+        <v>30.816601875813639</v>
+      </c>
+      <c r="E15" s="1">
+        <f>Emissions_intensity!E15/10^3*GDP・POP!H14</f>
+        <v>30.816601875813639</v>
+      </c>
+      <c r="F15" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="26">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="26">
+        <f>Emissions_intensity!B16*GDP・POP!G15</f>
+        <v>25.654683824053187</v>
+      </c>
+      <c r="C16" s="26">
+        <f>Emissions_intensity!C16*GDP・POP!H15</f>
+        <v>25.654683824053187</v>
+      </c>
+      <c r="D16" s="1">
+        <f>Emissions_intensity!D16/10^3*GDP・POP!G15</f>
+        <v>30.682078237861173</v>
+      </c>
+      <c r="E16" s="1">
+        <f>Emissions_intensity!E16/10^3*GDP・POP!H15</f>
+        <v>30.682078237861173</v>
+      </c>
+      <c r="F16" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="26">
+        <v>2024</v>
+      </c>
+      <c r="B17" s="26">
+        <f>Emissions_intensity!B17*GDP・POP!G16</f>
+        <v>25.542202480000206</v>
+      </c>
+      <c r="C17" s="26">
+        <f>Emissions_intensity!C17*GDP・POP!H16</f>
+        <v>25.542202480000206</v>
+      </c>
+      <c r="D17" s="1">
+        <f>Emissions_intensity!D17/10^3*GDP・POP!G16</f>
+        <v>30.547554599908651</v>
+      </c>
+      <c r="E17" s="1">
+        <f>Emissions_intensity!E17/10^3*GDP・POP!H16</f>
+        <v>30.547554599908651</v>
+      </c>
+      <c r="F17" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="26">
+        <v>2025</v>
+      </c>
+      <c r="B18" s="26">
+        <f>Emissions_intensity!B18*GDP・POP!G17</f>
+        <v>25.429721135947272</v>
+      </c>
+      <c r="C18" s="26">
+        <f>Emissions_intensity!C18*GDP・POP!H17</f>
+        <v>25.429721135947272</v>
+      </c>
+      <c r="D18" s="1">
+        <f>Emissions_intensity!D18/10^3*GDP・POP!G17</f>
+        <v>30.413030961956185</v>
+      </c>
+      <c r="E18" s="1">
+        <f>Emissions_intensity!E18/10^3*GDP・POP!H17</f>
+        <v>30.413030961956185</v>
+      </c>
+      <c r="F18" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="26">
+        <v>2026</v>
+      </c>
+      <c r="B19" s="26">
+        <f>Emissions_intensity!B19*GDP・POP!G18</f>
+        <v>25.317239791894288</v>
+      </c>
+      <c r="C19" s="26">
+        <f>Emissions_intensity!C19*GDP・POP!H18</f>
+        <v>25.317239791894288</v>
+      </c>
+      <c r="D19" s="1">
+        <f>Emissions_intensity!D19/10^3*GDP・POP!G18</f>
+        <v>30.278507324003662</v>
+      </c>
+      <c r="E19" s="1">
+        <f>Emissions_intensity!E19/10^3*GDP・POP!H18</f>
+        <v>30.278507324003662</v>
+      </c>
+      <c r="F19" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="26">
+        <v>2027</v>
+      </c>
+      <c r="B20" s="26">
+        <f>Emissions_intensity!B20*GDP・POP!G19</f>
+        <v>25.204758447841353</v>
+      </c>
+      <c r="C20" s="26">
+        <f>Emissions_intensity!C20*GDP・POP!H19</f>
+        <v>25.204758447841353</v>
+      </c>
+      <c r="D20" s="1">
+        <f>Emissions_intensity!D20/10^3*GDP・POP!G19</f>
+        <v>30.143983686051193</v>
+      </c>
+      <c r="E20" s="1">
+        <f>Emissions_intensity!E20/10^3*GDP・POP!H19</f>
+        <v>30.143983686051193</v>
+      </c>
+      <c r="F20" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="26">
+        <v>2028</v>
+      </c>
+      <c r="B21" s="26">
+        <f>Emissions_intensity!B21*GDP・POP!G20</f>
+        <v>25.092277103788369</v>
+      </c>
+      <c r="C21" s="26">
+        <f>Emissions_intensity!C21*GDP・POP!H20</f>
+        <v>25.092277103788369</v>
+      </c>
+      <c r="D21" s="1">
+        <f>Emissions_intensity!D21/10^3*GDP・POP!G20</f>
+        <v>30.009460048098671</v>
+      </c>
+      <c r="E21" s="1">
+        <f>Emissions_intensity!E21/10^3*GDP・POP!H20</f>
+        <v>30.009460048098671</v>
+      </c>
+      <c r="F21" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="26">
+        <v>2029</v>
+      </c>
+      <c r="B22" s="26">
+        <f>Emissions_intensity!B22*GDP・POP!G21</f>
+        <v>24.979795759735435</v>
+      </c>
+      <c r="C22" s="26">
+        <f>Emissions_intensity!C22*GDP・POP!H21</f>
+        <v>24.979795759735435</v>
+      </c>
+      <c r="D22" s="1">
+        <f>Emissions_intensity!D22/10^3*GDP・POP!G21</f>
+        <v>29.874936410146205</v>
+      </c>
+      <c r="E22" s="1">
+        <f>Emissions_intensity!E22/10^3*GDP・POP!H21</f>
+        <v>29.874936410146205</v>
+      </c>
+      <c r="F22" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="26">
+        <v>2030</v>
+      </c>
+      <c r="B23" s="26">
+        <f>Emissions_intensity!B23*GDP・POP!G22</f>
+        <v>24.867314415682454</v>
+      </c>
+      <c r="C23" s="26">
+        <f>Emissions_intensity!C23*GDP・POP!H22</f>
+        <v>24.867314415682454</v>
+      </c>
+      <c r="D23" s="1">
+        <f>Emissions_intensity!D23/10^3*GDP・POP!G22</f>
+        <v>29.740412772193682</v>
+      </c>
+      <c r="E23" s="1">
+        <f>Emissions_intensity!E23/10^3*GDP・POP!H22</f>
+        <v>29.740412772193682</v>
+      </c>
+      <c r="F23" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="26">
+        <v>2031</v>
+      </c>
+      <c r="B24" s="26">
+        <f>Emissions_intensity!B24*GDP・POP!G23</f>
+        <v>24.75483307162952</v>
+      </c>
+      <c r="C24" s="26">
+        <f>Emissions_intensity!C24*GDP・POP!H23</f>
+        <v>24.75483307162952</v>
+      </c>
+      <c r="D24" s="1">
+        <f>Emissions_intensity!D24/10^3*GDP・POP!G23</f>
+        <v>29.605889134241213</v>
+      </c>
+      <c r="E24" s="1">
+        <f>Emissions_intensity!E24/10^3*GDP・POP!H23</f>
+        <v>29.605889134241213</v>
+      </c>
+      <c r="F24" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="26">
+        <v>2032</v>
+      </c>
+      <c r="B25" s="26">
+        <f>Emissions_intensity!B25*GDP・POP!G24</f>
+        <v>24.642351727576536</v>
+      </c>
+      <c r="C25" s="26">
+        <f>Emissions_intensity!C25*GDP・POP!H24</f>
+        <v>24.642351727576536</v>
+      </c>
+      <c r="D25" s="1">
+        <f>Emissions_intensity!D25/10^3*GDP・POP!G24</f>
+        <v>29.471365496288691</v>
+      </c>
+      <c r="E25" s="1">
+        <f>Emissions_intensity!E25/10^3*GDP・POP!H24</f>
+        <v>29.471365496288691</v>
+      </c>
+      <c r="F25" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="26">
+        <v>2033</v>
+      </c>
+      <c r="B26" s="26">
+        <f>Emissions_intensity!B26*GDP・POP!G25</f>
+        <v>24.529870383523601</v>
+      </c>
+      <c r="C26" s="26">
+        <f>Emissions_intensity!C26*GDP・POP!H25</f>
+        <v>24.529870383523601</v>
+      </c>
+      <c r="D26" s="1">
+        <f>Emissions_intensity!D26/10^3*GDP・POP!G25</f>
+        <v>29.336841858336225</v>
+      </c>
+      <c r="E26" s="1">
+        <f>Emissions_intensity!E26/10^3*GDP・POP!H25</f>
+        <v>29.336841858336225</v>
+      </c>
+      <c r="F26" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="26">
+        <v>2034</v>
+      </c>
+      <c r="B27" s="26">
+        <f>Emissions_intensity!B27*GDP・POP!G26</f>
+        <v>24.417389039470617</v>
+      </c>
+      <c r="C27" s="26">
+        <f>Emissions_intensity!C27*GDP・POP!H26</f>
+        <v>24.417389039470617</v>
+      </c>
+      <c r="D27" s="1">
+        <f>Emissions_intensity!D27/10^3*GDP・POP!G26</f>
+        <v>29.202318220383702</v>
+      </c>
+      <c r="E27" s="1">
+        <f>Emissions_intensity!E27/10^3*GDP・POP!H26</f>
+        <v>29.202318220383702</v>
+      </c>
+      <c r="F27" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="26">
+        <v>2035</v>
+      </c>
+      <c r="B28" s="26">
+        <f>Emissions_intensity!B28*GDP・POP!G27</f>
+        <v>24.304907695417683</v>
+      </c>
+      <c r="C28" s="26">
+        <f>Emissions_intensity!C28*GDP・POP!H27</f>
+        <v>24.304907695417683</v>
+      </c>
+      <c r="D28" s="1">
+        <f>Emissions_intensity!D28/10^3*GDP・POP!G27</f>
+        <v>29.067794582431237</v>
+      </c>
+      <c r="E28" s="1">
+        <f>Emissions_intensity!E28/10^3*GDP・POP!H27</f>
+        <v>29.067794582431237</v>
+      </c>
+      <c r="F28" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="26">
+        <v>2036</v>
+      </c>
+      <c r="B29" s="26">
+        <f>Emissions_intensity!B29*GDP・POP!G28</f>
+        <v>24.192426351364702</v>
+      </c>
+      <c r="C29" s="26">
+        <f>Emissions_intensity!C29*GDP・POP!H28</f>
+        <v>24.192426351364702</v>
+      </c>
+      <c r="D29" s="1">
+        <f>Emissions_intensity!D29/10^3*GDP・POP!G28</f>
+        <v>28.933270944478711</v>
+      </c>
+      <c r="E29" s="1">
+        <f>Emissions_intensity!E29/10^3*GDP・POP!H28</f>
+        <v>28.933270944478711</v>
+      </c>
+      <c r="F29" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="26">
+        <v>2037</v>
+      </c>
+      <c r="B30" s="26">
+        <f>Emissions_intensity!B30*GDP・POP!G29</f>
+        <v>24.079945007311768</v>
+      </c>
+      <c r="C30" s="26">
+        <f>Emissions_intensity!C30*GDP・POP!H29</f>
+        <v>24.079945007311768</v>
+      </c>
+      <c r="D30" s="1">
+        <f>Emissions_intensity!D30/10^3*GDP・POP!G29</f>
+        <v>28.798747306526245</v>
+      </c>
+      <c r="E30" s="1">
+        <f>Emissions_intensity!E30/10^3*GDP・POP!H29</f>
+        <v>28.798747306526245</v>
+      </c>
+      <c r="F30" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="26">
+        <v>2038</v>
+      </c>
+      <c r="B31" s="26">
+        <f>Emissions_intensity!B31*GDP・POP!G30</f>
+        <v>23.967463663258783</v>
+      </c>
+      <c r="C31" s="26">
+        <f>Emissions_intensity!C31*GDP・POP!H30</f>
+        <v>23.967463663258783</v>
+      </c>
+      <c r="D31" s="1">
+        <f>Emissions_intensity!D31/10^3*GDP・POP!G30</f>
+        <v>28.664223668573722</v>
+      </c>
+      <c r="E31" s="1">
+        <f>Emissions_intensity!E31/10^3*GDP・POP!H30</f>
+        <v>28.664223668573722</v>
+      </c>
+      <c r="F31" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="26">
+        <v>2039</v>
+      </c>
+      <c r="B32" s="26">
+        <f>Emissions_intensity!B32*GDP・POP!G31</f>
+        <v>23.854982319205849</v>
+      </c>
+      <c r="C32" s="26">
+        <f>Emissions_intensity!C32*GDP・POP!H31</f>
+        <v>23.854982319205849</v>
+      </c>
+      <c r="D32" s="1">
+        <f>Emissions_intensity!D32/10^3*GDP・POP!G31</f>
+        <v>28.529700030621257</v>
+      </c>
+      <c r="E32" s="1">
+        <f>Emissions_intensity!E32/10^3*GDP・POP!H31</f>
+        <v>28.529700030621257</v>
+      </c>
+      <c r="F32" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="26">
+        <v>2040</v>
+      </c>
+      <c r="B33" s="26">
+        <f>Emissions_intensity!B33*GDP・POP!G32</f>
+        <v>23.742500975152865</v>
+      </c>
+      <c r="C33" s="26">
+        <f>Emissions_intensity!C33*GDP・POP!H32</f>
+        <v>23.742500975152865</v>
+      </c>
+      <c r="D33" s="1">
+        <f>Emissions_intensity!D33/10^3*GDP・POP!G32</f>
+        <v>28.395176392668731</v>
+      </c>
+      <c r="E33" s="1">
+        <f>Emissions_intensity!E33/10^3*GDP・POP!H32</f>
+        <v>28.395176392668731</v>
+      </c>
+      <c r="F33" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="26">
+        <v>2041</v>
+      </c>
+      <c r="B34" s="26">
+        <f>Emissions_intensity!B34*GDP・POP!G33</f>
+        <v>23.63001963109993</v>
+      </c>
+      <c r="C34" s="26">
+        <f>Emissions_intensity!C34*GDP・POP!H33</f>
+        <v>23.63001963109993</v>
+      </c>
+      <c r="D34" s="1">
+        <f>Emissions_intensity!D34/10^3*GDP・POP!G33</f>
+        <v>28.260652754716265</v>
+      </c>
+      <c r="E34" s="1">
+        <f>Emissions_intensity!E34/10^3*GDP・POP!H33</f>
+        <v>28.260652754716265</v>
+      </c>
+      <c r="F34" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="26">
+        <v>2042</v>
+      </c>
+      <c r="B35" s="26">
+        <f>Emissions_intensity!B35*GDP・POP!G34</f>
+        <v>23.51753828704695</v>
+      </c>
+      <c r="C35" s="26">
+        <f>Emissions_intensity!C35*GDP・POP!H34</f>
+        <v>23.51753828704695</v>
+      </c>
+      <c r="D35" s="1">
+        <f>Emissions_intensity!D35/10^3*GDP・POP!G34</f>
+        <v>28.126129116763742</v>
+      </c>
+      <c r="E35" s="1">
+        <f>Emissions_intensity!E35/10^3*GDP・POP!H34</f>
+        <v>28.126129116763742</v>
+      </c>
+      <c r="F35" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="26">
+        <v>2043</v>
+      </c>
+      <c r="B36" s="26">
+        <f>Emissions_intensity!B36*GDP・POP!G35</f>
+        <v>23.405056942994015</v>
+      </c>
+      <c r="C36" s="26">
+        <f>Emissions_intensity!C36*GDP・POP!H35</f>
+        <v>23.405056942994015</v>
+      </c>
+      <c r="D36" s="1">
+        <f>Emissions_intensity!D36/10^3*GDP・POP!G35</f>
+        <v>27.991605478811277</v>
+      </c>
+      <c r="E36" s="1">
+        <f>Emissions_intensity!E36/10^3*GDP・POP!H35</f>
+        <v>27.991605478811277</v>
+      </c>
+      <c r="F36" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="26">
+        <v>2044</v>
+      </c>
+      <c r="B37" s="26">
+        <f>Emissions_intensity!B37*GDP・POP!G36</f>
+        <v>23.292575598941031</v>
+      </c>
+      <c r="C37" s="26">
+        <f>Emissions_intensity!C37*GDP・POP!H36</f>
+        <v>23.292575598941031</v>
+      </c>
+      <c r="D37" s="1">
+        <f>Emissions_intensity!D37/10^3*GDP・POP!G36</f>
+        <v>27.857081840858751</v>
+      </c>
+      <c r="E37" s="1">
+        <f>Emissions_intensity!E37/10^3*GDP・POP!H36</f>
+        <v>27.857081840858751</v>
+      </c>
+      <c r="F37" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="26">
+        <v>2045</v>
+      </c>
+      <c r="B38" s="26">
+        <f>Emissions_intensity!B38*GDP・POP!G37</f>
+        <v>23.180094254888097</v>
+      </c>
+      <c r="C38" s="26">
+        <f>Emissions_intensity!C38*GDP・POP!H37</f>
+        <v>23.180094254888097</v>
+      </c>
+      <c r="D38" s="1">
+        <f>Emissions_intensity!D38/10^3*GDP・POP!G37</f>
+        <v>27.722558202906285</v>
+      </c>
+      <c r="E38" s="1">
+        <f>Emissions_intensity!E38/10^3*GDP・POP!H37</f>
+        <v>27.722558202906285</v>
+      </c>
+      <c r="F38" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="26">
+        <v>2046</v>
+      </c>
+      <c r="B39" s="26">
+        <f>Emissions_intensity!B39*GDP・POP!G38</f>
+        <v>23.067612910835113</v>
+      </c>
+      <c r="C39" s="26">
+        <f>Emissions_intensity!C39*GDP・POP!H38</f>
+        <v>23.067612910835113</v>
+      </c>
+      <c r="D39" s="1">
+        <f>Emissions_intensity!D39/10^3*GDP・POP!G38</f>
+        <v>27.588034564953762</v>
+      </c>
+      <c r="E39" s="1">
+        <f>Emissions_intensity!E39/10^3*GDP・POP!H38</f>
+        <v>27.588034564953762</v>
+      </c>
+      <c r="F39" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="26">
+        <v>2047</v>
+      </c>
+      <c r="B40" s="26">
+        <f>Emissions_intensity!B40*GDP・POP!G39</f>
+        <v>22.955131566782178</v>
+      </c>
+      <c r="C40" s="26">
+        <f>Emissions_intensity!C40*GDP・POP!H39</f>
+        <v>22.955131566782178</v>
+      </c>
+      <c r="D40" s="1">
+        <f>Emissions_intensity!D40/10^3*GDP・POP!G39</f>
+        <v>27.453510927001297</v>
+      </c>
+      <c r="E40" s="1">
+        <f>Emissions_intensity!E40/10^3*GDP・POP!H39</f>
+        <v>27.453510927001297</v>
+      </c>
+      <c r="F40" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="26">
+        <v>2048</v>
+      </c>
+      <c r="B41" s="26">
+        <f>Emissions_intensity!B41*GDP・POP!G40</f>
+        <v>22.842650222729198</v>
+      </c>
+      <c r="C41" s="26">
+        <f>Emissions_intensity!C41*GDP・POP!H40</f>
+        <v>22.842650222729198</v>
+      </c>
+      <c r="D41" s="1">
+        <f>Emissions_intensity!D41/10^3*GDP・POP!G40</f>
+        <v>27.318987289048771</v>
+      </c>
+      <c r="E41" s="1">
+        <f>Emissions_intensity!E41/10^3*GDP・POP!H40</f>
+        <v>27.318987289048771</v>
+      </c>
+      <c r="F41" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="26">
+        <v>2049</v>
+      </c>
+      <c r="B42" s="26">
+        <f>Emissions_intensity!B42*GDP・POP!G41</f>
+        <v>22.730168878676213</v>
+      </c>
+      <c r="C42" s="26">
+        <f>Emissions_intensity!C42*GDP・POP!H41</f>
+        <v>22.730168878676213</v>
+      </c>
+      <c r="D42" s="1">
+        <f>Emissions_intensity!D42/10^3*GDP・POP!G41</f>
+        <v>27.184463651096248</v>
+      </c>
+      <c r="E42" s="1">
+        <f>Emissions_intensity!E42/10^3*GDP・POP!H41</f>
+        <v>27.184463651096248</v>
+      </c>
+      <c r="F42" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="26">
+        <v>2050</v>
+      </c>
+      <c r="B43" s="26">
+        <f>Emissions_intensity!B43*GDP・POP!G42</f>
+        <v>22.617687534623279</v>
+      </c>
+      <c r="C43" s="26">
+        <f>Emissions_intensity!C43*GDP・POP!H42</f>
+        <v>22.617687534623279</v>
+      </c>
+      <c r="D43" s="1">
+        <f>Emissions_intensity!D43/10^3*GDP・POP!G42</f>
+        <v>27.049940013143782</v>
+      </c>
+      <c r="E43" s="1">
+        <f>Emissions_intensity!E43/10^3*GDP・POP!H42</f>
+        <v>27.049940013143782</v>
+      </c>
+      <c r="F43" s="26">
+        <v>-54.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F232DE2-A209-4371-A5A3-29AEA220A30D}">
   <dimension ref="A1:E43"/>
   <sheetViews>
@@ -20438,7 +22364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A58BC9A-A430-47A8-A1CA-91E2EA212219}">
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="114" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -21163,11 +23089,215 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EB8EE6-6DE4-4F0C-A317-22373F150486}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="9.4140625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="61"/>
+      <c r="B1" s="61">
+        <v>2010</v>
+      </c>
+      <c r="C1" s="61">
+        <v>2020</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="61">
+        <f>部門別CO2排出量!P3</f>
+        <v>269.51474216725944</v>
+      </c>
+      <c r="C2" s="61">
+        <f>部門別CO2排出量!P4</f>
+        <v>209.4235083709562</v>
+      </c>
+      <c r="D2" s="61">
+        <f>部門別CO2排出量!P7</f>
+        <v>257.81349782866999</v>
+      </c>
+      <c r="E2" s="61">
+        <f>部門別CO2排出量!AD7</f>
+        <v>93.150161810712746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="61">
+        <f>部門別CO2排出量!P8</f>
+        <v>249.02275586606845</v>
+      </c>
+      <c r="C3" s="61">
+        <f>部門別CO2排出量!P9</f>
+        <v>196.15609230500672</v>
+      </c>
+      <c r="D3" s="61">
+        <f>部門別CO2排出量!P12</f>
+        <v>170.69003462550376</v>
+      </c>
+      <c r="E3" s="61">
+        <f>部門別CO2排出量!AD12</f>
+        <v>28.182457372852973</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="61">
+        <f>部門別CO2排出量!P13</f>
+        <v>63.618347666356769</v>
+      </c>
+      <c r="C4" s="61">
+        <f>部門別CO2排出量!P14</f>
+        <v>52.883709709806709</v>
+      </c>
+      <c r="D4" s="61">
+        <f>部門別CO2排出量!P17</f>
+        <v>65.1157721973603</v>
+      </c>
+      <c r="E4" s="61">
+        <f>部門別CO2排出量!AD17</f>
+        <v>21.518222119446794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="61">
+        <f>部門別CO2排出量!P18</f>
+        <v>69.588005432578569</v>
+      </c>
+      <c r="C5" s="61">
+        <f>部門別CO2排出量!P14</f>
+        <v>52.883709709806709</v>
+      </c>
+      <c r="D5" s="61">
+        <f>部門別CO2排出量!P22</f>
+        <v>52.398256859873904</v>
+      </c>
+      <c r="E5" s="61">
+        <f>部門別CO2排出量!AD22</f>
+        <v>14.401000180636146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="61">
+        <f>部門別CO2排出量!P28</f>
+        <v>28.775119328906975</v>
+      </c>
+      <c r="C6" s="61">
+        <f>部門別CO2排出量!P29</f>
+        <v>25.99212785621209</v>
+      </c>
+      <c r="D6" s="61">
+        <f>部門別CO2排出量!P32</f>
+        <v>22.617687534623279</v>
+      </c>
+      <c r="E6" s="61">
+        <f>部門別CO2排出量!AD32</f>
+        <v>22.617687534623279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="61">
+        <f>部門別CO2排出量!P33</f>
+        <v>29.46362437612942</v>
+      </c>
+      <c r="C7" s="61">
+        <f>部門別CO2排出量!P34</f>
+        <v>31.085649151718691</v>
+      </c>
+      <c r="D7" s="61">
+        <f>部門別CO2排出量!P37</f>
+        <v>27.049940013143782</v>
+      </c>
+      <c r="E7" s="61">
+        <f>部門別CO2排出量!AD37</f>
+        <v>27.049940013143782</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="61">
+        <f>部門別CO2排出量!P38</f>
+        <v>-54.3</v>
+      </c>
+      <c r="C8" s="61">
+        <f>部門別CO2排出量!P39</f>
+        <v>-54.3</v>
+      </c>
+      <c r="D8" s="61">
+        <f>部門別CO2排出量!P42</f>
+        <v>-54.3</v>
+      </c>
+      <c r="E8" s="61">
+        <f>部門別CO2排出量!AD42</f>
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="61">
+        <f>SUM(B2:B8)</f>
+        <v>655.68259483729969</v>
+      </c>
+      <c r="C9" s="61">
+        <f t="shared" ref="C9:E9" si="0">SUM(C2:C8)</f>
+        <v>514.12479710350715</v>
+      </c>
+      <c r="D9" s="61">
+        <f t="shared" si="0"/>
+        <v>541.3851890591751</v>
+      </c>
+      <c r="E9" s="61">
+        <f t="shared" si="0"/>
+        <v>152.61946903141575</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACBDC0A-B774-4127-9811-6E05EDCA9F07}">
   <dimension ref="A1:AD47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -21300,38 +23430,58 @@
       <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9">
         <v>2010</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="22">
         <f>最終エネルギー消費!C3*EMF!$A$2</f>
         <v>168.69760916942491</v>
       </c>
-      <c r="E3">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9">
         <f>最終エネルギー消費!D3*EMF!$C$2</f>
         <v>75.40279918389281</v>
       </c>
-      <c r="G3">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9">
         <f>最終エネルギー消費!E3*EMF!$E$2</f>
         <v>25.414333813941703</v>
       </c>
-      <c r="P3" s="5">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="13">
         <f t="shared" ref="P3" si="0">SUM(C3:O3)</f>
         <v>269.51474216725944</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="22">
         <f>最終エネルギー消費!H3*EMF!$A$2</f>
         <v>168.69760916942491</v>
       </c>
-      <c r="S3">
+      <c r="R3" s="9"/>
+      <c r="S3" s="9">
         <f>最終エネルギー消費!I3*EMF!$C$2</f>
         <v>75.40279918389281</v>
       </c>
-      <c r="U3">
+      <c r="T3" s="9"/>
+      <c r="U3" s="9">
         <f>最終エネルギー消費!J3*EMF!$E$2</f>
         <v>25.414333813941703</v>
       </c>
-      <c r="AD3" s="5">
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="13">
         <f t="shared" ref="AD3" si="1">SUM(Q3:AC3)</f>
         <v>269.51474216725944</v>
       </c>
@@ -21341,18 +23491,28 @@
       <c r="B4" s="5">
         <v>2020</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="60">
         <f>最終エネルギー消費!C4*EMF!$A$2</f>
         <v>132.3380610859279</v>
       </c>
-      <c r="E4">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60">
         <f>最終エネルギー消費!D4*EMF!$C$2</f>
         <v>53.323639580392673</v>
       </c>
-      <c r="G4">
+      <c r="F4" s="60"/>
+      <c r="G4" s="60">
         <f>最終エネルギー消費!E4*EMF!$E$2</f>
         <v>23.761807704635633</v>
       </c>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
       <c r="P4" s="5">
         <f t="shared" ref="P4:P27" si="2">SUM(C4:O4)</f>
         <v>209.4235083709562</v>
@@ -21361,14 +23521,24 @@
         <f>最終エネルギー消費!H4*EMF!$A$2</f>
         <v>132.3380610859279</v>
       </c>
-      <c r="S4">
+      <c r="R4" s="60"/>
+      <c r="S4" s="60">
         <f>最終エネルギー消費!I4*EMF!$C$2</f>
         <v>53.323639580392673</v>
       </c>
-      <c r="U4">
+      <c r="T4" s="60"/>
+      <c r="U4" s="60">
         <f>最終エネルギー消費!J4*EMF!$E$2</f>
         <v>23.761807704635633</v>
       </c>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
       <c r="AD4" s="5">
         <f t="shared" ref="AD4:AD27" si="3">SUM(Q4:AC4)</f>
         <v>209.4235083709562</v>
@@ -21383,14 +23553,24 @@
         <f>最終エネルギー消費!C5*EMF!$A$2</f>
         <v>142.5308635887223</v>
       </c>
-      <c r="E5">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60">
         <f>最終エネルギー消費!D5*EMF!$C$2</f>
         <v>57.43067668304618</v>
       </c>
-      <c r="G5">
+      <c r="F5" s="60"/>
+      <c r="G5" s="60">
         <f>最終エネルギー消費!E5*EMF!$E$2</f>
         <v>25.591964585092473</v>
       </c>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
       <c r="P5" s="5">
         <f t="shared" si="2"/>
         <v>225.55350485686097</v>
@@ -21399,14 +23579,24 @@
         <f>最終エネルギー消費!H5*EMF!$A$2</f>
         <v>113.7271053961117</v>
       </c>
-      <c r="S5">
+      <c r="R5" s="60"/>
+      <c r="S5" s="60">
         <f>最終エネルギー消費!I5*EMF!$C$2</f>
         <v>35.734643269450885</v>
       </c>
-      <c r="U5">
+      <c r="T5" s="60"/>
+      <c r="U5" s="60">
         <f>最終エネルギー消費!J5*EMF!$E$2</f>
         <v>21.838397763864261</v>
       </c>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
       <c r="AD5" s="5">
         <f t="shared" si="3"/>
         <v>171.30014642942686</v>
@@ -21421,14 +23611,24 @@
         <f>最終エネルギー消費!C6*EMF!$A$2</f>
         <v>152.72366609151638</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="60"/>
+      <c r="E6" s="60">
         <f>最終エネルギー消費!D6*EMF!$C$2</f>
         <v>61.537713785699566</v>
       </c>
-      <c r="G6">
+      <c r="F6" s="60"/>
+      <c r="G6" s="60">
         <f>最終エネルギー消費!E6*EMF!$E$2</f>
         <v>27.422121465549267</v>
       </c>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
       <c r="P6" s="5">
         <f t="shared" si="2"/>
         <v>241.68350134276523</v>
@@ -21437,93 +23637,143 @@
         <f>最終エネルギー消費!H6*EMF!$A$2</f>
         <v>94.627478028803196</v>
       </c>
-      <c r="S6">
+      <c r="R6" s="60"/>
+      <c r="S6" s="60">
         <f>最終エネルギー消費!I6*EMF!$C$2</f>
         <v>17.77756176031318</v>
       </c>
-      <c r="U6">
+      <c r="T6" s="60"/>
+      <c r="U6" s="60">
         <f>最終エネルギー消費!J6*EMF!$E$2</f>
         <v>19.691538269266186</v>
       </c>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="60"/>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60"/>
       <c r="AD6" s="5">
         <f t="shared" si="3"/>
         <v>132.09657805838256</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="19"/>
-      <c r="B7" s="5">
+      <c r="A7" s="18"/>
+      <c r="B7" s="14">
         <v>2050</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <f>最終エネルギー消費!C7*EMF!$A$2</f>
         <v>162.9164685943108</v>
       </c>
-      <c r="E7">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
         <f>最終エネルギー消費!D7*EMF!$C$2</f>
         <v>65.644750888353087</v>
       </c>
-      <c r="G7">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12">
         <f>最終エネルギー消費!E7*EMF!$E$2</f>
         <v>29.252278346006115</v>
       </c>
-      <c r="P7" s="5">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="14">
         <f t="shared" si="2"/>
         <v>257.81349782866999</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7" s="18">
         <f>最終エネルギー消費!H7*EMF!$A$2</f>
         <v>75.766181942489425</v>
       </c>
-      <c r="S7">
+      <c r="R7" s="12"/>
+      <c r="S7" s="12">
         <f>最終エネルギー消費!I7*EMF!$C$2</f>
         <v>0</v>
       </c>
-      <c r="U7">
+      <c r="T7" s="12"/>
+      <c r="U7" s="12">
         <f>最終エネルギー消費!J7*EMF!$E$2</f>
         <v>17.383979868223317</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="14">
         <f t="shared" si="3"/>
         <v>93.150161810712746</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="9">
         <v>2010</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="22">
         <f>最終エネルギー消費!C8*EMF!$A$2</f>
         <v>3.973198793248256E-3</v>
       </c>
-      <c r="E8">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
         <f>最終エネルギー消費!D8*EMF!$C$2</f>
         <v>248.7831066388554</v>
       </c>
-      <c r="G8">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9">
         <f>最終エネルギー消費!E8*EMF!$E$2</f>
         <v>0.23567602841977606</v>
       </c>
-      <c r="P8" s="5">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="13">
         <f t="shared" ref="P8" si="4">SUM(C8:O8)</f>
         <v>249.02275586606845</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8" s="22">
         <f>最終エネルギー消費!H8*EMF!$A$2</f>
         <v>3.973198793248256E-3</v>
       </c>
-      <c r="S8">
+      <c r="R8" s="9"/>
+      <c r="S8" s="9">
         <f>最終エネルギー消費!I8*EMF!$C$2</f>
         <v>248.7831066388554</v>
       </c>
-      <c r="U8">
+      <c r="T8" s="9"/>
+      <c r="U8" s="9">
         <f>最終エネルギー消費!J8*EMF!$E$2</f>
         <v>0.23567602841977606</v>
       </c>
-      <c r="AD8" s="5">
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="13">
         <f t="shared" ref="AD8" si="5">SUM(Q8:AC8)</f>
         <v>249.02275586606845</v>
       </c>
@@ -21537,14 +23787,24 @@
         <f>最終エネルギー消費!C9*EMF!$A$2</f>
         <v>3.4056013022136823E-3</v>
       </c>
-      <c r="E9">
+      <c r="D9" s="60"/>
+      <c r="E9" s="60">
         <f>最終エネルギー消費!D9*EMF!$C$2</f>
         <v>196.0930523809019</v>
       </c>
-      <c r="G9">
+      <c r="F9" s="60"/>
+      <c r="G9" s="60">
         <f>最終エネルギー消費!E9*EMF!$E$2</f>
         <v>5.9634322802619794E-2</v>
       </c>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
       <c r="P9" s="5">
         <f t="shared" si="2"/>
         <v>196.15609230500672</v>
@@ -21553,14 +23813,24 @@
         <f>最終エネルギー消費!H9*EMF!$A$2</f>
         <v>3.4056013022136823E-3</v>
       </c>
-      <c r="S9">
+      <c r="R9" s="60"/>
+      <c r="S9" s="60">
         <f>最終エネルギー消費!I9*EMF!$C$2</f>
         <v>196.0930523809019</v>
       </c>
-      <c r="U9">
+      <c r="T9" s="60"/>
+      <c r="U9" s="60">
         <f>最終エネルギー消費!J9*EMF!$E$2</f>
         <v>5.9634322802619794E-2</v>
       </c>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="60"/>
       <c r="AD9" s="5">
         <f t="shared" si="3"/>
         <v>196.15609230500672</v>
@@ -21575,14 +23845,24 @@
         <f>最終エネルギー消費!C10*EMF!$A$2</f>
         <v>3.2582233676711017E-3</v>
       </c>
-      <c r="E10">
+      <c r="D10" s="60"/>
+      <c r="E10" s="60">
         <f>最終エネルギー消費!D10*EMF!$C$2</f>
         <v>187.60709455041183</v>
       </c>
-      <c r="G10">
+      <c r="F10" s="60"/>
+      <c r="G10" s="60">
         <f>最終エネルギー消費!E10*EMF!$E$2</f>
         <v>5.7053638059287454E-2</v>
       </c>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
       <c r="P10" s="5">
         <f t="shared" si="2"/>
         <v>187.66740641183881</v>
@@ -21591,14 +23871,24 @@
         <f>最終エネルギー消費!H10*EMF!$A$2</f>
         <v>2.0273389843286816E-3</v>
       </c>
-      <c r="S10">
+      <c r="R10" s="60"/>
+      <c r="S10" s="60">
         <f>最終エネルギー消費!I10*EMF!$C$2</f>
         <v>128.78324868044155</v>
       </c>
-      <c r="U10">
+      <c r="T10" s="60"/>
+      <c r="U10" s="60">
         <f>最終エネルギー消費!J10*EMF!$E$2</f>
         <v>3.5500041459112494E-2</v>
       </c>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="60"/>
       <c r="AD10" s="5">
         <f t="shared" si="3"/>
         <v>128.82077606088498</v>
@@ -21613,14 +23903,24 @@
         <f>最終エネルギー消費!C11*EMF!$A$2</f>
         <v>3.1108454331285288E-3</v>
       </c>
-      <c r="E11">
+      <c r="D11" s="60"/>
+      <c r="E11" s="60">
         <f>最終エネルギー消費!D11*EMF!$C$2</f>
         <v>179.12113671992219</v>
       </c>
-      <c r="G11">
+      <c r="F11" s="60"/>
+      <c r="G11" s="60">
         <f>最終エネルギー消費!E11*EMF!$E$2</f>
         <v>5.4472953315955239E-2</v>
       </c>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
       <c r="P11" s="5">
         <f t="shared" si="2"/>
         <v>179.17872051867127</v>
@@ -21629,93 +23929,143 @@
         <f>最終エネルギー消費!H11*EMF!$A$2</f>
         <v>8.9868868068157342E-4</v>
       </c>
-      <c r="S11">
+      <c r="R11" s="60"/>
+      <c r="S11" s="60">
         <f>最終エネルギー消費!I11*EMF!$C$2</f>
         <v>73.112339677870622</v>
       </c>
-      <c r="U11">
+      <c r="T11" s="60"/>
+      <c r="U11" s="60">
         <f>最終エネルギー消費!J11*EMF!$E$2</f>
         <v>1.5736630957942761E-2</v>
       </c>
+      <c r="V11" s="60"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="60"/>
       <c r="AD11" s="5">
         <f t="shared" si="3"/>
         <v>73.128974997509246</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="19"/>
-      <c r="B12" s="5">
+      <c r="A12" s="18"/>
+      <c r="B12" s="14">
         <v>2050</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <f>最終エネルギー消費!C12*EMF!$A$2</f>
         <v>2.963467498585956E-3</v>
       </c>
-      <c r="E12">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
         <f>最終エネルギー消費!D12*EMF!$C$2</f>
         <v>170.63517888943255</v>
       </c>
-      <c r="G12">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12">
         <f>最終エネルギー消費!E12*EMF!$E$2</f>
         <v>5.1892268572623024E-2</v>
       </c>
-      <c r="P12" s="5">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="14">
         <f t="shared" si="2"/>
         <v>170.69003462550376</v>
       </c>
-      <c r="Q12" s="19">
+      <c r="Q12" s="18">
         <f>最終エネルギー消費!H12*EMF!$A$2</f>
         <v>0</v>
       </c>
-      <c r="S12">
+      <c r="R12" s="12"/>
+      <c r="S12" s="12">
         <f>最終エネルギー消費!I12*EMF!$C$2</f>
         <v>28.182457372852973</v>
       </c>
-      <c r="U12">
+      <c r="T12" s="12"/>
+      <c r="U12" s="12">
         <f>最終エネルギー消費!J12*EMF!$E$2</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="5">
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="14">
         <f t="shared" si="3"/>
         <v>28.182457372852973</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="9">
         <v>2010</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="22">
         <f>最終エネルギー消費!C13*EMF!$A$2</f>
         <v>0.96900480888730678</v>
       </c>
-      <c r="E13">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
         <f>最終エネルギー消費!D13*EMF!$C$2</f>
         <v>42.400280288081049</v>
       </c>
-      <c r="G13">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9">
         <f>最終エネルギー消費!E13*EMF!$E$2</f>
         <v>20.249062569388411</v>
       </c>
-      <c r="P13" s="5">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="13">
         <f t="shared" ref="P13" si="6">SUM(C13:O13)</f>
         <v>63.618347666356769</v>
       </c>
-      <c r="Q13" s="19">
+      <c r="Q13" s="22">
         <f>最終エネルギー消費!H13*EMF!$A$2</f>
         <v>0.96900480888730678</v>
       </c>
-      <c r="S13">
+      <c r="R13" s="9"/>
+      <c r="S13" s="9">
         <f>最終エネルギー消費!I13*EMF!$C$2</f>
         <v>42.400280288081049</v>
       </c>
-      <c r="U13">
+      <c r="T13" s="9"/>
+      <c r="U13" s="9">
         <f>最終エネルギー消費!J13*EMF!$E$2</f>
         <v>20.249062569388411</v>
       </c>
-      <c r="AD13" s="5">
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="13">
         <f t="shared" ref="AD13" si="7">SUM(Q13:AC13)</f>
         <v>63.618347666356769</v>
       </c>
@@ -21729,14 +24079,24 @@
         <f>最終エネルギー消費!C14*EMF!$A$2</f>
         <v>0.49682243506185331</v>
       </c>
-      <c r="E14">
+      <c r="D14" s="60"/>
+      <c r="E14" s="60">
         <f>最終エネルギー消費!D14*EMF!$C$2</f>
         <v>35.428605890437012</v>
       </c>
-      <c r="G14">
+      <c r="F14" s="60"/>
+      <c r="G14" s="60">
         <f>最終エネルギー消費!E14*EMF!$E$2</f>
         <v>16.958281384307849</v>
       </c>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
       <c r="P14" s="5">
         <f t="shared" si="2"/>
         <v>52.883709709806709</v>
@@ -21745,14 +24105,24 @@
         <f>最終エネルギー消費!H14*EMF!$A$2</f>
         <v>0.49682243506185331</v>
       </c>
-      <c r="S14">
+      <c r="R14" s="60"/>
+      <c r="S14" s="60">
         <f>最終エネルギー消費!I14*EMF!$C$2</f>
         <v>35.428605890437012</v>
       </c>
-      <c r="U14">
+      <c r="T14" s="60"/>
+      <c r="U14" s="60">
         <f>最終エネルギー消費!J14*EMF!$E$2</f>
         <v>16.958281384307849</v>
       </c>
+      <c r="V14" s="60"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="60"/>
       <c r="AD14" s="5">
         <f t="shared" si="3"/>
         <v>52.883709709806709</v>
@@ -21767,14 +24137,24 @@
         <f>最終エネルギー消費!C15*EMF!$A$2</f>
         <v>0.54821177254081621</v>
       </c>
-      <c r="E15">
+      <c r="D15" s="60"/>
+      <c r="E15" s="60">
         <f>最終エネルギー消費!D15*EMF!$C$2</f>
         <v>39.093200031170952</v>
       </c>
-      <c r="G15">
+      <c r="F15" s="60"/>
+      <c r="G15" s="60">
         <f>最終エネルギー消費!E15*EMF!$E$2</f>
         <v>18.712378590109179</v>
       </c>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
       <c r="P15" s="5">
         <f t="shared" si="2"/>
         <v>58.353790393820944</v>
@@ -21783,14 +24163,24 @@
         <f>最終エネルギー消費!H15*EMF!$A$2</f>
         <v>0.34110954735872889</v>
       </c>
-      <c r="S15">
+      <c r="R15" s="60"/>
+      <c r="S15" s="60">
         <f>最終エネルギー消費!I15*EMF!$C$2</f>
         <v>24.324657797172996</v>
       </c>
-      <c r="U15">
+      <c r="T15" s="60"/>
+      <c r="U15" s="60">
         <f>最終エネルギー消費!J15*EMF!$E$2</f>
         <v>19.142455385919003</v>
       </c>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="60"/>
+      <c r="AB15" s="60"/>
+      <c r="AC15" s="60"/>
       <c r="AD15" s="5">
         <f t="shared" si="3"/>
         <v>43.80822273045073</v>
@@ -21805,14 +24195,24 @@
         <f>最終エネルギー消費!C16*EMF!$A$2</f>
         <v>0.57587374374803946</v>
       </c>
-      <c r="E16">
+      <c r="D16" s="60"/>
+      <c r="E16" s="60">
         <f>最終エネルギー消費!D16*EMF!$C$2</f>
         <v>41.065786224729862</v>
       </c>
-      <c r="G16">
+      <c r="F16" s="60"/>
+      <c r="G16" s="60">
         <f>最終エネルギー消費!E16*EMF!$E$2</f>
         <v>19.65657808327078</v>
       </c>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
       <c r="P16" s="5">
         <f t="shared" si="2"/>
         <v>61.298238051748683</v>
@@ -21821,68 +24221,146 @@
         <f>最終エネルギー消費!H16*EMF!$A$2</f>
         <v>0.16636352597165532</v>
       </c>
-      <c r="S16">
+      <c r="R16" s="60"/>
+      <c r="S16" s="60">
         <f>最終エネルギー消費!I16*EMF!$C$2</f>
         <v>11.863449353810832</v>
       </c>
-      <c r="U16">
+      <c r="T16" s="60"/>
+      <c r="U16" s="60">
         <f>最終エネルギー消費!J16*EMF!$E$2</f>
         <v>20.308388579977095</v>
       </c>
+      <c r="V16" s="60"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="60"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="60"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="60"/>
       <c r="AD16" s="5">
         <f t="shared" si="3"/>
         <v>32.338201459759581</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="19"/>
-      <c r="B17" s="5">
+      <c r="A17" s="18"/>
+      <c r="B17" s="14">
         <v>2050</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="18">
         <f>最終エネルギー消費!C17*EMF!$A$2</f>
         <v>0.61173803202437471</v>
       </c>
-      <c r="E17">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12">
         <f>最終エネルギー消費!D17*EMF!$C$2</f>
         <v>43.623282918141285</v>
       </c>
-      <c r="G17">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12">
         <f>最終エネルギー消費!E17*EMF!$E$2</f>
         <v>20.880751247194638</v>
       </c>
-      <c r="P17" s="5">
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="14">
         <f t="shared" si="2"/>
         <v>65.1157721973603</v>
       </c>
-      <c r="Q17" s="19">
+      <c r="Q17" s="18">
         <f>最終エネルギー消費!H17*EMF!$A$2</f>
         <v>0</v>
       </c>
-      <c r="S17">
+      <c r="R17" s="12"/>
+      <c r="S17" s="12">
         <f>最終エネルギー消費!I17*EMF!$C$2</f>
         <v>0</v>
       </c>
-      <c r="U17">
+      <c r="T17" s="12"/>
+      <c r="U17" s="12">
         <f>最終エネルギー消費!J17*EMF!$E$2</f>
         <v>21.518222119446794</v>
       </c>
-      <c r="AD17" s="5">
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="14">
         <f t="shared" si="3"/>
         <v>21.518222119446794</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="9">
         <v>2010</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="19"/>
-      <c r="AD18" s="5"/>
+      <c r="C18" s="22">
+        <f>最終エネルギー消費!C18*EMF!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9">
+        <f>最終エネルギー消費!D18*EMF!$C$2</f>
+        <v>47.818764337521316</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
+        <f>最終エネルギー消費!E18*EMF!$E$2</f>
+        <v>21.769241095057257</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="13">
+        <f t="shared" ref="P18" si="8">SUM(C18:O18)</f>
+        <v>69.588005432578569</v>
+      </c>
+      <c r="Q18" s="22">
+        <f>最終エネルギー消費!H18*EMF!$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9">
+        <f>最終エネルギー消費!I18*EMF!$C$2</f>
+        <v>47.818764337521316</v>
+      </c>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9">
+        <f>最終エネルギー消費!J18*EMF!$E$2</f>
+        <v>21.769241095057257</v>
+      </c>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="13">
+        <f t="shared" ref="AD18" si="9">SUM(Q18:AC18)</f>
+        <v>69.588005432578569</v>
+      </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="19"/>
@@ -21893,14 +24371,24 @@
         <f>最終エネルギー消費!C19*EMF!$A$2</f>
         <v>0</v>
       </c>
-      <c r="E19">
+      <c r="D19" s="60"/>
+      <c r="E19" s="60">
         <f>最終エネルギー消費!D19*EMF!$C$2</f>
         <v>38.223923354952127</v>
       </c>
-      <c r="G19">
+      <c r="F19" s="60"/>
+      <c r="G19" s="60">
         <f>最終エネルギー消費!E19*EMF!$E$2</f>
         <v>21.991878532823371</v>
       </c>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
       <c r="P19" s="5">
         <f t="shared" si="2"/>
         <v>60.215801887775498</v>
@@ -21909,14 +24397,24 @@
         <f>最終エネルギー消費!H19*EMF!$A$2</f>
         <v>0</v>
       </c>
-      <c r="S19">
+      <c r="R19" s="60"/>
+      <c r="S19" s="60">
         <f>最終エネルギー消費!I19*EMF!$C$2</f>
         <v>38.223923354952127</v>
       </c>
-      <c r="U19">
+      <c r="T19" s="60"/>
+      <c r="U19" s="60">
         <f>最終エネルギー消費!J19*EMF!$E$2</f>
         <v>21.991878532823371</v>
       </c>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="60"/>
+      <c r="AB19" s="60"/>
+      <c r="AC19" s="60"/>
       <c r="AD19" s="5">
         <f t="shared" si="3"/>
         <v>60.215801887775498</v>
@@ -21931,14 +24429,24 @@
         <f>最終エネルギー消費!C20*EMF!$A$2</f>
         <v>0</v>
       </c>
-      <c r="E20">
+      <c r="D20" s="60"/>
+      <c r="E20" s="60">
         <f>最終エネルギー消費!D20*EMF!$C$2</f>
         <v>36.569777031216297</v>
       </c>
-      <c r="G20">
+      <c r="F20" s="60"/>
+      <c r="G20" s="60">
         <f>最終エネルギー消費!E20*EMF!$E$2</f>
         <v>21.040176513925253</v>
       </c>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
       <c r="P20" s="5">
         <f t="shared" si="2"/>
         <v>57.609953545141551</v>
@@ -21947,14 +24455,24 @@
         <f>最終エネルギー消費!H20*EMF!$A$2</f>
         <v>0</v>
       </c>
-      <c r="S20">
+      <c r="R20" s="60"/>
+      <c r="S20" s="60">
         <f>最終エネルギー消費!I20*EMF!$C$2</f>
         <v>22.754527930534529</v>
       </c>
-      <c r="U20">
+      <c r="T20" s="60"/>
+      <c r="U20" s="60">
         <f>最終エネルギー消費!J20*EMF!$E$2</f>
         <v>19.249086779932245</v>
       </c>
+      <c r="V20" s="60"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="60"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="60"/>
+      <c r="AB20" s="60"/>
+      <c r="AC20" s="60"/>
       <c r="AD20" s="5">
         <f t="shared" si="3"/>
         <v>42.003614710466778</v>
@@ -21969,14 +24487,24 @@
         <f>最終エネルギー消費!C21*EMF!$A$2</f>
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="D21" s="60"/>
+      <c r="E21" s="60">
         <f>最終エネルギー消費!D21*EMF!$C$2</f>
         <v>34.915630707480545</v>
       </c>
-      <c r="G21">
+      <c r="F21" s="60"/>
+      <c r="G21" s="60">
         <f>最終エネルギー消費!E21*EMF!$E$2</f>
         <v>20.088474495027189</v>
       </c>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
       <c r="P21" s="5">
         <f t="shared" si="2"/>
         <v>55.004105202507731</v>
@@ -21985,174 +24513,204 @@
         <f>最終エネルギー消費!H21*EMF!$A$2</f>
         <v>0</v>
       </c>
-      <c r="S21">
+      <c r="R21" s="60"/>
+      <c r="S21" s="60">
         <f>最終エネルギー消費!I21*EMF!$C$2</f>
         <v>10.086737759939002</v>
       </c>
-      <c r="U21">
+      <c r="T21" s="60"/>
+      <c r="U21" s="60">
         <f>最終エネルギー消費!J21*EMF!$E$2</f>
         <v>16.721303832351172</v>
       </c>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="60"/>
       <c r="AD21" s="5">
         <f t="shared" si="3"/>
         <v>26.808041592290174</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="19"/>
-      <c r="B22" s="5">
+      <c r="A22" s="18"/>
+      <c r="B22" s="14">
         <v>2050</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="18">
         <f>最終エネルギー消費!C22*EMF!$A$2</f>
         <v>0</v>
       </c>
-      <c r="E22">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12">
         <f>最終エネルギー消費!D22*EMF!$C$2</f>
         <v>33.261484383744786</v>
       </c>
-      <c r="G22">
+      <c r="F22" s="12"/>
+      <c r="G22" s="12">
         <f>最終エネルギー消費!E22*EMF!$E$2</f>
         <v>19.136772476129117</v>
       </c>
-      <c r="P22" s="5">
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="14">
         <f t="shared" si="2"/>
         <v>52.398256859873904</v>
       </c>
-      <c r="Q22" s="19">
+      <c r="Q22" s="18">
         <f>最終エネルギー消費!H22*EMF!$A$2</f>
         <v>0</v>
       </c>
-      <c r="S22">
+      <c r="R22" s="12"/>
+      <c r="S22" s="12">
         <f>最終エネルギー消費!I22*EMF!$C$2</f>
         <v>0</v>
       </c>
-      <c r="U22">
+      <c r="T22" s="12"/>
+      <c r="U22" s="12">
         <f>最終エネルギー消費!J22*EMF!$E$2</f>
         <v>14.401000180636146</v>
       </c>
-      <c r="AD22" s="5">
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="14">
         <f t="shared" si="3"/>
         <v>14.401000180636146</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="9">
         <v>2010</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="22">
         <f>発電電力量!B3/eELE!B$12*EMF!A$2</f>
         <v>267.5179159898201</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="9">
         <f>発電電力量!C3/eELE!C$12*EMF!B$2</f>
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="9">
         <f>発電電力量!D3/eELE!D$12*EMF!C$2</f>
         <v>77.844129870141998</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="9">
         <f>発電電力量!E3/eELE!E$12*EMF!D$2</f>
         <v>0</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="9">
         <f>発電電力量!F3/eELE!F$12*EMF!E$2</f>
         <v>131.01750869997144</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="9">
         <f>発電電力量!G3/eELE!G$12*EMF!F$2</f>
         <v>0</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="9">
         <f>発電電力量!H3/eELE!H$12*EMF!G$2</f>
         <v>0</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="9">
         <f>発電電力量!I3/eELE!I$12*EMF!H$2</f>
         <v>-16.262534753254329</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="9">
         <f>発電電力量!J3/eELE!J$12*EMF!I$2</f>
         <v>0</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="9">
         <f>発電電力量!K3/eELE!K$12*EMF!J$2</f>
         <v>0</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="9">
         <f>発電電力量!L3/eELE!L$12*EMF!K$2</f>
         <v>0</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="9">
         <f>発電電力量!M3/eELE!M$12*EMF!L$2</f>
         <v>0</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="9">
         <f>発電電力量!N3/eELE!N$12*EMF!M$2</f>
         <v>0</v>
       </c>
-      <c r="P23" s="5">
-        <f t="shared" ref="P23" si="8">SUM(C23:O23)</f>
+      <c r="P23" s="13">
+        <f t="shared" ref="P23" si="10">SUM(C23:O23)</f>
         <v>460.11701980667925</v>
       </c>
-      <c r="Q23" s="19">
+      <c r="Q23" s="22">
         <f>発電電力量!O3/eELE!B$12*EMF!A$2</f>
         <v>267.5179159898201</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="9">
         <f>発電電力量!P3/eELE!C$12*EMF!B$2</f>
         <v>0</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="9">
         <f>発電電力量!Q3/eELE!D$12*EMF!C$2</f>
         <v>77.844129870141998</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="9">
         <f>発電電力量!R3/eELE!E$12*EMF!D$2</f>
         <v>0</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="9">
         <f>発電電力量!S3/eELE!F$12*EMF!E$2</f>
         <v>131.01750869997144</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="9">
         <f>発電電力量!T3/eELE!G$12*EMF!F$2</f>
         <v>0</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="9">
         <f>発電電力量!U3/eELE!H$12*EMF!G$2</f>
         <v>0</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="9">
         <f>発電電力量!V3/eELE!I$12*EMF!H$2</f>
         <v>-16.262534753254329</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="9">
         <f>発電電力量!W3/eELE!J$12*EMF!I$2</f>
         <v>0</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="9">
         <f>発電電力量!X3/eELE!K$12*EMF!J$2</f>
         <v>0</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="9">
         <f>発電電力量!Y3/eELE!L$12*EMF!K$2</f>
         <v>0</v>
       </c>
-      <c r="AB23">
+      <c r="AB23" s="9">
         <f>発電電力量!Z3/eELE!M$12*EMF!L$2</f>
         <v>0</v>
       </c>
-      <c r="AC23">
+      <c r="AC23" s="9">
         <f>発電電力量!AA3/eELE!N$12*EMF!M$2</f>
         <v>0</v>
       </c>
-      <c r="AD23" s="5">
-        <f t="shared" ref="AD23" si="9">SUM(Q23:AC23)</f>
+      <c r="AD23" s="13">
+        <f t="shared" ref="AD23" si="11">SUM(Q23:AC23)</f>
         <v>460.11701980667925</v>
       </c>
     </row>
@@ -22165,51 +24723,51 @@
         <f>発電電力量!B4/eELE!B$12*EMF!A$2</f>
         <v>264.44944548536438</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="60">
         <f>発電電力量!C4/eELE!C$12*EMF!B$2</f>
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="60">
         <f>発電電力量!D4/eELE!D$12*EMF!C$2</f>
         <v>27.564130382266114</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="60">
         <f>発電電力量!E4/eELE!E$12*EMF!D$2</f>
         <v>0</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="60">
         <f>発電電力量!F4/eELE!F$12*EMF!E$2</f>
         <v>156.99196133531524</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="60">
         <f>発電電力量!G4/eELE!G$12*EMF!F$2</f>
         <v>0</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="60">
         <f>発電電力量!H4/eELE!H$12*EMF!G$2</f>
         <v>0</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="60">
         <f>発電電力量!I4/eELE!I$12*EMF!H$2</f>
         <v>-36.500777680667703</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="60">
         <f>発電電力量!J4/eELE!J$12*EMF!I$2</f>
         <v>0</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="60">
         <f>発電電力量!K4/eELE!K$12*EMF!J$2</f>
         <v>0</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="60">
         <f>発電電力量!L4/eELE!L$12*EMF!K$2</f>
         <v>0</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="60">
         <f>発電電力量!M4/eELE!M$12*EMF!L$2</f>
         <v>0</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="60">
         <f>発電電力量!N4/eELE!N$12*EMF!M$2</f>
         <v>0</v>
       </c>
@@ -22221,51 +24779,51 @@
         <f>発電電力量!O4/eELE!B$12*EMF!A$2</f>
         <v>264.44944548536438</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="60">
         <f>発電電力量!P4/eELE!C$12*EMF!B$2</f>
         <v>0</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="60">
         <f>発電電力量!Q4/eELE!D$12*EMF!C$2</f>
         <v>27.564130382266114</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="60">
         <f>発電電力量!R4/eELE!E$12*EMF!D$2</f>
         <v>0</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="60">
         <f>発電電力量!S4/eELE!F$12*EMF!E$2</f>
         <v>156.99196133531524</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="60">
         <f>発電電力量!T4/eELE!G$12*EMF!F$2</f>
         <v>0</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="60">
         <f>発電電力量!U4/eELE!H$12*EMF!G$2</f>
         <v>0</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="60">
         <f>発電電力量!V4/eELE!I$12*EMF!H$2</f>
         <v>-36.500777680667703</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" s="60">
         <f>発電電力量!W4/eELE!J$12*EMF!I$2</f>
         <v>0</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" s="60">
         <f>発電電力量!X4/eELE!K$12*EMF!J$2</f>
         <v>0</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="60">
         <f>発電電力量!Y4/eELE!L$12*EMF!K$2</f>
         <v>0</v>
       </c>
-      <c r="AB24">
+      <c r="AB24" s="60">
         <f>発電電力量!Z4/eELE!M$12*EMF!L$2</f>
         <v>0</v>
       </c>
-      <c r="AC24">
+      <c r="AC24" s="60">
         <f>発電電力量!AA4/eELE!N$12*EMF!M$2</f>
         <v>0</v>
       </c>
@@ -22283,51 +24841,51 @@
         <f>発電電力量!B5/eELE!B$12*EMF!A$2</f>
         <v>277.27284856892135</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="60">
         <f>発電電力量!C5/eELE!C$12*EMF!B$2</f>
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="60">
         <f>発電電力量!D5/eELE!D$12*EMF!C$2</f>
         <v>28.900741067498508</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="60">
         <f>発電電力量!E5/eELE!E$12*EMF!D$2</f>
         <v>0</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="60">
         <f>発電電力量!F5/eELE!F$12*EMF!E$2</f>
         <v>164.60464964096104</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="60">
         <f>発電電力量!G5/eELE!G$12*EMF!F$2</f>
         <v>0</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="60">
         <f>発電電力量!H5/eELE!H$12*EMF!G$2</f>
         <v>0</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="60">
         <f>発電電力量!I5/eELE!I$12*EMF!H$2</f>
         <v>-38.270734823907041</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="60">
         <f>発電電力量!J5/eELE!J$12*EMF!I$2</f>
         <v>0</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="60">
         <f>発電電力量!K5/eELE!K$12*EMF!J$2</f>
         <v>0</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="60">
         <f>発電電力量!L5/eELE!L$12*EMF!K$2</f>
         <v>0</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="60">
         <f>発電電力量!M5/eELE!M$12*EMF!L$2</f>
         <v>0</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="60">
         <f>発電電力量!N5/eELE!N$12*EMF!M$2</f>
         <v>0</v>
       </c>
@@ -22339,51 +24897,51 @@
         <f>発電電力量!O5/eELE!B$12*EMF!A$2</f>
         <v>211.7319643073441</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="60">
         <f>発電電力量!P5/eELE!C$12*EMF!B$2</f>
         <v>1.6888460092638917</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="60">
         <f>発電電力量!Q5/eELE!D$12*EMF!C$2</f>
         <v>22.069274751358812</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="60">
         <f>発電電力量!R5/eELE!E$12*EMF!D$2</f>
         <v>0</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="60">
         <f>発電電力量!S5/eELE!F$12*EMF!E$2</f>
         <v>125.69592003863212</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="60">
         <f>発電電力量!T5/eELE!G$12*EMF!F$2</f>
         <v>0.78966390996663616</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="60">
         <f>発電電力量!U5/eELE!H$12*EMF!G$2</f>
         <v>0</v>
       </c>
-      <c r="X25">
+      <c r="X25" s="60">
         <f>発電電力量!V5/eELE!I$12*EMF!H$2</f>
         <v>-29.224418840769037</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" s="60">
         <f>発電電力量!W5/eELE!J$12*EMF!I$2</f>
         <v>0</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="60">
         <f>発電電力量!X5/eELE!K$12*EMF!J$2</f>
         <v>0</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="60">
         <f>発電電力量!Y5/eELE!L$12*EMF!K$2</f>
         <v>0</v>
       </c>
-      <c r="AB25">
+      <c r="AB25" s="60">
         <f>発電電力量!Z5/eELE!M$12*EMF!L$2</f>
         <v>0</v>
       </c>
-      <c r="AC25">
+      <c r="AC25" s="60">
         <f>発電電力量!AA5/eELE!N$12*EMF!M$2</f>
         <v>0</v>
       </c>
@@ -22401,51 +24959,51 @@
         <f>発電電力量!B6/eELE!B$12*EMF!A$2</f>
         <v>285.8197479893862</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="60">
         <f>発電電力量!C6/eELE!C$12*EMF!B$2</f>
         <v>0</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="60">
         <f>発電電力量!D6/eELE!D$12*EMF!C$2</f>
         <v>29.791602644301648</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="60">
         <f>発電電力量!E6/eELE!E$12*EMF!D$2</f>
         <v>0</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="60">
         <f>発電電力量!F6/eELE!F$12*EMF!E$2</f>
         <v>169.67856651339667</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="60">
         <f>発電電力量!G6/eELE!G$12*EMF!F$2</f>
         <v>0</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="60">
         <f>発電電力量!H6/eELE!H$12*EMF!G$2</f>
         <v>0</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="60">
         <f>発電電力量!I6/eELE!I$12*EMF!H$2</f>
         <v>-39.450425237070263</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="60">
         <f>発電電力量!J6/eELE!J$12*EMF!I$2</f>
         <v>0</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="60">
         <f>発電電力量!K6/eELE!K$12*EMF!J$2</f>
         <v>0</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="60">
         <f>発電電力量!L6/eELE!L$12*EMF!K$2</f>
         <v>0</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="60">
         <f>発電電力量!M6/eELE!M$12*EMF!L$2</f>
         <v>0</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="60">
         <f>発電電力量!N6/eELE!N$12*EMF!M$2</f>
         <v>0</v>
       </c>
@@ -22457,51 +25015,51 @@
         <f>発電電力量!O6/eELE!B$12*EMF!A$2</f>
         <v>119.19964980416492</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="60">
         <f>発電電力量!P6/eELE!C$12*EMF!B$2</f>
         <v>3.8031074530665592</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="60">
         <f>発電電力量!Q6/eELE!D$12*EMF!C$2</f>
         <v>12.424434026292232</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="60">
         <f>発電電力量!R6/eELE!E$12*EMF!D$2</f>
         <v>0</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="60">
         <f>発電電力量!S6/eELE!F$12*EMF!E$2</f>
         <v>70.76356987208861</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="60">
         <f>発電電力量!T6/eELE!G$12*EMF!F$2</f>
         <v>1.7782418793296451</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="60">
         <f>発電電力量!U6/eELE!H$12*EMF!G$2</f>
         <v>0</v>
       </c>
-      <c r="X26">
+      <c r="X26" s="60">
         <f>発電電力量!V6/eELE!I$12*EMF!H$2</f>
         <v>-16.452596106336159</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" s="60">
         <f>発電電力量!W6/eELE!J$12*EMF!I$2</f>
         <v>0</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="60">
         <f>発電電力量!X6/eELE!K$12*EMF!J$2</f>
         <v>0</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="60">
         <f>発電電力量!Y6/eELE!L$12*EMF!K$2</f>
         <v>0</v>
       </c>
-      <c r="AB26">
+      <c r="AB26" s="60">
         <f>発電電力量!Z6/eELE!M$12*EMF!L$2</f>
         <v>0</v>
       </c>
-      <c r="AC26">
+      <c r="AC26" s="60">
         <f>発電電力量!AA6/eELE!N$12*EMF!M$2</f>
         <v>0</v>
       </c>
@@ -22511,137 +25069,161 @@
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="19"/>
-      <c r="B27" s="5">
+      <c r="A27" s="18"/>
+      <c r="B27" s="14">
         <v>2050</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="18">
         <f>発電電力量!B7/eELE!B$12*EMF!A$2</f>
         <v>295.84499265011829</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="12">
         <f>発電電力量!C7/eELE!C$12*EMF!B$2</f>
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="12">
         <f>発電電力量!D7/eELE!D$12*EMF!C$2</f>
         <v>30.836555302210812</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="12">
         <f>発電電力量!E7/eELE!E$12*EMF!D$2</f>
         <v>0</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="12">
         <f>発電電力量!F7/eELE!F$12*EMF!E$2</f>
         <v>175.63011169159157</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="12">
         <f>発電電力量!G7/eELE!G$12*EMF!F$2</f>
         <v>0</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="12">
         <f>発電電力量!H7/eELE!H$12*EMF!G$2</f>
         <v>0</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="12">
         <f>発電電力量!I7/eELE!I$12*EMF!H$2</f>
         <v>-40.834165051249357</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="12">
         <f>発電電力量!J7/eELE!J$12*EMF!I$2</f>
         <v>0</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="12">
         <f>発電電力量!K7/eELE!K$12*EMF!J$2</f>
         <v>0</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="12">
         <f>発電電力量!L7/eELE!L$12*EMF!K$2</f>
         <v>0</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="12">
         <f>発電電力量!M7/eELE!M$12*EMF!L$2</f>
         <v>0</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="12">
         <f>発電電力量!N7/eELE!N$12*EMF!M$2</f>
         <v>0</v>
       </c>
-      <c r="P27" s="5">
+      <c r="P27" s="14">
         <f t="shared" si="2"/>
         <v>461.47749459267129</v>
       </c>
-      <c r="Q27" s="19">
+      <c r="Q27" s="18">
         <f>発電電力量!O7/eELE!B$12*EMF!A$2</f>
         <v>0</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="12">
         <f>発電電力量!P7/eELE!C$12*EMF!B$2</f>
         <v>6.2219972847989258</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="12">
         <f>発電電力量!Q7/eELE!D$12*EMF!C$2</f>
         <v>0</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="12">
         <f>発電電力量!R7/eELE!E$12*EMF!D$2</f>
         <v>0</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="12">
         <f>発電電力量!S7/eELE!F$12*EMF!E$2</f>
         <v>0</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="12">
         <f>発電電力量!T7/eELE!G$12*EMF!F$2</f>
         <v>2.9092567805265097</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="12">
         <f>発電電力量!U7/eELE!H$12*EMF!G$2</f>
         <v>0</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="12">
         <f>発電電力量!V7/eELE!I$12*EMF!H$2</f>
         <v>0</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="12">
         <f>発電電力量!W7/eELE!J$12*EMF!I$2</f>
         <v>0</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="12">
         <f>発電電力量!X7/eELE!K$12*EMF!J$2</f>
         <v>0</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="12">
         <f>発電電力量!Y7/eELE!L$12*EMF!K$2</f>
         <v>0</v>
       </c>
-      <c r="AB27">
+      <c r="AB27" s="12">
         <f>発電電力量!Z7/eELE!M$12*EMF!L$2</f>
         <v>0</v>
       </c>
-      <c r="AC27">
+      <c r="AC27" s="12">
         <f>発電電力量!AA7/eELE!N$12*EMF!M$2</f>
         <v>0</v>
       </c>
-      <c r="AD27" s="5">
+      <c r="AD27" s="14">
         <f t="shared" si="3"/>
         <v>9.1312540653254359</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="9">
         <v>2010</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="P28" s="5">
+      <c r="C28" s="22"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="13">
         <f>Emissions!B3</f>
         <v>28.775119328906975</v>
       </c>
-      <c r="Q28" s="19"/>
-      <c r="AD28" s="5">
+      <c r="Q28" s="22"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="13">
         <f>Emissions!C3</f>
         <v>28.775119328906975</v>
       </c>
@@ -22652,11 +25234,35 @@
         <v>2020</v>
       </c>
       <c r="C29" s="19"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
       <c r="P29" s="5">
         <f>Emissions!B13</f>
         <v>25.99212785621209</v>
       </c>
       <c r="Q29" s="19"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="60"/>
+      <c r="AB29" s="60"/>
+      <c r="AC29" s="60"/>
       <c r="AD29" s="5">
         <f>Emissions!C13</f>
         <v>25.99212785621209</v>
@@ -22668,11 +25274,35 @@
         <v>2030</v>
       </c>
       <c r="C30" s="19"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
       <c r="P30" s="5">
         <f>Emissions!B23</f>
         <v>24.867314415682454</v>
       </c>
       <c r="Q30" s="19"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
       <c r="AD30" s="5">
         <f>Emissions!C23</f>
         <v>24.867314415682454</v>
@@ -22684,46 +25314,118 @@
         <v>2040</v>
       </c>
       <c r="C31" s="19"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
       <c r="P31" s="5">
         <f>Emissions!B33</f>
         <v>23.742500975152865</v>
       </c>
       <c r="Q31" s="19"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="60"/>
+      <c r="Z31" s="60"/>
+      <c r="AA31" s="60"/>
+      <c r="AB31" s="60"/>
+      <c r="AC31" s="60"/>
       <c r="AD31" s="5">
         <f>Emissions!C33</f>
         <v>23.742500975152865</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="19"/>
-      <c r="B32" s="5">
+      <c r="A32" s="18"/>
+      <c r="B32" s="14">
         <v>2050</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="P32" s="5">
+      <c r="C32" s="18"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="14">
         <f>Emissions!B43</f>
         <v>22.617687534623279</v>
       </c>
-      <c r="Q32" s="19"/>
-      <c r="AD32" s="5">
+      <c r="Q32" s="18"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="14">
         <f>Emissions!C43</f>
         <v>22.617687534623279</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="9">
         <v>2010</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="P33" s="5">
+      <c r="C33" s="22"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="13">
         <f>Emissions!D3</f>
         <v>29.46362437612942</v>
       </c>
-      <c r="Q33" s="19"/>
-      <c r="AD33" s="5">
+      <c r="Q33" s="22"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="13">
         <f>Emissions!E3</f>
         <v>29.46362437612942</v>
       </c>
@@ -22734,11 +25436,35 @@
         <v>2020</v>
       </c>
       <c r="C34" s="19"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
       <c r="P34" s="5">
         <f>Emissions!D13</f>
         <v>31.085649151718691</v>
       </c>
       <c r="Q34" s="19"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="60"/>
+      <c r="AB34" s="60"/>
+      <c r="AC34" s="60"/>
       <c r="AD34" s="5">
         <f>Emissions!E13</f>
         <v>31.085649151718691</v>
@@ -22750,11 +25476,35 @@
         <v>2030</v>
       </c>
       <c r="C35" s="19"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
       <c r="P35" s="5">
         <f>Emissions!D23</f>
         <v>29.740412772193682</v>
       </c>
       <c r="Q35" s="19"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="60"/>
+      <c r="AB35" s="60"/>
+      <c r="AC35" s="60"/>
       <c r="AD35" s="5">
         <f>Emissions!E23</f>
         <v>29.740412772193682</v>
@@ -22766,46 +25516,118 @@
         <v>2040</v>
       </c>
       <c r="C36" s="19"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
       <c r="P36" s="5">
         <f>Emissions!D33</f>
         <v>28.395176392668731</v>
       </c>
       <c r="Q36" s="19"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="60"/>
+      <c r="AA36" s="60"/>
+      <c r="AB36" s="60"/>
+      <c r="AC36" s="60"/>
       <c r="AD36" s="5">
         <f>Emissions!E33</f>
         <v>28.395176392668731</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="19"/>
-      <c r="B37" s="5">
+      <c r="A37" s="18"/>
+      <c r="B37" s="14">
         <v>2050</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="P37" s="5">
+      <c r="C37" s="18"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="14">
         <f>Emissions!D43</f>
         <v>27.049940013143782</v>
       </c>
-      <c r="Q37" s="19"/>
-      <c r="AD37" s="5">
+      <c r="Q37" s="18"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="14">
         <f>Emissions!E43</f>
         <v>27.049940013143782</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="9">
         <v>2010</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="P38" s="5">
+      <c r="C38" s="22"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="13">
         <f>Emissions!$F$3</f>
         <v>-54.3</v>
       </c>
-      <c r="Q38" s="19"/>
-      <c r="AD38" s="5">
+      <c r="Q38" s="22"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9"/>
+      <c r="AC38" s="9"/>
+      <c r="AD38" s="13">
         <f>Emissions!$F$3</f>
         <v>-54.3</v>
       </c>
@@ -22816,11 +25638,35 @@
         <v>2020</v>
       </c>
       <c r="C39" s="19"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="60"/>
       <c r="P39" s="5">
         <f>Emissions!$F$3</f>
         <v>-54.3</v>
       </c>
       <c r="Q39" s="19"/>
+      <c r="R39" s="60"/>
+      <c r="S39" s="60"/>
+      <c r="T39" s="60"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="60"/>
+      <c r="W39" s="60"/>
+      <c r="X39" s="60"/>
+      <c r="Y39" s="60"/>
+      <c r="Z39" s="60"/>
+      <c r="AA39" s="60"/>
+      <c r="AB39" s="60"/>
+      <c r="AC39" s="60"/>
       <c r="AD39" s="5">
         <f>Emissions!$F$3</f>
         <v>-54.3</v>
@@ -22832,11 +25678,35 @@
         <v>2030</v>
       </c>
       <c r="C40" s="19"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
       <c r="P40" s="5">
         <f>Emissions!$F$3</f>
         <v>-54.3</v>
       </c>
       <c r="Q40" s="19"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="60"/>
+      <c r="T40" s="60"/>
+      <c r="U40" s="60"/>
+      <c r="V40" s="60"/>
+      <c r="W40" s="60"/>
+      <c r="X40" s="60"/>
+      <c r="Y40" s="60"/>
+      <c r="Z40" s="60"/>
+      <c r="AA40" s="60"/>
+      <c r="AB40" s="60"/>
+      <c r="AC40" s="60"/>
       <c r="AD40" s="5">
         <f>Emissions!$F$3</f>
         <v>-54.3</v>
@@ -22848,28 +25718,76 @@
         <v>2040</v>
       </c>
       <c r="C41" s="19"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
       <c r="P41" s="5">
         <f>Emissions!$F$3</f>
         <v>-54.3</v>
       </c>
       <c r="Q41" s="19"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="60"/>
+      <c r="U41" s="60"/>
+      <c r="V41" s="60"/>
+      <c r="W41" s="60"/>
+      <c r="X41" s="60"/>
+      <c r="Y41" s="60"/>
+      <c r="Z41" s="60"/>
+      <c r="AA41" s="60"/>
+      <c r="AB41" s="60"/>
+      <c r="AC41" s="60"/>
       <c r="AD41" s="5">
         <f>Emissions!$F$3</f>
         <v>-54.3</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="19"/>
-      <c r="B42" s="5">
+      <c r="A42" s="18"/>
+      <c r="B42" s="14">
         <v>2050</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="P42" s="5">
+      <c r="C42" s="18"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="14">
         <f>Emissions!$F$3</f>
         <v>-54.3</v>
       </c>
-      <c r="Q42" s="19"/>
-      <c r="AD42" s="5">
+      <c r="Q42" s="18"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="14">
         <f>Emissions!$F$3</f>
         <v>-54.3</v>
       </c>
@@ -22886,112 +25804,112 @@
         <v>437.18850316692556</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43:AC43" si="10">SUM(D3,D8,D13,D18,D23,D28,D33,D38)</f>
+        <f t="shared" ref="D43:AC43" si="12">SUM(D3,D8,D13,D18,D23,D28,D33,D38)</f>
         <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" si="10"/>
-        <v>444.43031598097127</v>
+        <f t="shared" si="12"/>
+        <v>492.24908031849259</v>
       </c>
       <c r="F43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G43">
-        <f t="shared" si="10"/>
-        <v>176.91658111172131</v>
+        <f t="shared" si="12"/>
+        <v>198.6858222067786</v>
       </c>
       <c r="H43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-16.262534753254329</v>
       </c>
       <c r="K43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P43" s="5">
-        <f t="shared" si="10"/>
-        <v>1046.2116092114004</v>
+        <f>SUM(P3,P8,P13,P18,P23,P28,P33,P38)</f>
+        <v>1115.7996146439791</v>
       </c>
       <c r="Q43" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>437.18850316692556</v>
       </c>
       <c r="R43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S43">
-        <f t="shared" si="10"/>
-        <v>444.43031598097127</v>
+        <f t="shared" si="12"/>
+        <v>492.24908031849259</v>
       </c>
       <c r="T43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U43">
-        <f t="shared" si="10"/>
-        <v>176.91658111172131</v>
+        <f t="shared" si="12"/>
+        <v>198.6858222067786</v>
       </c>
       <c r="V43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-16.262534753254329</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD43" s="5">
         <f>SUM(AD3,AD8,AD13,AD18,AD23,AD28,AD33,AD38)</f>
-        <v>1046.2116092114004</v>
+        <v>1115.7996146439791</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -23000,115 +25918,115 @@
         <v>2020</v>
       </c>
       <c r="C44" s="19">
-        <f t="shared" ref="C44:AD44" si="11">SUM(C4,C9,C14,C19,C24,C29,C34,C39)</f>
+        <f t="shared" ref="C44:AD44" si="13">SUM(C4,C9,C14,C19,C24,C29,C34,C39)</f>
         <v>397.28773460765638</v>
       </c>
       <c r="D44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>350.63335158894984</v>
       </c>
       <c r="F44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>219.76356327988472</v>
       </c>
       <c r="H44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-36.500777680667703</v>
       </c>
       <c r="K44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>933.96164880375397</v>
       </c>
       <c r="Q44" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>397.28773460765638</v>
       </c>
       <c r="R44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>350.63335158894984</v>
       </c>
       <c r="T44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>219.76356327988472</v>
       </c>
       <c r="V44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-36.500777680667703</v>
       </c>
       <c r="Y44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD44" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>933.96164880375397</v>
       </c>
     </row>
@@ -23118,115 +26036,115 @@
         <v>2030</v>
       </c>
       <c r="C45" s="19">
-        <f t="shared" ref="C45:AD45" si="12">SUM(C5,C10,C15,C20,C25,C30,C35,C40)</f>
+        <f t="shared" ref="C45:AD45" si="14">SUM(C5,C10,C15,C20,C25,C30,C35,C40)</f>
         <v>420.35518215355216</v>
       </c>
       <c r="D45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>349.60148936334377</v>
       </c>
       <c r="F45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>230.00622296814723</v>
       </c>
       <c r="H45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-38.270734823907041</v>
       </c>
       <c r="K45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P45" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>961.99988684901234</v>
       </c>
       <c r="Q45" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>325.80220658979886</v>
       </c>
       <c r="R45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.6888460092638917</v>
       </c>
       <c r="S45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>233.66635242895876</v>
       </c>
       <c r="T45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>185.96136000980675</v>
       </c>
       <c r="V45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.78966390996663616</v>
       </c>
       <c r="W45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-29.224418840769037</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD45" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>718.99173729490212</v>
       </c>
     </row>
@@ -23236,115 +26154,115 @@
         <v>2040</v>
       </c>
       <c r="C46" s="19">
-        <f t="shared" ref="C46:AD46" si="13">SUM(C6,C11,C16,C21,C26,C31,C36,C41)</f>
+        <f t="shared" ref="C46:AD46" si="15">SUM(C6,C11,C16,C21,C26,C31,C36,C41)</f>
         <v>439.12239867008373</v>
       </c>
       <c r="D46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>346.4318700821338</v>
       </c>
       <c r="F46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>236.90021351055987</v>
       </c>
       <c r="H46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-39.450425237070263</v>
       </c>
       <c r="K46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P46" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>980.8417343935289</v>
       </c>
       <c r="Q46" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>213.99439004762047</v>
       </c>
       <c r="R46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.8031074530665592</v>
       </c>
       <c r="S46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>125.26452257822586</v>
       </c>
       <c r="T46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>127.500537184641</v>
       </c>
       <c r="V46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.7782418793296451</v>
       </c>
       <c r="W46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-16.452596106336159</v>
       </c>
       <c r="Y46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AC46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AD46" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>453.72588040436898</v>
       </c>
     </row>
@@ -23354,115 +26272,115 @@
         <v>2050</v>
       </c>
       <c r="C47" s="18">
-        <f t="shared" ref="C47:AD47" si="14">SUM(C7,C12,C17,C22,C27,C32,C37,C42)</f>
+        <f t="shared" ref="C47:AD47" si="16">SUM(C7,C12,C17,C22,C27,C32,C37,C42)</f>
         <v>459.37616274395202</v>
       </c>
       <c r="D47" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E47" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>344.00125238188252</v>
       </c>
       <c r="F47" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G47" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>244.95180602949407</v>
       </c>
       <c r="H47" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I47" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J47" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-40.834165051249357</v>
       </c>
       <c r="K47" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L47" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M47" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N47" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O47" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P47" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1002.8626836518463</v>
       </c>
       <c r="Q47" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>75.766181942489425</v>
       </c>
       <c r="R47" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.2219972847989258</v>
       </c>
       <c r="S47" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>28.182457372852973</v>
       </c>
       <c r="T47" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U47" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>53.303202168306257</v>
       </c>
       <c r="V47" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.9092567805265097</v>
       </c>
       <c r="W47" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X47" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y47" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z47" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA47" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB47" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC47" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD47" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>161.75072309674118</v>
       </c>
     </row>
@@ -23476,7 +26394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC3C506-0CAE-420D-9102-F4E7E5F88D99}">
   <dimension ref="A1:B42"/>
   <sheetViews>
@@ -23834,7 +26752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DF1A00-9924-4803-9296-06B9A3124432}">
   <dimension ref="A1:H45"/>
   <sheetViews>
@@ -24987,7 +27905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927AF4A7-4AA5-47BE-8010-41C5D856CFFA}">
   <dimension ref="A1:I45"/>
   <sheetViews>
@@ -26538,1910 +29456,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9D3627-AF3F-4743-A4A8-7979E2664556}">
-  <dimension ref="A1:K42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="12.4140625" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="11" width="12.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="34" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="26">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <f>GDP・POP!C2*Intensity!B2/10^6</f>
-        <v>3.8323569999999987</v>
-      </c>
-      <c r="C2">
-        <f>GDP・POP!D2*Intensity!C2/10^6</f>
-        <v>3.8323569999999987</v>
-      </c>
-      <c r="D2">
-        <f>GDP・POP!G2*Intensity!D2/10^6</f>
-        <v>3.2924740000000092</v>
-      </c>
-      <c r="E2">
-        <f>GDP・POP!H2*Intensity!E2/10^6</f>
-        <v>3.2924740000000092</v>
-      </c>
-      <c r="F2">
-        <f>GDP・POP!C2*COMFLOOR!$B2*Intensity!F2/10^6</f>
-        <v>2.2019719999999978</v>
-      </c>
-      <c r="G2">
-        <f>GDP・POP!D2*COMFLOOR!$B2*Intensity!G2/10^6</f>
-        <v>2.2019719999999978</v>
-      </c>
-      <c r="H2">
-        <f>GDP・POP!G2*Intensity!H2/10^6</f>
-        <v>2.0901920000000063</v>
-      </c>
-      <c r="I2">
-        <f>GDP・POP!H2*Intensity!I2/10^6</f>
-        <v>2.0901920000000063</v>
-      </c>
-      <c r="J2">
-        <f>SUM(B2,D2,F2,H2)</f>
-        <v>11.416995000000011</v>
-      </c>
-      <c r="K2">
-        <f>SUM(C2,E2,G2,I2)</f>
-        <v>11.416995000000011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="26">
-        <v>2011</v>
-      </c>
-      <c r="B3">
-        <f>GDP・POP!C3*Intensity!B3/10^6</f>
-        <v>3.8506600000000013</v>
-      </c>
-      <c r="C3">
-        <f>GDP・POP!D3*Intensity!C3/10^6</f>
-        <v>3.8506600000000013</v>
-      </c>
-      <c r="D3">
-        <f>GDP・POP!G3*Intensity!D3/10^6</f>
-        <v>3.2119450000000063</v>
-      </c>
-      <c r="E3">
-        <f>GDP・POP!H3*Intensity!E3/10^6</f>
-        <v>3.2119450000000063</v>
-      </c>
-      <c r="F3">
-        <f>GDP・POP!C3*COMFLOOR!$B3*Intensity!F3/10^6</f>
-        <v>2.1886420000000029</v>
-      </c>
-      <c r="G3">
-        <f>GDP・POP!D3*COMFLOOR!$B3*Intensity!G3/10^6</f>
-        <v>2.1886420000000029</v>
-      </c>
-      <c r="H3">
-        <f>GDP・POP!G3*Intensity!H3/10^6</f>
-        <v>2.0092050000000072</v>
-      </c>
-      <c r="I3">
-        <f>GDP・POP!H3*Intensity!I3/10^6</f>
-        <v>2.0092050000000072</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J42" si="0">SUM(B3,D3,F3,H3)</f>
-        <v>11.260452000000017</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K42" si="1">SUM(C3,E3,G3,I3)</f>
-        <v>11.260452000000017</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="26">
-        <v>2012</v>
-      </c>
-      <c r="B4">
-        <f>GDP・POP!C4*Intensity!B4/10^6</f>
-        <v>3.7769820000000056</v>
-      </c>
-      <c r="C4">
-        <f>GDP・POP!D4*Intensity!C4/10^6</f>
-        <v>3.7769820000000056</v>
-      </c>
-      <c r="D4">
-        <f>GDP・POP!G4*Intensity!D4/10^6</f>
-        <v>3.1784780000000028</v>
-      </c>
-      <c r="E4">
-        <f>GDP・POP!H4*Intensity!E4/10^6</f>
-        <v>3.1784780000000028</v>
-      </c>
-      <c r="F4">
-        <f>GDP・POP!C4*COMFLOOR!$B4*Intensity!F4/10^6</f>
-        <v>2.1012579999999956</v>
-      </c>
-      <c r="G4">
-        <f>GDP・POP!D4*COMFLOOR!$B4*Intensity!G4/10^6</f>
-        <v>2.1012579999999956</v>
-      </c>
-      <c r="H4">
-        <f>GDP・POP!G4*Intensity!H4/10^6</f>
-        <v>2.0301499999999999</v>
-      </c>
-      <c r="I4">
-        <f>GDP・POP!H4*Intensity!I4/10^6</f>
-        <v>2.0301499999999999</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>11.086868000000003</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>11.086868000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="26">
-        <v>2013</v>
-      </c>
-      <c r="B5">
-        <f>GDP・POP!C5*Intensity!B5/10^6</f>
-        <v>3.7794760000000003</v>
-      </c>
-      <c r="C5">
-        <f>GDP・POP!D5*Intensity!C5/10^6</f>
-        <v>3.7794760000000003</v>
-      </c>
-      <c r="D5">
-        <f>GDP・POP!G5*Intensity!D5/10^6</f>
-        <v>3.1417440000000023</v>
-      </c>
-      <c r="E5">
-        <f>GDP・POP!H5*Intensity!E5/10^6</f>
-        <v>3.1417440000000023</v>
-      </c>
-      <c r="F5">
-        <f>GDP・POP!C5*COMFLOOR!$B5*Intensity!F5/10^6</f>
-        <v>2.2138839999999984</v>
-      </c>
-      <c r="G5">
-        <f>GDP・POP!D5*COMFLOOR!$B5*Intensity!G5/10^6</f>
-        <v>2.2138839999999984</v>
-      </c>
-      <c r="H5">
-        <f>GDP・POP!G5*Intensity!H5/10^6</f>
-        <v>1.9773710000000002</v>
-      </c>
-      <c r="I5">
-        <f>GDP・POP!H5*Intensity!I5/10^6</f>
-        <v>1.9773710000000002</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>11.112475000000002</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>11.112475000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="26">
-        <v>2014</v>
-      </c>
-      <c r="B6">
-        <f>GDP・POP!C6*Intensity!B6/10^6</f>
-        <v>3.6701079999999977</v>
-      </c>
-      <c r="C6">
-        <f>GDP・POP!D6*Intensity!C6/10^6</f>
-        <v>3.6701079999999977</v>
-      </c>
-      <c r="D6">
-        <f>GDP・POP!G6*Intensity!D6/10^6</f>
-        <v>3.0556950000000112</v>
-      </c>
-      <c r="E6">
-        <f>GDP・POP!H6*Intensity!E6/10^6</f>
-        <v>3.0556950000000112</v>
-      </c>
-      <c r="F6">
-        <f>GDP・POP!C6*COMFLOOR!$B6*Intensity!F6/10^6</f>
-        <v>2.1838600000000081</v>
-      </c>
-      <c r="G6">
-        <f>GDP・POP!D6*COMFLOOR!$B6*Intensity!G6/10^6</f>
-        <v>2.1838600000000081</v>
-      </c>
-      <c r="H6">
-        <f>GDP・POP!G6*Intensity!H6/10^6</f>
-        <v>1.8973770000000076</v>
-      </c>
-      <c r="I6">
-        <f>GDP・POP!H6*Intensity!I6/10^6</f>
-        <v>1.8973770000000076</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>10.807040000000024</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>10.807040000000024</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="26">
-        <v>2015</v>
-      </c>
-      <c r="B7">
-        <f>GDP・POP!C7*Intensity!B7/10^6</f>
-        <v>3.5400980000000031</v>
-      </c>
-      <c r="C7">
-        <f>GDP・POP!D7*Intensity!C7/10^6</f>
-        <v>3.5400980000000031</v>
-      </c>
-      <c r="D7">
-        <f>GDP・POP!G7*Intensity!D7/10^6</f>
-        <v>3.0490900000000005</v>
-      </c>
-      <c r="E7">
-        <f>GDP・POP!H7*Intensity!E7/10^6</f>
-        <v>3.0490900000000005</v>
-      </c>
-      <c r="F7">
-        <f>GDP・POP!C7*COMFLOOR!$B7*Intensity!F7/10^6</f>
-        <v>2.1162230000000064</v>
-      </c>
-      <c r="G7">
-        <f>GDP・POP!D7*COMFLOOR!$B7*Intensity!G7/10^6</f>
-        <v>2.1162230000000064</v>
-      </c>
-      <c r="H7">
-        <f>GDP・POP!G7*Intensity!H7/10^6</f>
-        <v>1.8469099999999961</v>
-      </c>
-      <c r="I7">
-        <f>GDP・POP!H7*Intensity!I7/10^6</f>
-        <v>1.8469099999999961</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>10.552321000000006</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>10.552321000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="26">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <f>GDP・POP!C8*Intensity!B8/10^6</f>
-        <v>3.464630000000001</v>
-      </c>
-      <c r="C8">
-        <f>GDP・POP!D8*Intensity!C8/10^6</f>
-        <v>3.464630000000001</v>
-      </c>
-      <c r="D8">
-        <f>GDP・POP!G8*Intensity!D8/10^6</f>
-        <v>3.0160219999999978</v>
-      </c>
-      <c r="E8">
-        <f>GDP・POP!H8*Intensity!E8/10^6</f>
-        <v>3.0160219999999978</v>
-      </c>
-      <c r="F8">
-        <f>GDP・POP!C8*COMFLOOR!$B8*Intensity!F8/10^6</f>
-        <v>2.070034999999995</v>
-      </c>
-      <c r="G8">
-        <f>GDP・POP!D8*COMFLOOR!$B8*Intensity!G8/10^6</f>
-        <v>2.070034999999995</v>
-      </c>
-      <c r="H8">
-        <f>GDP・POP!G8*Intensity!H8/10^6</f>
-        <v>1.8485910000000054</v>
-      </c>
-      <c r="I8">
-        <f>GDP・POP!H8*Intensity!I8/10^6</f>
-        <v>1.8485910000000054</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>10.399278000000001</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>10.399278000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="26">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <f>GDP・POP!C9*Intensity!B9/10^6</f>
-        <v>3.4728230000000004</v>
-      </c>
-      <c r="C9">
-        <f>GDP・POP!D9*Intensity!C9/10^6</f>
-        <v>3.4728230000000004</v>
-      </c>
-      <c r="D9">
-        <f>GDP・POP!G9*Intensity!D9/10^6</f>
-        <v>2.9910649999999914</v>
-      </c>
-      <c r="E9">
-        <f>GDP・POP!H9*Intensity!E9/10^6</f>
-        <v>2.9910649999999914</v>
-      </c>
-      <c r="F9">
-        <f>GDP・POP!C9*COMFLOOR!$B9*Intensity!F9/10^6</f>
-        <v>2.1050319999999938</v>
-      </c>
-      <c r="G9">
-        <f>GDP・POP!D9*COMFLOOR!$B9*Intensity!G9/10^6</f>
-        <v>2.1050319999999938</v>
-      </c>
-      <c r="H9">
-        <f>GDP・POP!G9*Intensity!H9/10^6</f>
-        <v>1.9255359999999992</v>
-      </c>
-      <c r="I9">
-        <f>GDP・POP!H9*Intensity!I9/10^6</f>
-        <v>1.9255359999999992</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>10.494455999999985</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>10.494455999999985</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="26">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <f>GDP・POP!C10*Intensity!B10/10^6</f>
-        <v>3.4914290000000019</v>
-      </c>
-      <c r="C10">
-        <f>GDP・POP!D10*Intensity!C10/10^6</f>
-        <v>3.4914290000000019</v>
-      </c>
-      <c r="D10">
-        <f>GDP・POP!G10*Intensity!D10/10^6</f>
-        <v>2.9540929999999888</v>
-      </c>
-      <c r="E10">
-        <f>GDP・POP!H10*Intensity!E10/10^6</f>
-        <v>2.9540929999999888</v>
-      </c>
-      <c r="F10">
-        <f>GDP・POP!C10*COMFLOOR!$B10*Intensity!F10/10^6</f>
-        <v>2.1086090000000088</v>
-      </c>
-      <c r="G10">
-        <f>GDP・POP!D10*COMFLOOR!$B10*Intensity!G10/10^6</f>
-        <v>2.1086090000000088</v>
-      </c>
-      <c r="H10">
-        <f>GDP・POP!G10*Intensity!H10/10^6</f>
-        <v>1.7760959999999926</v>
-      </c>
-      <c r="I10">
-        <f>GDP・POP!H10*Intensity!I10/10^6</f>
-        <v>1.7760959999999926</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>10.330226999999992</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>10.330226999999992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="26">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <f>GDP・POP!C11*Intensity!B11/10^6</f>
-        <v>3.3643169999999993</v>
-      </c>
-      <c r="C11">
-        <f>GDP・POP!D11*Intensity!C11/10^6</f>
-        <v>3.3643169999999993</v>
-      </c>
-      <c r="D11">
-        <f>GDP・POP!G11*Intensity!D11/10^6</f>
-        <v>2.893835000000009</v>
-      </c>
-      <c r="E11">
-        <f>GDP・POP!H11*Intensity!E11/10^6</f>
-        <v>2.893835000000009</v>
-      </c>
-      <c r="F11">
-        <f>GDP・POP!C11*COMFLOOR!$B11*Intensity!F11/10^6</f>
-        <v>2.0647980000000006</v>
-      </c>
-      <c r="G11">
-        <f>GDP・POP!D11*COMFLOOR!$B11*Intensity!G11/10^6</f>
-        <v>2.0647980000000006</v>
-      </c>
-      <c r="H11">
-        <f>GDP・POP!G11*Intensity!H11/10^6</f>
-        <v>1.7600590000000043</v>
-      </c>
-      <c r="I11">
-        <f>GDP・POP!H11*Intensity!I11/10^6</f>
-        <v>1.7600590000000043</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>10.083009000000013</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>10.083009000000013</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="26">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <f>GDP・POP!C12*Intensity!B12/10^6</f>
-        <v>3.1464160000000025</v>
-      </c>
-      <c r="C12">
-        <f>GDP・POP!D12*Intensity!C12/10^6</f>
-        <v>3.1464160000000025</v>
-      </c>
-      <c r="D12">
-        <f>GDP・POP!G12*Intensity!D12/10^6</f>
-        <v>2.6152400000000067</v>
-      </c>
-      <c r="E12">
-        <f>GDP・POP!H12*Intensity!E12/10^6</f>
-        <v>2.6152400000000067</v>
-      </c>
-      <c r="F12">
-        <f>GDP・POP!C12*COMFLOOR!$B12*Intensity!F12/10^6</f>
-        <v>1.9469699999999954</v>
-      </c>
-      <c r="G12">
-        <f>GDP・POP!D12*COMFLOOR!$B12*Intensity!G12/10^6</f>
-        <v>1.9469699999999954</v>
-      </c>
-      <c r="H12">
-        <f>GDP・POP!G12*Intensity!H12/10^6</f>
-        <v>1.8437559999999997</v>
-      </c>
-      <c r="I12">
-        <f>GDP・POP!H12*Intensity!I12/10^6</f>
-        <v>1.8437559999999997</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>9.5523820000000033</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
-        <v>9.5523820000000033</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="26">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <f>GDP・POP!C13*Intensity!B13/10^6</f>
-        <v>3.170649993317165</v>
-      </c>
-      <c r="C13">
-        <f>GDP・POP!D13*Intensity!C13/10^6</f>
-        <v>3.1495123266950529</v>
-      </c>
-      <c r="D13">
-        <f>GDP・POP!G13*Intensity!D13/10^6</f>
-        <v>2.6039225075712045</v>
-      </c>
-      <c r="E13">
-        <f>GDP・POP!H13*Intensity!E13/10^6</f>
-        <v>2.5865630241873987</v>
-      </c>
-      <c r="F13">
-        <f>GDP・POP!C13*COMFLOOR!$B13*Intensity!F13/10^6</f>
-        <v>1.9681344850040998</v>
-      </c>
-      <c r="G13">
-        <f>GDP・POP!D13*COMFLOOR!$B13*Intensity!G13/10^6</f>
-        <v>1.9550135884374074</v>
-      </c>
-      <c r="H13">
-        <f>GDP・POP!G13*Intensity!H13/10^6</f>
-        <v>1.8357771167730079</v>
-      </c>
-      <c r="I13">
-        <f>GDP・POP!H13*Intensity!I13/10^6</f>
-        <v>1.8235386026611895</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>9.5784841026654775</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
-        <v>9.5146275419810493</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="26">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <f>GDP・POP!C14*Intensity!B14/10^6</f>
-        <v>3.1948839866343359</v>
-      </c>
-      <c r="C14">
-        <f>GDP・POP!D14*Intensity!C14/10^6</f>
-        <v>3.1522855334792159</v>
-      </c>
-      <c r="D14">
-        <f>GDP・POP!G14*Intensity!D14/10^6</f>
-        <v>2.5926050151424032</v>
-      </c>
-      <c r="E14">
-        <f>GDP・POP!H14*Intensity!E14/10^6</f>
-        <v>2.5580369482738412</v>
-      </c>
-      <c r="F14">
-        <f>GDP・POP!C14*COMFLOOR!$B14*Intensity!F14/10^6</f>
-        <v>1.9894973181786819</v>
-      </c>
-      <c r="G14">
-        <f>GDP・POP!D14*COMFLOOR!$B14*Intensity!G14/10^6</f>
-        <v>1.9629706872696355</v>
-      </c>
-      <c r="H14">
-        <f>GDP・POP!G14*Intensity!H14/10^6</f>
-        <v>1.8277982335460166</v>
-      </c>
-      <c r="I14">
-        <f>GDP・POP!H14*Intensity!I14/10^6</f>
-        <v>1.8034275904320722</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>9.6047845535014371</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
-        <v>9.4767207594547642</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="26">
-        <v>2023</v>
-      </c>
-      <c r="B15">
-        <f>GDP・POP!C15*Intensity!B15/10^6</f>
-        <v>3.2191179799514993</v>
-      </c>
-      <c r="C15">
-        <f>GDP・POP!D15*Intensity!C15/10^6</f>
-        <v>3.1547356203524708</v>
-      </c>
-      <c r="D15">
-        <f>GDP・POP!G15*Intensity!D15/10^6</f>
-        <v>2.5812875227136063</v>
-      </c>
-      <c r="E15">
-        <f>GDP・POP!H15*Intensity!E15/10^6</f>
-        <v>2.5296617722593351</v>
-      </c>
-      <c r="F15">
-        <f>GDP・POP!C15*COMFLOOR!$B15*Intensity!F15/10^6</f>
-        <v>2.0110636899511904</v>
-      </c>
-      <c r="G15">
-        <f>GDP・POP!D15*COMFLOOR!$B15*Intensity!G15/10^6</f>
-        <v>1.9708424161521672</v>
-      </c>
-      <c r="H15">
-        <f>GDP・POP!G15*Intensity!H15/10^6</f>
-        <v>1.8198193503190283</v>
-      </c>
-      <c r="I15">
-        <f>GDP・POP!H15*Intensity!I15/10^6</f>
-        <v>1.7834229633126484</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>9.6312885429353248</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>9.4386627720766221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="26">
-        <v>2024</v>
-      </c>
-      <c r="B16">
-        <f>GDP・POP!C16*Intensity!B16/10^6</f>
-        <v>3.2433519732686706</v>
-      </c>
-      <c r="C16">
-        <f>GDP・POP!D16*Intensity!C16/10^6</f>
-        <v>3.1568625873148428</v>
-      </c>
-      <c r="D16">
-        <f>GDP・POP!G16*Intensity!D16/10^6</f>
-        <v>2.5699700302848041</v>
-      </c>
-      <c r="E16">
-        <f>GDP・POP!H16*Intensity!E16/10^6</f>
-        <v>2.5014374961438794</v>
-      </c>
-      <c r="F16">
-        <f>GDP・POP!C16*COMFLOOR!$B16*Intensity!F16/10^6</f>
-        <v>2.0328388819789955</v>
-      </c>
-      <c r="G16">
-        <f>GDP・POP!D16*COMFLOOR!$B16*Intensity!G16/10^6</f>
-        <v>1.9786298451262245</v>
-      </c>
-      <c r="H16">
-        <f>GDP・POP!G16*Intensity!H16/10^6</f>
-        <v>1.8118404670920367</v>
-      </c>
-      <c r="I16">
-        <f>GDP・POP!H16*Intensity!I16/10^6</f>
-        <v>1.7635247213029177</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>9.6580013526245079</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
-        <v>9.4004546498878643</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="26">
-        <v>2025</v>
-      </c>
-      <c r="B17">
-        <f>GDP・POP!C17*Intensity!B17/10^6</f>
-        <v>3.2675859665858336</v>
-      </c>
-      <c r="C17">
-        <f>GDP・POP!D17*Intensity!C17/10^6</f>
-        <v>3.1586664343663062</v>
-      </c>
-      <c r="D17">
-        <f>GDP・POP!G17*Intensity!D17/10^6</f>
-        <v>2.5586525378560081</v>
-      </c>
-      <c r="E17">
-        <f>GDP・POP!H17*Intensity!E17/10^6</f>
-        <v>2.4733641199274743</v>
-      </c>
-      <c r="F17">
-        <f>GDP・POP!C17*COMFLOOR!$B17*Intensity!F17/10^6</f>
-        <v>2.0548282852103696</v>
-      </c>
-      <c r="G17">
-        <f>GDP・POP!D17*COMFLOOR!$B17*Intensity!G17/10^6</f>
-        <v>1.986334009036691</v>
-      </c>
-      <c r="H17">
-        <f>GDP・POP!G17*Intensity!H17/10^6</f>
-        <v>1.8038615838650487</v>
-      </c>
-      <c r="I17">
-        <f>GDP・POP!H17*Intensity!I17/10^6</f>
-        <v>1.7437328644028804</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>9.6849283735172591</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="1"/>
-        <v>9.3620974277333531</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="26">
-        <v>2026</v>
-      </c>
-      <c r="B18">
-        <f>GDP・POP!C18*Intensity!B18/10^6</f>
-        <v>3.2918199599030045</v>
-      </c>
-      <c r="C18">
-        <f>GDP・POP!D18*Intensity!C18/10^6</f>
-        <v>3.1601471615068877</v>
-      </c>
-      <c r="D18">
-        <f>GDP・POP!G18*Intensity!D18/10^6</f>
-        <v>2.5473350454272059</v>
-      </c>
-      <c r="E18">
-        <f>GDP・POP!H18*Intensity!E18/10^6</f>
-        <v>2.4454416436101201</v>
-      </c>
-      <c r="F18">
-        <f>GDP・POP!C18*COMFLOOR!$B18*Intensity!F18/10^6</f>
-        <v>2.0731922826857589</v>
-      </c>
-      <c r="G18">
-        <f>GDP・POP!D18*COMFLOOR!$B18*Intensity!G18/10^6</f>
-        <v>1.9902645913783303</v>
-      </c>
-      <c r="H18">
-        <f>GDP・POP!G18*Intensity!H18/10^6</f>
-        <v>1.7958827006380569</v>
-      </c>
-      <c r="I18">
-        <f>GDP・POP!H18*Intensity!I18/10^6</f>
-        <v>1.7240473926125361</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="0"/>
-        <v>9.7082299886540273</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="1"/>
-        <v>9.3199007891078747</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="26">
-        <v>2027</v>
-      </c>
-      <c r="B19">
-        <f>GDP・POP!C19*Intensity!B19/10^6</f>
-        <v>3.3160539532201683</v>
-      </c>
-      <c r="C19">
-        <f>GDP・POP!D19*Intensity!C19/10^6</f>
-        <v>3.1613047687365654</v>
-      </c>
-      <c r="D19">
-        <f>GDP・POP!G19*Intensity!D19/10^6</f>
-        <v>2.5360175529984095</v>
-      </c>
-      <c r="E19">
-        <f>GDP・POP!H19*Intensity!E19/10^6</f>
-        <v>2.4176700671918208</v>
-      </c>
-      <c r="F19">
-        <f>GDP・POP!C19*COMFLOOR!$B19*Intensity!F19/10^6</f>
-        <v>2.0917222116669367</v>
-      </c>
-      <c r="G19">
-        <f>GDP・POP!D19*COMFLOOR!$B19*Intensity!G19/10^6</f>
-        <v>1.9941085084558159</v>
-      </c>
-      <c r="H19">
-        <f>GDP・POP!G19*Intensity!H19/10^6</f>
-        <v>1.7879038174110689</v>
-      </c>
-      <c r="I19">
-        <f>GDP・POP!H19*Intensity!I19/10^6</f>
-        <v>1.7044683059318886</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="0"/>
-        <v>9.7316975352965827</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="1"/>
-        <v>9.2775516503160915</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="26">
-        <v>2028</v>
-      </c>
-      <c r="B20">
-        <f>GDP・POP!C20*Intensity!B20/10^6</f>
-        <v>3.3402879465373392</v>
-      </c>
-      <c r="C20">
-        <f>GDP・POP!D20*Intensity!C20/10^6</f>
-        <v>3.1621392560553496</v>
-      </c>
-      <c r="D20">
-        <f>GDP・POP!G20*Intensity!D20/10^6</f>
-        <v>2.5247000605696077</v>
-      </c>
-      <c r="E20">
-        <f>GDP・POP!H20*Intensity!E20/10^6</f>
-        <v>2.3900493906725635</v>
-      </c>
-      <c r="F20">
-        <f>GDP・POP!C20*COMFLOOR!$B20*Intensity!F20/10^6</f>
-        <v>2.1104229696655463</v>
-      </c>
-      <c r="G20">
-        <f>GDP・POP!D20*COMFLOOR!$B20*Intensity!G20/10^6</f>
-        <v>1.9978670779500516</v>
-      </c>
-      <c r="H20">
-        <f>GDP・POP!G20*Intensity!H20/10^6</f>
-        <v>1.7799249341840773</v>
-      </c>
-      <c r="I20">
-        <f>GDP・POP!H20*Intensity!I20/10^6</f>
-        <v>1.6849956043609273</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="0"/>
-        <v>9.7553359109565694</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="1"/>
-        <v>9.2350513290388925</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="26">
-        <v>2029</v>
-      </c>
-      <c r="B21">
-        <f>GDP・POP!C21*Intensity!B21/10^6</f>
-        <v>3.3645219398545025</v>
-      </c>
-      <c r="C21">
-        <f>GDP・POP!D21*Intensity!C21/10^6</f>
-        <v>3.1626506234632368</v>
-      </c>
-      <c r="D21">
-        <f>GDP・POP!G21*Intensity!D21/10^6</f>
-        <v>2.5133825681408113</v>
-      </c>
-      <c r="E21">
-        <f>GDP・POP!H21*Intensity!E21/10^6</f>
-        <v>2.3625796140523661</v>
-      </c>
-      <c r="F21">
-        <f>GDP・POP!C21*COMFLOOR!$B21*Intensity!F21/10^6</f>
-        <v>2.1292994950671424</v>
-      </c>
-      <c r="G21">
-        <f>GDP・POP!D21*COMFLOOR!$B21*Intensity!G21/10^6</f>
-        <v>2.0015415253631166</v>
-      </c>
-      <c r="H21">
-        <f>GDP・POP!G21*Intensity!H21/10^6</f>
-        <v>1.771946050957089</v>
-      </c>
-      <c r="I21">
-        <f>GDP・POP!H21*Intensity!I21/10^6</f>
-        <v>1.6656292878996659</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="0"/>
-        <v>9.7791500540195457</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="1"/>
-        <v>9.1924010507783844</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="26">
-        <v>2030</v>
-      </c>
-      <c r="B22">
-        <f>GDP・POP!C22*Intensity!B22/10^6</f>
-        <v>3.3887559331716739</v>
-      </c>
-      <c r="C22">
-        <f>GDP・POP!D22*Intensity!C22/10^6</f>
-        <v>3.1628388709602295</v>
-      </c>
-      <c r="D22">
-        <f>GDP・POP!G22*Intensity!D22/10^6</f>
-        <v>2.5020650757120095</v>
-      </c>
-      <c r="E22">
-        <f>GDP・POP!H22*Intensity!E22/10^6</f>
-        <v>2.3352607373312098</v>
-      </c>
-      <c r="F22">
-        <f>GDP・POP!C22*COMFLOOR!$B22*Intensity!F22/10^6</f>
-        <v>2.1483568362827805</v>
-      </c>
-      <c r="G22">
-        <f>GDP・POP!D22*COMFLOOR!$B22*Intensity!G22/10^6</f>
-        <v>2.0051330471972624</v>
-      </c>
-      <c r="H22">
-        <f>GDP・POP!G22*Intensity!H22/10^6</f>
-        <v>1.7639671677300974</v>
-      </c>
-      <c r="I22">
-        <f>GDP・POP!H22*Intensity!I22/10^6</f>
-        <v>1.6463693565480915</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="0"/>
-        <v>9.8031450128965609</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="1"/>
-        <v>9.1496020120367945</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="26">
-        <v>2031</v>
-      </c>
-      <c r="B23">
-        <f>GDP・POP!C23*Intensity!B23/10^6</f>
-        <v>3.4129899264888368</v>
-      </c>
-      <c r="C23">
-        <f>GDP・POP!D23*Intensity!C23/10^6</f>
-        <v>3.1627039985463257</v>
-      </c>
-      <c r="D23">
-        <f>GDP・POP!G23*Intensity!D23/10^6</f>
-        <v>2.4907475832832127</v>
-      </c>
-      <c r="E23">
-        <f>GDP・POP!H23*Intensity!E23/10^6</f>
-        <v>2.3080927605091128</v>
-      </c>
-      <c r="F23">
-        <f>GDP・POP!C23*COMFLOOR!$B23*Intensity!F23/10^6</f>
-        <v>2.1613903104425449</v>
-      </c>
-      <c r="G23">
-        <f>GDP・POP!D23*COMFLOOR!$B23*Intensity!G23/10^6</f>
-        <v>2.002888354343427</v>
-      </c>
-      <c r="H23">
-        <f>GDP・POP!G23*Intensity!H23/10^6</f>
-        <v>1.7559882845031094</v>
-      </c>
-      <c r="I23">
-        <f>GDP・POP!H23*Intensity!I23/10^6</f>
-        <v>1.6272158103062164</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="0"/>
-        <v>9.8211161047177047</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="1"/>
-        <v>9.1009009237050833</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="26">
-        <v>2032</v>
-      </c>
-      <c r="B24">
-        <f>GDP・POP!C24*Intensity!B24/10^6</f>
-        <v>3.4372239198060002</v>
-      </c>
-      <c r="C24">
-        <f>GDP・POP!D24*Intensity!C24/10^6</f>
-        <v>3.1622460062215265</v>
-      </c>
-      <c r="D24">
-        <f>GDP・POP!G24*Intensity!D24/10^6</f>
-        <v>2.4794300908544109</v>
-      </c>
-      <c r="E24">
-        <f>GDP・POP!H24*Intensity!E24/10^6</f>
-        <v>2.2810756835860624</v>
-      </c>
-      <c r="F24">
-        <f>GDP・POP!C24*COMFLOOR!$B24*Intensity!F24/10^6</f>
-        <v>2.1745199712620864</v>
-      </c>
-      <c r="G24">
-        <f>GDP・POP!D24*COMFLOOR!$B24*Intensity!G24/10^6</f>
-        <v>2.0005583735611232</v>
-      </c>
-      <c r="H24">
-        <f>GDP・POP!G24*Intensity!H24/10^6</f>
-        <v>1.7480094012761176</v>
-      </c>
-      <c r="I24">
-        <f>GDP・POP!H24*Intensity!I24/10^6</f>
-        <v>1.6081686491740312</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="0"/>
-        <v>9.8391833831986144</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="1"/>
-        <v>9.052048712542744</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="26">
-        <v>2033</v>
-      </c>
-      <c r="B25">
-        <f>GDP・POP!C25*Intensity!B25/10^6</f>
-        <v>3.4614579131231715</v>
-      </c>
-      <c r="C25">
-        <f>GDP・POP!D25*Intensity!C25/10^6</f>
-        <v>3.1614648939858321</v>
-      </c>
-      <c r="D25">
-        <f>GDP・POP!G25*Intensity!D25/10^6</f>
-        <v>2.468112598425614</v>
-      </c>
-      <c r="E25">
-        <f>GDP・POP!H25*Intensity!E25/10^6</f>
-        <v>2.2542095065620629</v>
-      </c>
-      <c r="F25">
-        <f>GDP・POP!C25*COMFLOOR!$B25*Intensity!F25/10^6</f>
-        <v>2.1877495731471517</v>
-      </c>
-      <c r="G25">
-        <f>GDP・POP!D25*COMFLOOR!$B25*Intensity!G25/10^6</f>
-        <v>1.9981446101410669</v>
-      </c>
-      <c r="H25">
-        <f>GDP・POP!G25*Intensity!H25/10^6</f>
-        <v>1.7400305180491296</v>
-      </c>
-      <c r="I25">
-        <f>GDP・POP!H25*Intensity!I25/10^6</f>
-        <v>1.5892278731515397</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="0"/>
-        <v>9.8573506027450666</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="1"/>
-        <v>9.0030468838405007</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="26">
-        <v>2034</v>
-      </c>
-      <c r="B26">
-        <f>GDP・POP!C26*Intensity!B26/10^6</f>
-        <v>3.4856919064403349</v>
-      </c>
-      <c r="C26">
-        <f>GDP・POP!D26*Intensity!C26/10^6</f>
-        <v>3.1603606618392419</v>
-      </c>
-      <c r="D26">
-        <f>GDP・POP!G26*Intensity!D26/10^6</f>
-        <v>2.4567951059968127</v>
-      </c>
-      <c r="E26">
-        <f>GDP・POP!H26*Intensity!E26/10^6</f>
-        <v>2.2274942294371134</v>
-      </c>
-      <c r="F26">
-        <f>GDP・POP!C26*COMFLOOR!$B26*Intensity!F26/10^6</f>
-        <v>2.2010829221577399</v>
-      </c>
-      <c r="G26">
-        <f>GDP・POP!D26*COMFLOOR!$B26*Intensity!G26/10^6</f>
-        <v>1.9956485160896873</v>
-      </c>
-      <c r="H26">
-        <f>GDP・POP!G26*Intensity!H26/10^6</f>
-        <v>1.732051634822138</v>
-      </c>
-      <c r="I26">
-        <f>GDP・POP!H26*Intensity!I26/10^6</f>
-        <v>1.5703934822387409</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="0"/>
-        <v>9.8756215694170262</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="1"/>
-        <v>8.953896889604783</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="26">
-        <v>2035</v>
-      </c>
-      <c r="B27">
-        <f>GDP・POP!C27*Intensity!B27/10^6</f>
-        <v>3.5099258997575058</v>
-      </c>
-      <c r="C27">
-        <f>GDP・POP!D27*Intensity!C27/10^6</f>
-        <v>3.1589333097817565</v>
-      </c>
-      <c r="D27">
-        <f>GDP・POP!G27*Intensity!D27/10^6</f>
-        <v>2.4454776135680159</v>
-      </c>
-      <c r="E27">
-        <f>GDP・POP!H27*Intensity!E27/10^6</f>
-        <v>2.2009298522112157</v>
-      </c>
-      <c r="F27">
-        <f>GDP・POP!C27*COMFLOOR!$B27*Intensity!F27/10^6</f>
-        <v>2.2145238404416152</v>
-      </c>
-      <c r="G27">
-        <f>GDP・POP!D27*COMFLOOR!$B27*Intensity!G27/10^6</f>
-        <v>1.993071456397455</v>
-      </c>
-      <c r="H27">
-        <f>GDP・POP!G27*Intensity!H27/10^6</f>
-        <v>1.7240727515951497</v>
-      </c>
-      <c r="I27">
-        <f>GDP・POP!H27*Intensity!I27/10^6</f>
-        <v>1.5516654764356355</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="0"/>
-        <v>9.8940001053622861</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="1"/>
-        <v>8.9046000948260637</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="26">
-        <v>2036</v>
-      </c>
-      <c r="B28">
-        <f>GDP・POP!C28*Intensity!B28/10^6</f>
-        <v>3.5341598930746696</v>
-      </c>
-      <c r="C28">
-        <f>GDP・POP!D28*Intensity!C28/10^6</f>
-        <v>3.1571828378133748</v>
-      </c>
-      <c r="D28">
-        <f>GDP・POP!G28*Intensity!D28/10^6</f>
-        <v>2.4341601211392145</v>
-      </c>
-      <c r="E28">
-        <f>GDP・POP!H28*Intensity!E28/10^6</f>
-        <v>2.1745163748843681</v>
-      </c>
-      <c r="F28">
-        <f>GDP・POP!C28*COMFLOOR!$B28*Intensity!F28/10^6</f>
-        <v>2.2227851871037387</v>
-      </c>
-      <c r="G28">
-        <f>GDP・POP!D28*COMFLOOR!$B28*Intensity!G28/10^6</f>
-        <v>1.9856881004793421</v>
-      </c>
-      <c r="H28">
-        <f>GDP・POP!G28*Intensity!H28/10^6</f>
-        <v>1.7160938683681581</v>
-      </c>
-      <c r="I28">
-        <f>GDP・POP!H28*Intensity!I28/10^6</f>
-        <v>1.5330438557422232</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="0"/>
-        <v>9.907199069685781</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="1"/>
-        <v>8.8504311689193074</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="26">
-        <v>2037</v>
-      </c>
-      <c r="B29">
-        <f>GDP・POP!C29*Intensity!B29/10^6</f>
-        <v>3.5583938863918401</v>
-      </c>
-      <c r="C29">
-        <f>GDP・POP!D29*Intensity!C29/10^6</f>
-        <v>3.1551092459341046</v>
-      </c>
-      <c r="D29">
-        <f>GDP・POP!G29*Intensity!D29/10^6</f>
-        <v>2.4228426287104177</v>
-      </c>
-      <c r="E29">
-        <f>GDP・POP!H29*Intensity!E29/10^6</f>
-        <v>2.1482537974565745</v>
-      </c>
-      <c r="F29">
-        <f>GDP・POP!C29*COMFLOOR!$B29*Intensity!F29/10^6</f>
-        <v>2.2311358042172991</v>
-      </c>
-      <c r="G29">
-        <f>GDP・POP!D29*COMFLOOR!$B29*Intensity!G29/10^6</f>
-        <v>1.9782737464060089</v>
-      </c>
-      <c r="H29">
-        <f>GDP・POP!G29*Intensity!H29/10^6</f>
-        <v>1.7081149851411699</v>
-      </c>
-      <c r="I29">
-        <f>GDP・POP!H29*Intensity!I29/10^6</f>
-        <v>1.5145286201585073</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="0"/>
-        <v>9.9204873044607265</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="1"/>
-        <v>8.7961654099551954</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="26">
-        <v>2038</v>
-      </c>
-      <c r="B30">
-        <f>GDP・POP!C30*Intensity!B30/10^6</f>
-        <v>3.5826278797090034</v>
-      </c>
-      <c r="C30">
-        <f>GDP・POP!D30*Intensity!C30/10^6</f>
-        <v>3.1527125341439262</v>
-      </c>
-      <c r="D30">
-        <f>GDP・POP!G30*Intensity!D30/10^6</f>
-        <v>2.4115251362816159</v>
-      </c>
-      <c r="E30">
-        <f>GDP・POP!H30*Intensity!E30/10^6</f>
-        <v>2.1221421199278239</v>
-      </c>
-      <c r="F30">
-        <f>GDP・POP!C30*COMFLOOR!$B30*Intensity!F30/10^6</f>
-        <v>2.2395793197393572</v>
-      </c>
-      <c r="G30">
-        <f>GDP・POP!D30*COMFLOOR!$B30*Intensity!G30/10^6</f>
-        <v>1.970829801370636</v>
-      </c>
-      <c r="H30">
-        <f>GDP・POP!G30*Intensity!H30/10^6</f>
-        <v>1.7001361019141785</v>
-      </c>
-      <c r="I30">
-        <f>GDP・POP!H30*Intensity!I30/10^6</f>
-        <v>1.4961197696844784</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="0"/>
-        <v>9.9338684376441559</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="1"/>
-        <v>8.7418042251268648</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="26">
-        <v>2039</v>
-      </c>
-      <c r="B31">
-        <f>GDP・POP!C31*Intensity!B31/10^6</f>
-        <v>3.6068618730261743</v>
-      </c>
-      <c r="C31">
-        <f>GDP・POP!D31*Intensity!C31/10^6</f>
-        <v>3.1499927024428644</v>
-      </c>
-      <c r="D31">
-        <f>GDP・POP!G31*Intensity!D31/10^6</f>
-        <v>2.400207643852819</v>
-      </c>
-      <c r="E31">
-        <f>GDP・POP!H31*Intensity!E31/10^6</f>
-        <v>2.0961813422981326</v>
-      </c>
-      <c r="F31">
-        <f>GDP・POP!C31*COMFLOOR!$B31*Intensity!F31/10^6</f>
-        <v>2.2481194377892306</v>
-      </c>
-      <c r="G31">
-        <f>GDP・POP!D31*COMFLOOR!$B31*Intensity!G31/10^6</f>
-        <v>1.9633576423359314</v>
-      </c>
-      <c r="H31">
-        <f>GDP・POP!G31*Intensity!H31/10^6</f>
-        <v>1.6921572186871903</v>
-      </c>
-      <c r="I31">
-        <f>GDP・POP!H31*Intensity!I31/10^6</f>
-        <v>1.4778173043201486</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="0"/>
-        <v>9.9473461733554149</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="1"/>
-        <v>8.6873489913970765</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="26">
-        <v>2040</v>
-      </c>
-      <c r="B32">
-        <f>GDP・POP!C32*Intensity!B32/10^6</f>
-        <v>3.6310958663433381</v>
-      </c>
-      <c r="C32">
-        <f>GDP・POP!D32*Intensity!C32/10^6</f>
-        <v>3.146949750830895</v>
-      </c>
-      <c r="D32">
-        <f>GDP・POP!G32*Intensity!D32/10^6</f>
-        <v>2.3888901514240177</v>
-      </c>
-      <c r="E32">
-        <f>GDP・POP!H32*Intensity!E32/10^6</f>
-        <v>2.0703714645674833</v>
-      </c>
-      <c r="F32">
-        <f>GDP・POP!C32*COMFLOOR!$B32*Intensity!F32/10^6</f>
-        <v>2.2567598074058988</v>
-      </c>
-      <c r="G32">
-        <f>GDP・POP!D32*COMFLOOR!$B32*Intensity!G32/10^6</f>
-        <v>1.9558584997517801</v>
-      </c>
-      <c r="H32">
-        <f>GDP・POP!G32*Intensity!H32/10^6</f>
-        <v>1.6841783354601989</v>
-      </c>
-      <c r="I32">
-        <f>GDP・POP!H32*Intensity!I32/10^6</f>
-        <v>1.4596212240655064</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="0"/>
-        <v>9.9609241606334535</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="1"/>
-        <v>8.6328009392156648</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="26">
-        <v>2041</v>
-      </c>
-      <c r="B33">
-        <f>GDP・POP!C33*Intensity!B33/10^6</f>
-        <v>3.6553298596605091</v>
-      </c>
-      <c r="C33">
-        <f>GDP・POP!D33*Intensity!C33/10^6</f>
-        <v>3.1435836793080418</v>
-      </c>
-      <c r="D33">
-        <f>GDP・POP!G33*Intensity!D33/10^6</f>
-        <v>2.3775726589952209</v>
-      </c>
-      <c r="E33">
-        <f>GDP・POP!H33*Intensity!E33/10^6</f>
-        <v>2.044712486735893</v>
-      </c>
-      <c r="F33">
-        <f>GDP・POP!C33*COMFLOOR!$B33*Intensity!F33/10^6</f>
-        <v>2.271127296731108</v>
-      </c>
-      <c r="G33">
-        <f>GDP・POP!D33*COMFLOOR!$B33*Intensity!G33/10^6</f>
-        <v>1.9531694751887554</v>
-      </c>
-      <c r="H33">
-        <f>GDP・POP!G33*Intensity!H33/10^6</f>
-        <v>1.6761994522332107</v>
-      </c>
-      <c r="I33">
-        <f>GDP・POP!H33*Intensity!I33/10^6</f>
-        <v>1.4415315289205632</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="0"/>
-        <v>9.9802292676200484</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="1"/>
-        <v>8.5829971701532539</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="26">
-        <v>2042</v>
-      </c>
-      <c r="B34">
-        <f>GDP・POP!C34*Intensity!B34/10^6</f>
-        <v>3.6795638529776724</v>
-      </c>
-      <c r="C34">
-        <f>GDP・POP!D34*Intensity!C34/10^6</f>
-        <v>3.1398944878742809</v>
-      </c>
-      <c r="D34">
-        <f>GDP・POP!G34*Intensity!D34/10^6</f>
-        <v>2.3662551665664195</v>
-      </c>
-      <c r="E34">
-        <f>GDP・POP!H34*Intensity!E34/10^6</f>
-        <v>2.0192044088033447</v>
-      </c>
-      <c r="F34">
-        <f>GDP・POP!C34*COMFLOOR!$B34*Intensity!F34/10^6</f>
-        <v>2.2855822916015849</v>
-      </c>
-      <c r="G34">
-        <f>GDP・POP!D34*COMFLOOR!$B34*Intensity!G34/10^6</f>
-        <v>1.9503635555000196</v>
-      </c>
-      <c r="H34">
-        <f>GDP・POP!G34*Intensity!H34/10^6</f>
-        <v>1.6682205690062191</v>
-      </c>
-      <c r="I34">
-        <f>GDP・POP!H34*Intensity!I34/10^6</f>
-        <v>1.4235482188853072</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="0"/>
-        <v>9.9996218801518975</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="1"/>
-        <v>8.5330106710629519</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="26">
-        <v>2043</v>
-      </c>
-      <c r="B35">
-        <f>GDP・POP!C35*Intensity!B35/10^6</f>
-        <v>3.7037978462948433</v>
-      </c>
-      <c r="C35">
-        <f>GDP・POP!D35*Intensity!C35/10^6</f>
-        <v>3.1358821765296376</v>
-      </c>
-      <c r="D35">
-        <f>GDP・POP!G35*Intensity!D35/10^6</f>
-        <v>2.3549376741376227</v>
-      </c>
-      <c r="E35">
-        <f>GDP・POP!H35*Intensity!E35/10^6</f>
-        <v>1.993847230769856</v>
-      </c>
-      <c r="F35">
-        <f>GDP・POP!C35*COMFLOOR!$B35*Intensity!F35/10^6</f>
-        <v>2.3001275966104466</v>
-      </c>
-      <c r="G35">
-        <f>GDP・POP!D35*COMFLOOR!$B35*Intensity!G35/10^6</f>
-        <v>1.9474413651301801</v>
-      </c>
-      <c r="H35">
-        <f>GDP・POP!G35*Intensity!H35/10^6</f>
-        <v>1.6602416857792308</v>
-      </c>
-      <c r="I35">
-        <f>GDP・POP!H35*Intensity!I35/10^6</f>
-        <v>1.4056712939597504</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="0"/>
-        <v>10.019104802822142</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="1"/>
-        <v>8.4828420663894235</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="26">
-        <v>2044</v>
-      </c>
-      <c r="B36">
-        <f>GDP・POP!C36*Intensity!B36/10^6</f>
-        <v>3.7280318396120067</v>
-      </c>
-      <c r="C36">
-        <f>GDP・POP!D36*Intensity!C36/10^6</f>
-        <v>3.1315467452740915</v>
-      </c>
-      <c r="D36">
-        <f>GDP・POP!G36*Intensity!D36/10^6</f>
-        <v>2.3436201817088209</v>
-      </c>
-      <c r="E36">
-        <f>GDP・POP!H36*Intensity!E36/10^6</f>
-        <v>1.9686409526354132</v>
-      </c>
-      <c r="F36">
-        <f>GDP・POP!C36*COMFLOOR!$B36*Intensity!F36/10^6</f>
-        <v>2.3147660470734852</v>
-      </c>
-      <c r="G36">
-        <f>GDP・POP!D36*COMFLOOR!$B36*Intensity!G36/10^6</f>
-        <v>1.9444034795417315</v>
-      </c>
-      <c r="H36">
-        <f>GDP・POP!G36*Intensity!H36/10^6</f>
-        <v>1.6522628025522392</v>
-      </c>
-      <c r="I36">
-        <f>GDP・POP!H36*Intensity!I36/10^6</f>
-        <v>1.3879007541438837</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="0"/>
-        <v>10.038680870946553</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="1"/>
-        <v>8.4324919315951199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="26">
-        <v>2045</v>
-      </c>
-      <c r="B37">
-        <f>GDP・POP!C37*Intensity!B37/10^6</f>
-        <v>3.7522658329291776</v>
-      </c>
-      <c r="C37">
-        <f>GDP・POP!D37*Intensity!C37/10^6</f>
-        <v>3.1268881941076505</v>
-      </c>
-      <c r="D37">
-        <f>GDP・POP!G37*Intensity!D37/10^6</f>
-        <v>2.332302689280024</v>
-      </c>
-      <c r="E37">
-        <f>GDP・POP!H37*Intensity!E37/10^6</f>
-        <v>1.9435855744000217</v>
-      </c>
-      <c r="F37">
-        <f>GDP・POP!C37*COMFLOOR!$B37*Intensity!F37/10^6</f>
-        <v>2.3295005000117879</v>
-      </c>
-      <c r="G37">
-        <f>GDP・POP!D37*COMFLOOR!$B37*Intensity!G37/10^6</f>
-        <v>1.9412504166764912</v>
-      </c>
-      <c r="H37">
-        <f>GDP・POP!G37*Intensity!H37/10^6</f>
-        <v>1.6442839193252512</v>
-      </c>
-      <c r="I37">
-        <f>GDP・POP!H37*Intensity!I37/10^6</f>
-        <v>1.3702365994377101</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="0"/>
-        <v>10.058352941546239</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="1"/>
-        <v>8.3819607846218744</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="26">
-        <v>2046</v>
-      </c>
-      <c r="B38">
-        <f>GDP・POP!C38*Intensity!B38/10^6</f>
-        <v>3.7764998262463414</v>
-      </c>
-      <c r="C38">
-        <f>GDP・POP!D38*Intensity!C38/10^6</f>
-        <v>3.1219065230303138</v>
-      </c>
-      <c r="D38">
-        <f>GDP・POP!G38*Intensity!D38/10^6</f>
-        <v>2.3209851968512227</v>
-      </c>
-      <c r="E38">
-        <f>GDP・POP!H38*Intensity!E38/10^6</f>
-        <v>1.9186810960636806</v>
-      </c>
-      <c r="F38">
-        <f>GDP・POP!C38*COMFLOOR!$B38*Intensity!F38/10^6</f>
-        <v>2.3428736834284893</v>
-      </c>
-      <c r="G38">
-        <f>GDP・POP!D38*COMFLOOR!$B38*Intensity!G38/10^6</f>
-        <v>1.9367755783008873</v>
-      </c>
-      <c r="H38">
-        <f>GDP・POP!G38*Intensity!H38/10^6</f>
-        <v>1.6363050360982594</v>
-      </c>
-      <c r="I38">
-        <f>GDP・POP!H38*Intensity!I38/10^6</f>
-        <v>1.35267882984123</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="0"/>
-        <v>10.076663742624312</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="1"/>
-        <v>8.3300420272361109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="26">
-        <v>2047</v>
-      </c>
-      <c r="B39">
-        <f>GDP・POP!C39*Intensity!B39/10^6</f>
-        <v>3.8007338195635123</v>
-      </c>
-      <c r="C39">
-        <f>GDP・POP!D39*Intensity!C39/10^6</f>
-        <v>3.1166017320420814</v>
-      </c>
-      <c r="D39">
-        <f>GDP・POP!G39*Intensity!D39/10^6</f>
-        <v>2.3096677044224259</v>
-      </c>
-      <c r="E39">
-        <f>GDP・POP!H39*Intensity!E39/10^6</f>
-        <v>1.8939275176263901</v>
-      </c>
-      <c r="F39">
-        <f>GDP・POP!C39*COMFLOOR!$B39*Intensity!F39/10^6</f>
-        <v>2.3563381254210505</v>
-      </c>
-      <c r="G39">
-        <f>GDP・POP!D39*COMFLOOR!$B39*Intensity!G39/10^6</f>
-        <v>1.9321972628452619</v>
-      </c>
-      <c r="H39">
-        <f>GDP・POP!G39*Intensity!H39/10^6</f>
-        <v>1.6283261528712714</v>
-      </c>
-      <c r="I39">
-        <f>GDP・POP!H39*Intensity!I39/10^6</f>
-        <v>1.335227445354443</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="0"/>
-        <v>10.09506580227826</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="1"/>
-        <v>8.277953957868176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="26">
-        <v>2048</v>
-      </c>
-      <c r="B40">
-        <f>GDP・POP!C40*Intensity!B40/10^6</f>
-        <v>3.8249678128806757</v>
-      </c>
-      <c r="C40">
-        <f>GDP・POP!D40*Intensity!C40/10^6</f>
-        <v>3.1109738211429532</v>
-      </c>
-      <c r="D40">
-        <f>GDP・POP!G40*Intensity!D40/10^6</f>
-        <v>2.2983502119936245</v>
-      </c>
-      <c r="E40">
-        <f>GDP・POP!H40*Intensity!E40/10^6</f>
-        <v>1.8693248390881503</v>
-      </c>
-      <c r="F40">
-        <f>GDP・POP!C40*COMFLOOR!$B40*Intensity!F40/10^6</f>
-        <v>2.3698965580268125</v>
-      </c>
-      <c r="G40">
-        <f>GDP・POP!D40*COMFLOOR!$B40*Intensity!G40/10^6</f>
-        <v>1.9275158671951429</v>
-      </c>
-      <c r="H40">
-        <f>GDP・POP!G40*Intensity!H40/10^6</f>
-        <v>1.6203472696442798</v>
-      </c>
-      <c r="I40">
-        <f>GDP・POP!H40*Intensity!I40/10^6</f>
-        <v>1.3178824459773493</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="0"/>
-        <v>10.113561852545391</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="1"/>
-        <v>8.2256969734035952</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="26">
-        <v>2049</v>
-      </c>
-      <c r="B41">
-        <f>GDP・POP!C41*Intensity!B41/10^6</f>
-        <v>3.849201806197839</v>
-      </c>
-      <c r="C41">
-        <f>GDP・POP!D41*Intensity!C41/10^6</f>
-        <v>3.1050227903329302</v>
-      </c>
-      <c r="D41">
-        <f>GDP・POP!G41*Intensity!D41/10^6</f>
-        <v>2.2870327195648228</v>
-      </c>
-      <c r="E41">
-        <f>GDP・POP!H41*Intensity!E41/10^6</f>
-        <v>1.8448730604489609</v>
-      </c>
-      <c r="F41">
-        <f>GDP・POP!C41*COMFLOOR!$B41*Intensity!F41/10^6</f>
-        <v>2.3835517225303424</v>
-      </c>
-      <c r="G41">
-        <f>GDP・POP!D41*COMFLOOR!$B41*Intensity!G41/10^6</f>
-        <v>1.9227317228411474</v>
-      </c>
-      <c r="H41">
-        <f>GDP・POP!G41*Intensity!H41/10^6</f>
-        <v>1.6123683864172882</v>
-      </c>
-      <c r="I41">
-        <f>GDP・POP!H41*Intensity!I41/10^6</f>
-        <v>1.3006438317099487</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="0"/>
-        <v>10.132154634710291</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="1"/>
-        <v>8.1732714053329865</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="26">
-        <v>2050</v>
-      </c>
-      <c r="B42">
-        <f>GDP・POP!C42*Intensity!B42/10^6</f>
-        <v>3.8734357995150099</v>
-      </c>
-      <c r="C42">
-        <f>GDP・POP!D42*Intensity!C42/10^6</f>
-        <v>3.0987486396120105</v>
-      </c>
-      <c r="D42">
-        <f>GDP・POP!G42*Intensity!D42/10^6</f>
-        <v>2.2757152271360259</v>
-      </c>
-      <c r="E42">
-        <f>GDP・POP!H42*Intensity!E42/10^6</f>
-        <v>1.8205721817088225</v>
-      </c>
-      <c r="F42">
-        <f>GDP・POP!C42*COMFLOOR!$B42*Intensity!F42/10^6</f>
-        <v>2.3973063858563726</v>
-      </c>
-      <c r="G42">
-        <f>GDP・POP!D42*COMFLOOR!$B42*Intensity!G42/10^6</f>
-        <v>1.9178451086850998</v>
-      </c>
-      <c r="H42">
-        <f>GDP・POP!G42*Intensity!H42/10^6</f>
-        <v>1.6043895031902999</v>
-      </c>
-      <c r="I42">
-        <f>GDP・POP!H42*Intensity!I42/10^6</f>
-        <v>1.2835116025522413</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="0"/>
-        <v>10.150846915697707</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="1"/>
-        <v>8.1206775325581741</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>